--- a/1st_search_string/IEEEXplore/Excel files/IEEE Xplore Citation BibTeX Download 2025.4.8.4.9.xlsx
+++ b/1st_search_string/IEEEXplore/Excel files/IEEE Xplore Citation BibTeX Download 2025.4.8.4.9.xlsx
@@ -15,12 +15,2676 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="890">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>ISSN</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>booktitle</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>9427272</t>
+  </si>
+  <si>
+    <t>ARTICLE</t>
+  </si>
+  <si>
+    <t>Locoro, Angela and Fisher, William P. and Mari, Luca</t>
+  </si>
+  <si>
+    <t>IEEE Access</t>
+  </si>
+  <si>
+    <t>Visual Information Literacy: Definition, Construct Modeling and Assessment</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>71053-71071</t>
+  </si>
+  <si>
+    <t>A major problem in education and visual information design is that, while tools to measure people's reading and writing ability with texts and numbers are ripe, the ability to properly process information from data graphics - an ability that can be called Visual Information Literacy - is still off the radar, and even less interest is apparently devoted to its evaluation. The purpose of this research is that of presenting an exploration of methods and tools towards the measurement of data graphics effectiveness and efficiency, and of proposing a definition of `Visual Information Literacy', together with the design of a model characterizing it as a developmental skills progression that covers the cognitive abilities activated when dealing with data graphics. A final goal of this paper is to report a first round of results assessing the validity of the model designed, by bringing statistical evidence that data graphics comprehension depends on the matching of users' ability and data graphics difficulty. The contribution of this paper is twofold: comparing the current research on Visual Information Literacy and advancing it by designing a model for its characterization to allow the design of a Visual Information Literacy measurement scale standard.</t>
+  </si>
+  <si>
+    <t>Visualization;Data visualization;Graphics;Tools;Standards;Data models;Media;Computers and information processing;information and communication technology;information management;visual communication;visualization</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2021.3078429</t>
+  </si>
+  <si>
+    <t>2169-3536</t>
+  </si>
+  <si>
+    <t>9780404</t>
+  </si>
+  <si>
+    <t>Raikov, Alexander N. and Pirani, Massimiliano</t>
+  </si>
+  <si>
+    <t>Human-Machine Duality: What’s Next in Cognitive Aspects of Artificial Intelligence?</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>56296-56315</t>
+  </si>
+  <si>
+    <t>The goal of the paper is to find means for the unification of human-machine duality in collective behavior of people and machines, by conciliating approaches that proceed in opposite directions. The first approach proceeds top-down from non-formalizable, cognitive, uncaused, and chaotic human consciousness towards purposeful and sustainable human-machine interaction. The second approach proceeds bottom-up from intelligent machines towards high-end computing and is based on formalizable models leveraging multi-agent architectures. The resulting work reviews the extent, the merging points, and the potential of hybrid artificial intelligence frameworks that accept the idea of strong artificial intelligence. These models concern the pairing of connectionist and cognitive architectures, conscious and unconscious actions, symbolic and conceptual realizations, emergent and brain-based computing, and automata and subjects. The special authors’ convergent methodology is considered, which is based on the integration of inverse problem-solving on topological spaces, cognitive modelling, quantum field theory, category theory methods, and holonic approaches. It aims to a more purposeful and sustainable human-machine interaction in form of algorithms or requirements, rules of strategic conversations or network brainstorming, and cognitive semantics. The paper addresses the reduction of the impact of AI development on ethics violation. The findings delivered are used to provide perspectives on the shaping of societal, ethical, and normative aspects in the symbiosis between humans and machines. Implementations in real practice are represented.</t>
+  </si>
+  <si>
+    <t>Artificial intelligence;Ethics;Man-machine systems;Cognition;Symbiosis;Semantics;Correlation;Cognitive semantics;category theory;human-machine duality;hybrid artificial intelligence;holonic systems;stability in dynamical systems</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2022.3177657</t>
+  </si>
+  <si>
+    <t>9275959</t>
+  </si>
+  <si>
+    <t>INPROCEEDINGS</t>
+  </si>
+  <si>
+    <t>Chen, Zhaolin</t>
+  </si>
+  <si>
+    <t>Deep Learning for Cybersecurity: A Review</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>7-18</t>
+  </si>
+  <si>
+    <t>With the development of Internet technology, the scale of Internet has increased considerably, which brings with a large number of cyber-attacks. Traditional protection techniques are confronted with complex, advanced and ongoing evolvement adversarial situations, which have to be more adaptive and responsive in order to handle future security and privacy problems. Deep Learning (DL), as one of the most currently remarkable machine learning techniques, has a great potential in cybersecurity. In this paper, author is committed to analyze current cyber-attacks, to review recent state-of-the-art deep learning algorithms and Figure out pros and cons of them, and to discuss the feasibility of deep learning technology applied to cybersecurity to defend malware attacks, DDoS attacks and spoofing attacks. This article also analyzes some vulnerabilities of deep learning algorithms and potential security problems which might come out when DL is applied to cybersecurity. Finally, paper discusses some challenges a DL-based defense mechanism has to overcome, and status and future directions of DL-based defense technology.</t>
+  </si>
+  <si>
+    <t>Hafnium;Three-dimensional displays;Data science;5G mobile communication;cybersecurity;deep learning</t>
+  </si>
+  <si>
+    <t>10.1109/CDS49703.2020.00009</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>2020 International Conference on Computing and Data Science (CDS)</t>
+  </si>
+  <si>
+    <t>10313082</t>
+  </si>
+  <si>
+    <t>Santoso, Fendy and Finn, Anthony</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Services Computing</t>
+  </si>
+  <si>
+    <t>An In-Depth Examination of Artificial Intelligence-Enhanced Cybersecurity in Robotics, Autonomous Systems, and Critical Infrastructures</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1293-1310</t>
+  </si>
+  <si>
+    <t>Recent developments in cutting-edge robotics constantly face increased cyber threats, not only in terms of quantity and frequency of attacks, but also when it comes to quality and severity of the intrusions. This paper provides a systematic overview and critical assessment of state-of-the-art scientific developments in the security aspects of robotics, autonomous systems, and critical infrastructures. Our review highlights open research questions addressing significant research gaps and/or new conceptual frameworks given recent advancements in artificial intelligence (AI) and machine learning. Thus, the contributions of this paper can be summarized as follows. We first compare and contrast the benefits of multiple cutting-edge AI-based learning algorithms (e.g., fuzzy logic and neural networks) relative to traditional model-based systems (e.g., distributed control and filtering). Subsequently, we point out some specific benefits of AI algorithms to quickly learn and adapt the dynamics of non-linear systems in the absence of complex mathematical models. We also present some potential future research directions (open challenges) in the field. Lastly, this review also delivers an open message to encourage collaborations among experts from multiple disciplines. The implementation of multiple AI algorithms to tackle current security issues in robotics will transform and create novel hybrid knowledge for intelligent cybersecurity at the application level.</t>
+  </si>
+  <si>
+    <t>Robots;Computer security;Robot sensing systems;Security;Autonomous systems;Operating systems;Middleware;Cybersecurity;artificial intelligence;machine learning;robotics;autonomous systems;and critical infrastructures</t>
+  </si>
+  <si>
+    <t>10.1109/TSC.2023.3331083</t>
+  </si>
+  <si>
+    <t>1939-1374</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>10681247</t>
+  </si>
+  <si>
+    <t>Ibrahim, Yomna Mokhtar and Kermanshahi, Shabnam Kasra and Kasmarik, Kathryn and Hu, Jiankun</t>
+  </si>
+  <si>
+    <t>IEEE Open Journal of the Computer Society</t>
+  </si>
+  <si>
+    <t>A Taxonomy-Based Survey of EM-SCA and Implications for Multi-Robot Systems</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>511-529</t>
+  </si>
+  <si>
+    <t>Electromagnetic Side Channel Analysis (EM-SCA) is a major area of interest within the field of cybersecurity. EM-SCA makes use of the electromagnetic radiation that naturally leaks from any device that runs on electricity. Information about the observed device can be gained by gathering and analysing these electromagnetic traces. Numerous studies have demonstrated the applicability of this side channel in various environments for legal and illegal objectives. On the other hand, multi-robot systems, including swarm robotics, have received considerable attention in recent years due to their ability to conduct complex tasks using simple robots cooperating with each other. Although multi-robot and swarm robot systems are likely to be widely used in practical applications in the near future, security concerns in this context have not yet received enough attention. In particular, to the best of our knowledge, EM-SCA threats and benefits have never been thoroughly examined in this context before. In order to spotlight this matter, this work begins with a thorough introduction to EM-SCA and provides a taxonomic structure. Then, guided by this taxonomy, we present a range of EM-SCA scenarios that need to be considered in multi-robot applications.</t>
+  </si>
+  <si>
+    <t>Surveys;Robots;Security;Electromagnetics;Cryptography;Timing;Power demand;Electromagnetic side-channel analysis;electromagnetic side-channel attacks;multi-robot systems</t>
+  </si>
+  <si>
+    <t>10.1109/OJCS.2024.3461808</t>
+  </si>
+  <si>
+    <t>2644-1268</t>
+  </si>
+  <si>
+    <t>10352637</t>
+  </si>
+  <si>
+    <t>BOOK</t>
+  </si>
+  <si>
+    <t>Frey, Robert</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>An invaluable compendium of up-to-date, real-world vignettes, these detailed depictions are crafted from 35 years of thought leadership and hands-on engagement in U.S. Federal Government proposal development for support services contractors. There is meaningful context built around each vignette, allowing readers to see immediately how to apply the lessons learned. The insights presented are applicable to small businesses and mid-tier companies, as well as global Fortune 50 corporations. Written in a highly accessible style and accompanied by the author’s own photographs, On-the-Go! delivers concise, clear-sighted observations and helpful business-driven recommendations. Topics are drawn from actual challenges and situations that organizations and their staff professionals face every proposal. Across the spectrum of vignette topics, attention is paid to multiple dimensions in and around proposal development—human and organizational dynamics, linking business decisions to proposal strengths, building the proposal response, proposal writing, and more. In addition, coverage extends to academic and public-sector grant proposals, as well as international private-sector tenders. All the vignettes are easy to use and integrate into an organization's thinking and best practices because they are streamlined. Importantly, On-the-Go! brings practical value to executive leadership, business developers, capture managers, and proposal developers and managers, along with technical and programmatic subject matter experts and knowledge managers.</t>
+  </si>
+  <si>
+    <t>Successful Proposal Strategies On-the-Go!</t>
+  </si>
+  <si>
+    <t>Artech</t>
+  </si>
+  <si>
+    <t>9781685690144</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10352637</t>
+  </si>
+  <si>
+    <t>10697229</t>
+  </si>
+  <si>
+    <t>Hu, Bowen and Chang, Chip-Hong</t>
+  </si>
+  <si>
+    <t>IEEE Journal on Emerging and Selected Topics in Circuits and Systems</t>
+  </si>
+  <si>
+    <t>Diffense: Defense Against Backdoor Attacks on Deep Neural Networks With Latent Diffusion</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>729-742</t>
+  </si>
+  <si>
+    <t>As deep neural network (DNN) models are used in a wide variety of applications, their security has attracted considerable attention. Among the known security vulnerabilities, backdoor attacks have become the most notorious threat to users of pre-trained DNNs and machine learning services. Such attacks manipulate the training data or training process in such a way that the trained model produces a false output to an input that carries a specific trigger, but behaves normally otherwise. In this work, we propose Diffense, a method for detecting such malicious inputs based on the distribution of the latent feature maps to clean input samples of the possibly infected target DNN. By learning the feature map distribution using the diffusion model and sampling from the model under the guidance of the data to be inspected, backdoor attack data can be detected by its distance from the sampled result. Diffense does not require knowledge about the structure, weights, and training data of the target DNN model, nor does it need to be aware of the backdoor attack method. Diffense is non-intrusive. The accuracy of the target model to clean inputs will not be affected by Diffense and the inference service can be run uninterruptedly with Diffense. Extensive experiments were conducted on DNNs trained for MNIST, CIFRA-10, GSTRB, ImageNet-10, LSUN Object and LSUN Scene applications to show that the attack success rates of diverse backdoor attacks, including BadNets, IDBA, WaNet, ISSBA and HTBA, can be significantly suppressed by Diffense. The results generally exceed the performances of existing backdoor mitigation methods, including those that require model modifications or prerequisite knowledge of model weights or attack samples.</t>
+  </si>
+  <si>
+    <t>Data models;Training;Artificial neural networks;Diffusion models;Artificial intelligence;Computational modeling;Training data;Security;Prevention and mitigation;Predictive models;Deep neural networks;AI security;backdoor attack;diffusion model</t>
+  </si>
+  <si>
+    <t>10.1109/JETCAS.2024.3469377</t>
+  </si>
+  <si>
+    <t>2156-3365</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>10890086</t>
+  </si>
+  <si>
+    <t>Liu, Weidong and Bai, Zonghan and Gan, Keqin and Cao, Yan</t>
+  </si>
+  <si>
+    <t>Standard-essential Patent Prediction: Discussion of Patent Standardization Time</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>Standard-essential patents are crucial tools in international trade competition, and standard-essential patent prediction is becoming competition point among countries. However, existing standard-essential patent prediction methods cannot adequately use various patent features, and cannot provide verifiable predicted results on whether a valid patent can be a standard-essential patent or not. To address these issues, this paper proposes a dynamic standard-essential patent prediction model. In our model, we partition different time slots for each patent to extract the dynamic features in each time slot of the patent, and the static features of the patent are extracted. Then we dynamically predict whether the patent can be a standard-essential patent in the next few years or not. The experimental results show that our model significantly outperforms the baseline models in the values of accuracy, precision, recall and F1.</t>
+  </si>
+  <si>
+    <t>Patents;Analytical models;International trade;Standardization;Predictive models;Signal processing;Feature extraction;Data models;Data mining;Speech processing;Standard-essential Patents;Standardization Time;Dynamic Model;Patent Data Analysis;Technology Mining</t>
+  </si>
+  <si>
+    <t>10.1109/ICASSP49660.2025.10890086</t>
+  </si>
+  <si>
+    <t>2379-190X</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>ICASSP 2025 - 2025 IEEE International Conference on Acoustics, Speech and Signal Processing (ICASSP)</t>
+  </si>
+  <si>
+    <t>8674412</t>
+  </si>
+  <si>
+    <t>INBOOK</t>
+  </si>
+  <si>
+    <t>Choucri, Nazli and Clark, David D.</t>
+  </si>
+  <si>
+    <t>8 Cybersecurity and International Complexities</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>209-245</t>
+  </si>
+  <si>
+    <t>This chapter presents several somewhat countervailing perspectives on threats to cybersecurity—modes, mechanisms, and manifestations. The first is a brief note on perennial predicaments in the cyber domain, some "state-of-the-art" views. The second is a look at well-known modes of cyber threat. The third focuses on seventeen cases of cyber conflicts for insights these might yield. We ask: what systematic inferences, if any, can be drawn from a set of cases reported in narrative form? Without foreshadowing the nature of the evidence or the reliability of prevailing assessments, we then turn to the fourth perspective and ask: what is the international community doing, if anything, in response to contentions the cyber domain? Invariably, in each of these lines of inquiry we are constrained by the nature of the evidence, the type of methods used, the diversity of damage—to note only a few of the most salient factors. Our purpose overall is to signal, "reader, beware, uncertainties abound."</t>
+  </si>
+  <si>
+    <t>International Relations in the Cyber Age: The Co-Evolution Dilemma</t>
+  </si>
+  <si>
+    <t>MIT Press</t>
+  </si>
+  <si>
+    <t>9780262349710</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8674412</t>
+  </si>
+  <si>
+    <t>10821991</t>
+  </si>
+  <si>
+    <t>Da Silveira, Marcos and Deladiennee, Louis and Acem, Kheira and Freudenthal, Oona</t>
+  </si>
+  <si>
+    <t>Combining knowledge graphs and LLMs for hazardous chemical information management and reuse</t>
+  </si>
+  <si>
+    <t>6766-6773</t>
+  </si>
+  <si>
+    <t>Human health is increasingly threatened by exposure to hazardous substances, particularly persistent and toxic chemicals. The link between these substances, often encountered in complex mixtures, and various diseases are demonstrated in scientific studies. However, this information is scattered across several sources and hardly accessible by humans and machines. This paper evaluates current practices for publishing/accessing information on hazardous chemicals and proposes a novel platform designed to facilitate retrieval of critical chemical data in urgent situations. The platform aggregates information from multiple sources and organizes it into a structured knowledge graph. Users can access this information through a visual interface such as Neo4J Bloom and dashboards, or via natural language queries using a Chatbot. Our findings demonstrate a significant reduction in the time and effort required to access vital chemical information when datasets follow FAIR principles. Furthermore, we discuss the lessons learned from the development and implementation of this platform and provide recommendations for data owners and publishers to enhance data reuse and interoperability. This work aims to improve the accessibility and usability of chemical information by healthcare professionals, thereby supporting better health outcomes and informed decision-making in the face of patients exposed to chemical intoxication risks.</t>
+  </si>
+  <si>
+    <t>Visualization;Soft sensors;Aggregates;Natural languages;Decision making;Knowledge graphs;Medical services;Chatbots;Chemical elements;Chemicals</t>
+  </si>
+  <si>
+    <t>10.1109/BIBM62325.2024.10821991</t>
+  </si>
+  <si>
+    <t>2156-1133</t>
+  </si>
+  <si>
+    <t>2024 IEEE International Conference on Bioinformatics and Biomedicine (BIBM)</t>
+  </si>
+  <si>
+    <t>10897093</t>
+  </si>
+  <si>
+    <t>Basta, Alfred and Basta, Nadine and Anwar, Waqar and Essar, Mohammad Ilyas</t>
+  </si>
+  <si>
+    <t>Log and Event Analysis</t>
+  </si>
+  <si>
+    <t>67-98</t>
+  </si>
+  <si>
+    <t>Summary &lt;p&gt;Log and event analysis form a crucial pillar of modern security operations center (SOC) functions. By centralized collection and monitoring of log data from endpoints, networks, and applications, SOCs gain visibility into potential security issues across the enterprise infrastructure. Effective log collection, storage, and management are crucial capabilities for SOCs to enable comprehensive visibility, efficient investigations, and compliance. Beyond basic alerting and reporting, leading SOCs extract richer insights from expanding log quantities using advanced analytical techniques. Machine learning and statistical analysis empower the detection of both known and unknown threats from log&amp;#x2010;extracted events. Dimensionality reduction represents data relationships in fewer variables for clustering similar events. Anomaly scores evaluate events for deviation from expected baselines. As critical infrastructure and core evidence, robust controls safeguard log data credibility. A diligent defense&amp;#x2010;in&amp;#x2010;depth methodology addresses persistent availability and integrity risks. Common challenges include data variability, identity context gaps, and restrictive extraction application programming interfaces.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Data visualization;Virtual private networks;Cloud computing;Web servers;Throughput;Threat assessment;Testing;Statistical analysis;Security;Search problems</t>
+  </si>
+  <si>
+    <t>10.1002/9781394201631.ch4</t>
+  </si>
+  <si>
+    <t>Open-Source Security Operations Center (SOC): A Complete Guide to Establishing, Managing, and Maintaining a Modern SOC</t>
+  </si>
+  <si>
+    <t>Wiley</t>
+  </si>
+  <si>
+    <t>9781394201617</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10897093</t>
+  </si>
+  <si>
+    <t>10769337</t>
+  </si>
+  <si>
+    <t>Batchelder, Wendy S.</t>
+  </si>
+  <si>
+    <t>Build an actionable, business value driven case for data governance to obtain executive support and implement with excellenceKey FeaturesDevelop a solid foundation in data governance and increase your confidence in data solutionsAlign data governance solutions with measurable business results and apply practical knowledge from real-world projectsLearn from a three-time chief data officer who has worked in leading Fortune 500 companiesPurchase of the print or Kindle book includes a free PDF eBookBook Description2.5 quintillion bytes! This is the amount of data being generated every single day across the globe. As this number continues to grow, understanding and managing data becomes more complex. Data professionals know that it’s their responsibility to navigate this complexity and ensure effective governance, empowering businesses with the right data, at the right time, and with the right controls. If you are a data professional, this book will equip you with valuable guidance to conquer data governance complexities with ease. Written by a three-time chief data officer in global Fortune 500 companies, the Data Governance Handbook is an exhaustive guide to understanding data governance, its key components, and how to successfully position solutions in a way that translates into tangible business outcomes. By the end, you’ll be able to successfully pitch and gain support for your data governance program, demonstrating tangible outcomes that resonate with key stakeholders. What you will learnComprehend data governance from ideation to delivery and beyondPosition data governance to obtain executive buy-inLaunch a governance program at scale with a measurable impactUnderstand real-world use cases to drive swift and effective actionObtain support for data governance-led digital transformationLaunch your data governance program with confidenceWho this book is forChief data officers, data governance leaders, data stewards, and engineers who want to understand the business value of their work, and IT professionals seeking further understanding of data management, will find this book useful. You need a basic understanding of working with data, business needs, and how to meet those needs with data solutions. Prior coding experience or skills in selling data solutions to executives are not required.</t>
+  </si>
+  <si>
+    <t>Data Governance Handbook: A practical approach to building trust in data</t>
+  </si>
+  <si>
+    <t>Packt Publishing</t>
+  </si>
+  <si>
+    <t>9781803242477</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769337</t>
+  </si>
+  <si>
+    <t>10799091</t>
+  </si>
+  <si>
+    <t>Tao, Meixia and Zhou, Yong and Shi, Yuanming and Lu, Jianmin and Cui, Shuguang and Lu, Jianhua and Letaief, Khaled B.</t>
+  </si>
+  <si>
+    <t>Proceedings of the IEEE</t>
+  </si>
+  <si>
+    <t>Federated Edge Learning for 6G: Foundations, Methodologies, and Applications</t>
+  </si>
+  <si>
+    <t>1-39</t>
+  </si>
+  <si>
+    <t>Artificial intelligence (AI) is envisioned to be natively integrated into the sixth-generation (6G) mobile networks to support a diverse range of intelligent applications. Federated edge learning (FEEL) emerges as a vital enabler of this vision by leveraging the sensing, communication, and computation capabilities of geographically dispersed edge devices to collaboratively train AI models without sharing raw data. This article explores the pivotal role of FEEL in advancing both the “wireless for AI” and “AI for wireless” paradigms, thereby facilitating the realization of scalable, adaptive, and intelligent 6G networks. We begin with a comprehensive overview of learning architectures, models, and algorithms that form the foundations of FEEL. We, then, establish a novel task-oriented communication principle to examine key methodologies for deploying FEEL in dynamic and resource-constrained wireless environments, focusing on device scheduling, model compression, model aggregation, and resource allocation. Furthermore, we investigate the domain-specific optimizations of FEEL to facilitate its promising applications, ranging from wireless air-interface technologies to mobile and the Internet of Things (IoT) services. Finally, we highlight key future research directions for enhancing the design and impact of FEEL in 6G.</t>
+  </si>
+  <si>
+    <t>Wireless sensor networks;6G mobile communication;Artificial intelligence;Solid modeling;Sensors;Data models;Wireless networks;Computational modeling;Training;Optimization;Domain-specific optimization;federated edge learning (FEEL);integrated sensing–communication–computation;sixth-generation (6G);task-oriented communications</t>
+  </si>
+  <si>
+    <t>10.1109/JPROC.2024.3509739</t>
+  </si>
+  <si>
+    <t>1558-2256</t>
+  </si>
+  <si>
+    <t>10891859</t>
+  </si>
+  <si>
+    <t>Dizon-Paradis, Olivia P. and Koblah, David S. and Wilson, Ronald and Forte, Domenic and Woodard, Damon L.</t>
+  </si>
+  <si>
+    <t>IEEE Design &amp; Test</t>
+  </si>
+  <si>
+    <t>IC SEM Reverse Engineering Tutorial using Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>In this tutorial, we will leverage artificial intelligence (AI) techniques to facilitate the reverse engineering of an integrated circuit based on scanning electron microspcopy, contributing to hardware assurance. This work encompasses various subjects, including image processing, computer vision, and machine learning, providing a comprehensive learning experience in these specialized domains. We encourage you to actively participate in this tutorial to execute your own project. The skills and knowledge acquired in this activity can bolster your resume, enhancing your prospects when seeking employment, pursuing further education, or advancing in your current professional role.</t>
+  </si>
+  <si>
+    <t>Artificial intelligence;Tutorials;Scanning electron microscopy;Image segmentation;Feature extraction;Electrons;Reverse engineering;Training;Stakeholders;Machine learning;artificial intelligence;integrated circuits;reverse engineering;scanning electron microscopy;segmentation;tutorial</t>
+  </si>
+  <si>
+    <t>10.1109/MDAT.2025.3543464</t>
+  </si>
+  <si>
+    <t>2168-2364</t>
+  </si>
+  <si>
+    <t>9394893</t>
+  </si>
+  <si>
+    <t>Bown, Oliver</t>
+  </si>
+  <si>
+    <t>6 Putting Computational Creativity to Work</t>
+  </si>
+  <si>
+    <t>215-266</t>
+  </si>
+  <si>
+    <t>While there are many algorithmic methods to choose from to create computationally creative systems, they each have specific limitations and affordances that need to be worked with to get anything done. There are no magic bullets or general purpose solutions, no general intelligence systems. For the moment, AI solutions are highly domain-specific tailored tools with quirks and constraints that influence how they might be used. They may be operated by professional programmers who run custom scripts and output the processes of their generation for others to access, or through one-button-interfaces, simple navigation interfaces, or text-based search bars that an unskilled user can explore. Since machine learning is simultaneously so successful and so complicated, some researchers and companies have set out to make general-purpose creative machine learning toolkits that can be more easily used by end-users. The Runway toolkit is described as &amp;#x201C;an interface and framework that orchestrates the training, use and deployment of artificial intelligence models in design and creative platforms,&amp;#x201D;&lt;superscript&gt;2&lt;/superscript&gt; taking an ecosystemic approach where different contributors can provide models and templates that can be used by others.</t>
+  </si>
+  <si>
+    <t>Beyond the Creative Species: Making Machines That Make Art and Music</t>
+  </si>
+  <si>
+    <t>9780262361750</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9394893</t>
+  </si>
+  <si>
+    <t>9870673</t>
+  </si>
+  <si>
+    <t>Soden, Robert and Devendorf, Laura and Wong, Richmond and Akama, Yoko and Light, Ann</t>
+  </si>
+  <si>
+    <t>Uncertainty is a prevalent characteristic of contemporary life and a central challenge of HCI. As humans, researchers, and designers we encounter uncertainty in a multitude of forms and a variety of settings. The growing attention to uncertainty in HCI is due to the ever increasing expansion of the field and questions and contexts to which we seek to apply HCI research and practice. It is also due to events in the world that force us to engage more directly with questions related to uncertainty. Consequently, society is turning more than ever to data as a means to enable or mediate our understanding of phenomena such as climate change, political turmoil, increased economic upheaval, and a global pandemic. This monograph examines how HCI conceptualizes, situates, and responds to uncertainty - particularly arguing that our ability to respond to such uncertainties is governed to a great extent by the concepts we use to enframe a single, encompassing, overburdened and slippery idea. The authors propose four distinct "modes of uncertainty" to begin to draw together the varied strands of work in HCI that address uncertainty in its many forms. Rather than focusing on uncertainty as a discrete phenomenon in the world to be studied, they look to how research goals, methods, and theoretical frames used in HCI research influence the various ways in which we encounter it. By switching from uncertainty (a noun) to modes of engaging uncertainty (a verb), they foreground uncertainty as a relational concept and show that it is an active and ongoing condition that designers and researchers make present in different fashions depending upon their priorities and the context in which they are working. The authors show that adding modes of uncertainty to our conceptual toolbox facilitates conversation between domains and lets us draw new connections between disparate areas of research including visualization studies, critical design, feminist epistemologies, and sustainability.</t>
+  </si>
+  <si>
+    <t>Modes of Uncertainty in HCI</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>9781638280552</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9870673</t>
+  </si>
+  <si>
+    <t>10745352</t>
+  </si>
+  <si>
+    <t>Abbott, Desiree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radically improve the quality of your data visualizations by employing core principles of color, typography, chart types, data storytelling, and more. Everyday Data Visualization is a field guide for design techniques that will improve the charts, reports, and data dashboards you build every day. Everything you learn is tool-agnostic, with universal principles you can apply to any data stack. In Everyday Data Visualization you’ll learn important design principles for the most common data visualizations:  Harness the power of perception to guide a user’s attention Bring data to life with color and typography Choose the best chart types for your data story Design for interactive visualizations Keep the user’s needs first throughout your projects   This book gives you the tools you need to bring your data to life with clarity, precision, and flair. You’ll learn how human brains perceive and process information, wield modern accessibility standards, get the basics of color theory and typography, and more.</t>
+  </si>
+  <si>
+    <t>charts;tables;dashboards;infographics;color;typography;tool-agnostic;positioning;design fundamentals;interactive;live data flow;storytelling;presentation</t>
+  </si>
+  <si>
+    <t>Everyday Data Visualization: Design effective charts and dashboards</t>
+  </si>
+  <si>
+    <t>Manning</t>
+  </si>
+  <si>
+    <t>9781633438408</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10745352</t>
+  </si>
+  <si>
+    <t>10807148</t>
+  </si>
+  <si>
+    <t>Haritsa, Jayant R.</t>
+  </si>
+  <si>
+    <t>The primary function of a database system is to efficiently compute correct answers to user queries. Therefore, robust query processing (RQP), where strong numerical guarantees are provided on query performance, has been a long-standing core objective in the design of industrial-strength database engines. Unfortunately, however, RQP has proved to be a largely intractable and elusive challenge, despite sustained efforts spanning several decades. In this monograph, a holistic coverage of the RQP innovations is provided, and strengths and limitations are highlighted. Further, open technical problems that remain to be solved to make RQP a contemporary reality are also enumerated. In this monograph, representative techniques along these various dimensions are covered. After the introduction, a background to RQP is given. In the chapters thereafter, the authors cover Robust Operators, Plans, and Execution, and then Structural Bounds, Cost Models and Machine Learning Techniques are surveyed. The monograph concludes with a chapter on Holistic Robustness, and Future Directions. The target audience for this monograph includes researchers, developers and students with an interest in the internals of database engines.</t>
+  </si>
+  <si>
+    <t>Robust Query Processing: A Survey</t>
+  </si>
+  <si>
+    <t>9781638284277</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10807148</t>
+  </si>
+  <si>
+    <t>10612241</t>
+  </si>
+  <si>
+    <t>Pan, Xudong and Zhang, Mi and Yan, Yifan and Zhang, Shengyao and Yang, Min</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Pattern Analysis and Machine Intelligence</t>
+  </si>
+  <si>
+    <t>Matryoshka: Exploiting the Over-Parametrization of Deep Learning Models for Covert Data Transmission</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>663-678</t>
+  </si>
+  <si>
+    <t>High-quality private machine learning (ML) data stored in local data centers becomes a key competitive factor for AI corporations. In this paper, we present a novel insider attack called Matryoshka to reveal the possibility of breaking the privacy of ML data even with no exposed interface. Our attack employs a scheduled-to-publish DNN model as a carrier model for covert transmission of secret models which memorize the information of private ML data that otherwise has no interface to the outsider. At the core of our attack, we present a novel parameter sharing approach which exploits the learning capacity of the carrier model for information hiding. Our approach simultaneously achieves: (i) High Capacity – With almost no utility loss of the carrier model, Matryoshka can transmit over 10,000 real-world data samples within a carrier model which has $220\times$220× less parameters than the total size of the stolen data, and simultaneously transmit multiple heterogeneous datasets or models within a single carrier model under a trivial distortion rate, neither of which can be done with existing steganography techniques; (ii) Decoding Efficiency – once downloading the published carrier model, an outside colluder can exclusively decode the hidden models from the carrier model with only several integer secrets and the knowledge of the hidden model architecture; (iii) Effectiveness – Moreover, almost all the recovered models either have similar performance as if it is trained independently on the private data, or can be further used to extract memorized raw training data with low error; (iv) Robustness – Information redundancy is naturally implemented to achieve resilience against common post-processing techniques on the carrier before its publishing; (v) Covertness – A model inspector with different levels of prior knowledge could hardly differentiate a carrier model from a normal model.</t>
+  </si>
+  <si>
+    <t>Data models;Training;Predictive models;Training data;Computational modeling;Task analysis;Data privacy;Training data privacy;deep learning privacy;steganography;covert transmission;AI security</t>
+  </si>
+  <si>
+    <t>10.1109/TPAMI.2024.3434417</t>
+  </si>
+  <si>
+    <t>1939-3539</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>8845477</t>
+  </si>
+  <si>
+    <t>ICCSE 2019 Book of Abstracts</t>
+  </si>
+  <si>
+    <t>54-94</t>
+  </si>
+  <si>
+    <t>Presents abstracts for the articles comprising the conference proceedings.</t>
+  </si>
+  <si>
+    <t>10.1109/ICCSE.2019.8845477</t>
+  </si>
+  <si>
+    <t>2473-9464</t>
+  </si>
+  <si>
+    <t>2019 14th International Conference on Computer Science &amp; Education (ICCSE)</t>
+  </si>
+  <si>
+    <t>8279473</t>
+  </si>
+  <si>
+    <t>He, Jun-Yan and Wu, Xiao and Jiang, Yu-Gang and Peng, Qiang and Jain, Ramesh</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Image Processing</t>
+  </si>
+  <si>
+    <t>Hookworm Detection in Wireless Capsule Endoscopy Images With Deep Learning</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>2379-2392</t>
+  </si>
+  <si>
+    <t>As one of the most common human helminths, hookworm is a leading cause of maternal and child morbidity, which seriously threatens human health. Recently, wireless capsule endoscopy (WCE) has been applied to automatic hookworm detection. Unfortunately, it remains a challenging task. In recent years, deep convolutional neural network (CNN) has demonstrated impressive performance in various image and video analysis tasks. In this paper, a novel deep hookworm detection framework is proposed for WCE images, which simultaneously models visual appearances and tubular patterns of hookworms. This is the first deep learning framework specifically designed for hookworm detection in WCE images. Two CNN networks, namely edge extraction network and hookworm classification network, are seamlessly integrated in the proposed framework, which avoid the edge feature caching and speed up the classification. Two edge pooling layers are introduced to integrate the tubular regions induced from edge extraction network and the feature maps from hookworm classification network, leading to enhanced feature maps emphasizing the tubular regions. Experiments have been conducted on one of the largest WCE datasets with 440K WCE images, which demonstrate the effectiveness of the proposed hookworm detection framework. It significantly outperforms the state-of-the-art approaches. The high sensitivity and accuracy of the proposed method in detecting hookworms shows its potential for clinical application.</t>
+  </si>
+  <si>
+    <t>Image edge detection;Feature extraction;Machine learning;Task analysis;Wireless sensor networks;Wireless communication;Endoscopes;Hookworm detection;deep learning;convolutional neural network;computer-aided detection;wireless capsule endoscopy</t>
+  </si>
+  <si>
+    <t>10.1109/TIP.2018.2801119</t>
+  </si>
+  <si>
+    <t>1941-0042</t>
+  </si>
+  <si>
+    <t>9570274</t>
+  </si>
+  <si>
+    <t>Ziegler, Volker and Schneider, Peter and Viswanathan, Harish and Montag, Michael and Kanugovi, Satish and Rezaki, Ali</t>
+  </si>
+  <si>
+    <t>Security and Trust in the 6G Era</t>
+  </si>
+  <si>
+    <t>142314-142327</t>
+  </si>
+  <si>
+    <t>A comprehensive set of security technology enablers will be critically required for communication systems for the 6G era of the 2030s. Trustworthiness must be assured across IoT, heterogenous cloud and networks, devices, sub-networks, and applications. The 6G threat vector will be defined by 6G architectural disaggregation, open interfaces and an environment with multiple stakeholders. Broadly decomposed into domains of cyber-resilience, privacy and trust and their respective intersection, we explore relevant security technology enablers including automated software creation and automated closed-loop security operation, privacy preserving technologies, hardware and cloud embedded anchors of trust, quantum-safe security, jamming protection and physical layer security as well as distributed ledger technologies. Artificial intelligence and machine learning (AI/ML) as a key technology enabler will be pervasive and of pivotal relevance across the security technology stack and architecture. A novel vision for a trustworthy Secure Telecom Operation Map is developed as part of the automated closed loop operations paradigm.</t>
+  </si>
+  <si>
+    <t>Security;6G mobile communication;5G mobile communication;Privacy;Cloud computing;Authentication;3GPP;6G;security;cyber-resilience;privacy;trustworthiness;sub-networks;wireless networks</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2021.3120143</t>
+  </si>
+  <si>
+    <t>10179240</t>
+  </si>
+  <si>
+    <t>Ye, Xiaoyu and Song, Fujun and Zhang, Zongyu and Zeng, Qinghua</t>
+  </si>
+  <si>
+    <t>IEEE Sensors Journal</t>
+  </si>
+  <si>
+    <t>A Review of Small UAV Navigation System Based on Multisource Sensor Fusion</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>18926-18948</t>
+  </si>
+  <si>
+    <t>In recent years, unmanned aircraft systems (UASs) have played an increasingly significant role in the military and civil fields. The flight control system, as the “hub” of an unmanned aerial vehicle (UAV), is responsible for the key function of autonomous flight, while a reliable and stable navigation system provides important information such as position status for flight control and represents the “sensory” function of the UAV. A highly autonomous and credible UAV requires a navigation system that meets specific requirements for accuracy, integrity, and continuity, resulting in a multitude of sensors on-board the UAV that are heterogeneous, redundant, and multisource, creating a highly complex navigation system. In this article, we review multisensor fusion (MSF) technology for small UAVs over the last 20 years and provide an overview of three typical multisource fusion architectures based on filtering, factor graph optimization, and data-driven, focusing on inductive identification of key technologies for multisource information fusion state estimation systems, including calibration techniques to improve data quality, observability analysis to provide theoretical support, additional model constraint correction using aircraft, and resilient fusion management techniques across all sources. Finally, we propose future directions for UAS navigation systems to address the limitations of the existing systems.</t>
+  </si>
+  <si>
+    <t>Sensors;Intelligent sensors;Navigation;Sensor systems;Autonomous aerial vehicles;Aerospace control;Sensor phenomena and characterization;Factor graph optimization (FGO);Kalman filter (KF);multisensor fusion (MSF);resilient;unmanned aircraft systems (UASs)</t>
+  </si>
+  <si>
+    <t>10.1109/JSEN.2023.3292427</t>
+  </si>
+  <si>
+    <t>1558-1748</t>
+  </si>
+  <si>
+    <t>Sep.</t>
+  </si>
+  <si>
+    <t>10077406</t>
+  </si>
+  <si>
+    <t>Li, Fang-Qi and Wang, Shi-Lin and Liew, Alan Wee-Chung</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Information Forensics and Security</t>
+  </si>
+  <si>
+    <t>Linear Functionality Equivalence Attack Against Deep Neural Network Watermarks and a Defense Method by Neuron Mapping</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1963-1977</t>
+  </si>
+  <si>
+    <t>As an ownership verification technique for deep neural networks, the white-box neural network watermark is being challenged by the functionality equivalence attack. By leveraging the structural symmetry within a deep neural network and manipulating the parameters accordingly, an adversary can invalidate almost all white-box watermarks without affecting the network’s performance. This paper introduces the linear functionality equivalence attack, which can adapt to different network architectures without requiring knowledge of either the watermark or data. We also propose NeuronMap, a framework that can efficiently neutralize linear functionality equivalence attacks and can be easily combined with existing white-box watermarks to enhance their robustness. Experiments conducted on several deep neural networks and state-of-the-art white-box watermarking schemes have demonstrated not only the destructive power of linear functionality equivalence attacks but also the defense capability of NeuronMap. Our result shows that the threat of basic linear functionality equivalence attacks against deep neural network watermarks can be effectively solved using NeuronMap.</t>
+  </si>
+  <si>
+    <t>Watermarking;Glass box;Neurons;Feature extraction;Deep learning;Closed box;Biological neural networks;Artificial intelligence security;deep neural network watermarking;functionality equivalence attack</t>
+  </si>
+  <si>
+    <t>10.1109/TIFS.2023.3259881</t>
+  </si>
+  <si>
+    <t>1556-6021</t>
+  </si>
+  <si>
+    <t>10689630</t>
+  </si>
+  <si>
+    <t>Lee, Daehyeon and Lee, Junghee and Jung, Younggiu and Kauh, Janghyuk and Song, Taigon</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Very Large Scale Integration (VLSI) Systems</t>
+  </si>
+  <si>
+    <t>Robust Hardware Trojan Detection Method by Unsupervised Learning of Electromagnetic Signals</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2327-2340</t>
+  </si>
+  <si>
+    <t>This article explores the threat posed by Hardware Trojans (HTs), malicious circuits clandestinely embedded in hardware akin to software backdoors. Activation by attackers renders these Trojans capable of inducing malfunctions or leaking confidential information by manipulating the hardware’s normal operation. Despite robust software security, detecting and ensuring normal hardware operation becomes challenging in the presence of malicious circuits. This issue is particularly acute in weapon systems, where HTs can present a significant threat, potentially leading to immediate disablement in adversary countries. Given the severe risks associated with HTs, detection becomes imperative. The study focuses on demonstrating the efficacy of deep learning-based HT detection by comparing and analyzing methods using deep learning with existing approaches. This article proposes utilizing the deep support vector data description (Deep SVDD) model for HT detection. The proposed method outperforms existing methods when detecting untrained HTs. It achieves 92.87% of accuracy on average, which is higher than that of an existing method, 50.00%. This finding contributes valuable insights to the field of hardware security and lays the foundation for practical applications of Deep SVDD in real-world scenarios.</t>
+  </si>
+  <si>
+    <t>Hardware;Circuits;Trojan horses;Silicon;Unsupervised learning;Software;Foundries;Electromagnetic (EM) signals;hardware Trojan (HT);machine learning (ML);neural network algorithm;side channel;Trojan detection</t>
+  </si>
+  <si>
+    <t>10.1109/TVLSI.2024.3458892</t>
+  </si>
+  <si>
+    <t>1557-9999</t>
+  </si>
+  <si>
+    <t>10056734</t>
+  </si>
+  <si>
+    <t>Dutta, Ashutosh and Hammad, Eman and Enright, Michael and Behmann, Fawzi and Chorti, Arsenia and Cheema, Ahmad and Kadio, Kassi and Urbina-Pineda, Julia and Alam, Khaled and Limam, Ahmed and Chu, Fred and Lester, John and Park, Jong-Geun and Bio-Ukeme, Joseph and Pawar, Sanjay S and Layton, Roslyn and Ramchandran, Prakash and Okonkwo, Kingsley and Ong, Lyndon and Emmelmann, Marc and Issa, Omneya and Arul, Rajakumar and Malik, Sireen and Krishnan, Sivarama and Sugumar, Suresh and Lala, Tk and Borst, Matthew and Kloza, Brad and Kurt, Gunes Karabulut</t>
+  </si>
+  <si>
+    <t>INGR Roadmap Security and Privacy Chapter</t>
+  </si>
+  <si>
+    <t>1-71</t>
+  </si>
+  <si>
+    <t>The digital transformation brought on by 5G is redefining current models of end-to-end (E2E) connectivity and service reliability to include security-by-design principles necessary to enable 5G to achieve its promise. 5G trustworthiness highlights the importance of embedding security capabilities from the very beginning while the 5G architecture is being defined and standardized. Security requirements need to overlay and permeate through the different layers of 5G systems (physical, network, and application) as well as different parts of an E2E 5G architecture within a risk-management framework that takes into account the evolving security-threats landscape. 5G presents a typical use-case of wireless communication and computer networking convergence, where 5G fundamental building blocks include components such as Software Defined Networks (SDN), Network Functions Virtualization (NFV) and the edge cloud. This convergence extends many of the security challenges and opportunities applicable to SDN/NFV and cloud to 5G networks. Thus, 5G security needs to consider additional security requirements (compared to previous generations) such as SDN controller security, hypervisor security, orchestrator security, cloud security, edge security, etc. At the same time, 5G networks offer security improvement opportunities that should be considered. Here, 5G architectural flexibility, programmability and complexity can be harnessed to improve resilience and reliability. The working group scope fundamentally addresses the following: •5G security considerations need to overlay and permeate through the different layers of the 5G systems (physical, network, and application) as well as different parts of an E2E 5G architecture including a risk management framework that takes into account the evolving security threats landscape. •5G exemplifies a use-case of heterogeneous access and computer networking convergence, which extends a unique set of security challenges and opportunities (e.g., related to SDN/NFV and edge cloud, etc.) to 5G networks. Similarly, 5G networks by design offer potential security benefits and opportunities through harnessing the architecture flexibility, programmability and complexity to improve its resilience and reliability. •The IEEE FNI security WG's roadmap framework follows a taxonomic structure, differentiating the 5G functional pillars and corresponding cybersecurity risks. As part of cross collaboration, the security working group will also look into the security issues associated with other roadmap working groups within the IEEE Future Network Initiative.</t>
+  </si>
+  <si>
+    <t>5G mobile communication;Computer network reliability;Computer architecture;Network function virtualization;Complexity theory;Security;Risk management;Software defined networking;Convergence;Resilience;5G Cybersecurity;security;privacy;data protection;reliability;resilience;mMTC;URLLC;SDN/NFV;cyber risk assessment and management;threat scenarios;cyber-attacks;security controls;mitigation;defense</t>
+  </si>
+  <si>
+    <t>10.1109/FNWF55208.2022.00131</t>
+  </si>
+  <si>
+    <t>2770-7679</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>2022 IEEE Future Networks World Forum (FNWF)</t>
+  </si>
+  <si>
+    <t>10162222</t>
+  </si>
+  <si>
+    <t>Banachewicz, Konrad and Massaron, Luca and Goldbloom, Anthony</t>
+  </si>
+  <si>
+    <t>Get a step ahead of your competitors with insights from over 30 Kaggle Masters and Grandmasters. Discover tips, tricks, and best practices for competing effectively on Kaggle and becoming a better data scientist. Purchase of the print or Kindle book includes a free eBook in the PDF format.Key FeaturesLearn how Kaggle works and how to make the most of competitions from over 30 expert KagglersSharpen your modeling skills with ensembling, feature engineering, adversarial validation and AutoMLA concise collection of smart data handling techniques for modeling and parameter tuningBook DescriptionMillions of data enthusiasts from around the world compete on Kaggle, the most famous data science competition platform of them all. Participating in Kaggle competitions is a surefire way to improve your data analysis skills, network with an amazing community of data scientists, and gain valuable experience to help grow your career. The first book of its kind, The Kaggle Book assembles in one place the techniques and skills you’ll need for success in competitions, data science projects, and beyond. Two Kaggle Grandmasters walk you through modeling strategies you won’t easily find elsewhere, and the knowledge they’ve accumulated along the way. As well as Kaggle-specific tips, you’ll learn more general techniques for approaching tasks based on image, tabular, textual data, and reinforcement learning. You’ll design better validation schemes and work more comfortably with different evaluation metrics. Whether you want to climb the ranks of Kaggle, build some more data science skills, or improve the accuracy of your existing models, this book is for you. Plus, join our Discord Community to learn along with more than 1,000 members and meet like-minded people!What you will learnGet acquainted with Kaggle as a competition platformMake the most of Kaggle Notebooks, Datasets, and Discussion forumsCreate a portfolio of projects and ideas to get further in your careerDesign k-fold and probabilistic validation schemesGet to grips with common and never-before-seen evaluation metricsUnderstand binary and multi-class classification and object detectionApproach NLP and time series tasks more effectivelyHandle simulation and optimization competitions on KaggleWho this book is forThis book is suitable for anyone new to Kaggle, veteran users, and anyone in between. Data analysts/scientists who are trying to do better in Kaggle competitions and secure jobs with tech giants will find this book useful. A basic understanding of machine learning concepts will help you make the most of this book.</t>
+  </si>
+  <si>
+    <t>The Kaggle Book: Data analysis and machine learning for competitive data science</t>
+  </si>
+  <si>
+    <t>9781801812214</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162222</t>
+  </si>
+  <si>
+    <t>10732170</t>
+  </si>
+  <si>
+    <t>Castillo-González, María Concepción and Del Pilar Castillo-González, Agueda Ma.</t>
+  </si>
+  <si>
+    <t>Ethical Challenges of AI: Nurturing Life-Care Perspectives in ECSIT Students</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>We present an exploratory research aimed at understanding the perceptions that students and professors associated with the Engineering in Computer Science and Information Technology (ECSIT) program have regarding the ethical challenges of Artificial Intelligence, based on a theoretical framework that engages with ecofeminist, care, and ecological ethics. To achieve the research objective, a qualitative methodology was designed, and a comparative study was conducted between two ECSIT university programs in Mexico, one public and one private. Eight professors were interviewed, and two focus groups were conducted with the participation of 10 students. In both cases, the participation of women was encouraged, and professors teaching engineering courses and ethics courses for engineers were included. Findings reveal that the type of academic program is more relevant than the type of university, as well as the gender of professors and their interdisciplinary training.</t>
+  </si>
+  <si>
+    <t>Training;Economics;Computer science;Ethics;Production systems;Organizations;Reflection;Artificial intelligence;Interviews;Information technology;ethics of care;ecological ethics;ecofeminism;artificial intelligence;sustainability education;ethics and artificial intelligence</t>
+  </si>
+  <si>
+    <t>10.1109/ISTAS61960.2024.10732170</t>
+  </si>
+  <si>
+    <t>2158-3412</t>
+  </si>
+  <si>
+    <t>2024 IEEE International Symposium on Technology and Society (ISTAS)</t>
+  </si>
+  <si>
+    <t>10710643</t>
+  </si>
+  <si>
+    <t>Merkelbach, Silke and Heuwinkel, Tim and Dumitrescu, Roman</t>
+  </si>
+  <si>
+    <t>PID-Gen: Towards an Algorithm for the Generation of Random P&amp;IDs</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>Piping and Instrumentation Diagrams (P&amp;IDs) are used in the process industry to visualize the elements present in a process plant and the connections between them. In reality, P&amp;IDs are often only available as image, PDF, or as hard-copy. Methods to digitize P &amp;IDs exist, but there are only few publicly available P &amp;IDs that can be utilized for the development of new, especially data-driven, methods. We address this lack by proposing an algorithm that is able to create a random structure of P&amp;IDs. Different parameters, such as the number and type of components, inflows, and outflows, can be defined. Our goal is to create a large, labeled, random dataset for the training and validation of models for the digitization of P &amp;IDs. The algorithm consists of the two parts: graph creation and visualization. In this work, we present the graph creation part.</t>
+  </si>
+  <si>
+    <t>Training;Industries;Visualization;Instruments;Manufacturing automation;P&amp;ID;graph generation;benchmark</t>
+  </si>
+  <si>
+    <t>10.1109/ETFA61755.2024.10710643</t>
+  </si>
+  <si>
+    <t>1946-0759</t>
+  </si>
+  <si>
+    <t>2024 IEEE 29th International Conference on Emerging Technologies and Factory Automation (ETFA)</t>
+  </si>
+  <si>
+    <t>10251323</t>
+  </si>
+  <si>
+    <t>Nappa, Antonio and Blázquez, Eduardo and Bassen, Nikias and López-gómez, Dr. Javier</t>
+  </si>
+  <si>
+    <t>Find security flaws in any architecture effectively through emulation and fuzzing with QEMU and AFL Purchase of the print or Kindle book includes a free PDF eBookKey FeaturesUnderstand the vulnerability landscape and useful tools such as QEMU and AFLExplore use cases to find vulnerabilities and execute unknown firmwareCreate your own firmware emulation and fuzzing environment to discover vulnerabilitiesBook DescriptionEmulation and fuzzing are among the many techniques that can be used to improve cybersecurity; however, utilizing these efficiently can be tricky. Fuzzing Against the Machine is your hands-on guide to understanding how these powerful tools and techniques work. Using a variety of real-world use cases and practical examples, this book helps you grasp the fundamental concepts of fuzzing and emulation along with advanced vulnerability research, providing you with the tools and skills needed to find security flaws in your software. The book begins by introducing you to two open source fuzzer engines: QEMU, which allows you to run software for whatever architecture you can think of, and American fuzzy lop (AFL) and its improved version AFL++. You’ll learn to combine these powerful tools to create your own emulation and fuzzing environment and then use it to discover vulnerabilities in various systems, such as iOS, Android, and Samsung's Mobile Baseband software, Shannon. After reading the introductions and setting up your environment, you’ll be able to dive into whichever chapter you want, although the topics gradually become more advanced as the book progresses. By the end of this book, you’ll have gained the skills, knowledge, and practice required to find flaws in any firmware by emulating and fuzzing it with QEMU and several fuzzing engines.What you will learnUnderstand the difference between emulation and virtualizationDiscover the importance of emulation and fuzzing in cybersecurityGet to grips with fuzzing an entire operating systemDiscover how to inject a fuzzer into proprietary firmwareKnow the difference between static and dynamic fuzzingLook into combining QEMU with AFL and AFL++Explore Fuzz peripherals such as modemsFind out how to identify vulnerabilities in OpenWrtWho this book is forThis book is for security researchers, security professionals, embedded firmware engineers, and embedded software professionals. Learners interested in emulation, as well as software engineers interested in vulnerability research and exploitation, software testing, and embedded software development will also find it useful. The book assumes basic knowledge of programming (C and Python); operating systems (Linux and macOS); and the use of Linux shell, compilation, and debugging.</t>
+  </si>
+  <si>
+    <t>Fuzzing Against the Machine: Automate vulnerability research with emulated IoT devices on QEMU</t>
+  </si>
+  <si>
+    <t>9781804614228</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10251323</t>
+  </si>
+  <si>
+    <t>8754678</t>
+  </si>
+  <si>
+    <t>Qolomany, Basheer and Al-Fuqaha, Ala and Gupta, Ajay and Benhaddou, Driss and Alwajidi, Safaa and Qadir, Junaid and Fong, Alvis C.</t>
+  </si>
+  <si>
+    <t>Leveraging Machine Learning and Big Data for Smart Buildings: A Comprehensive Survey</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>90316-90356</t>
+  </si>
+  <si>
+    <t>Future buildings will offer new convenience, comfort, and efficiency possibilities to their residents. Changes will occur to the way people live as technology involves people's lives and information processing is fully integrated into their daily living activities and objects. The future expectation of smart buildings includes making the residents' experience as easy and comfortable as possible. The massive streaming data generated and captured by smart building appliances and devices contain valuable information that needs to be mined to facilitate timely actions and better decision making. Machine learning and big data analytics will undoubtedly play a critical role to enable the delivery of such smart services. In this paper, we survey the area of smart building with a special focus on the role of techniques from machine learning and big data analytics. This survey also reviews the current trends and challenges faced in the development of smart building services.</t>
+  </si>
+  <si>
+    <t>Smart homes;Big Data;Machine learning;Internet of Things;Robot sensing systems;Smart buildings;Smart buildings;smart homes;the Internet of Things (IoT);big data analytics;machine learning (ML)</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2019.2926642</t>
+  </si>
+  <si>
+    <t>8416402</t>
+  </si>
+  <si>
+    <t>Wang, Ji and Cao, Bokai and Yu, Philip and Sun, Lichao and Bao, Weidong and Zhu, Xiaomin</t>
+  </si>
+  <si>
+    <t>Deep Learning towards Mobile Applications</t>
+  </si>
+  <si>
+    <t>1385-1393</t>
+  </si>
+  <si>
+    <t>Recent years have witnessed an explosive growth of mobile devices. Mobile devices are permeating every aspect of our daily lives. With the increasing usage of mobile devices and intelligent applications, there is a soaring demand for mobile applications with machine learning services. Inspired by the tremendous success achieved by deep learning in many machine learning tasks, it becomes a natural trend to push deep learning towards mobile applications. However, there exist many challenges to realize deep learning in mobile applications, including the contradiction between the miniature nature of mobile devices and the resource requirement of deep neural networks, the privacy and security concerns about individuals' data, and so on. To resolve these challenges, during the past few years, great leaps have been made in this area. In this paper, we provide an overview of the current challenges and representative achievements about pushing deep learning on mobile devices from three aspects: training with mobile data, efficient inference on mobile devices, and applications of mobile deep learning. The former two aspects cover the primary tasks of deep learning. Then, we go through our two recent applications that apply the data collected by mobile devices to inferring mood disturbance and user identification. Finally, we conclude this paper with the discussion of the future of this area.</t>
+  </si>
+  <si>
+    <t>Mobile handsets;Training;Machine learning;Servers;Data models;Cloud computing;Distributed databases;Mobile Device;Deep Learning;Federated Learning;Mobile Cloud;Mobile Application</t>
+  </si>
+  <si>
+    <t>10.1109/ICDCS.2018.00139</t>
+  </si>
+  <si>
+    <t>2575-8411</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>2018 IEEE 38th International Conference on Distributed Computing Systems (ICDCS)</t>
+  </si>
+  <si>
+    <t>10285844</t>
+  </si>
+  <si>
+    <t>Haritha, T. and Anitha, A.</t>
+  </si>
+  <si>
+    <t>Multi-Level Security in Healthcare by Integrating Lattice-Based Access Control and Blockchain- Based Smart Contracts System</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>114322-114340</t>
+  </si>
+  <si>
+    <t>Access control to patient information has become increasingly important in healthcare systems. It is vital to enhance the security of healthcare systems to avoid data loss despite the various security policies imposed by healthcare management. The issue needs to be resolved with a comprehensive secure framework, which allows users to access data according to their level of confidentiality. This article presents a solution by imposing multi-level security in e-health systems by integrating the Lattice-Based Access Control (LBAC) model and blockchain-based smart contract mechanisms. These mechanisms provide security levels in compliance with data access restrictions among users and resources while maintaining compliance security levels. By using LBAC, you can provide multilevel protection for access control restrictions, whereas smart contracts are used to ensure the transaction process in a decentralized system via an agreement between the parties. A smart contract validates every user and performs the authentication process in the envisioned model, which uses the Ethereum Virtual Machine (EVM). In the blockchain network, the patient’s e-health details are accessed and stored as immutable blocks. Comparing the proposed scheme with existing benchmarking methods reveals that the proposed scheme preserves privacy, maintains transparency, provides an authentication process, maintains data integrity, and provides multilevel access control security. The proposed model performs better than other existing models. As a result, lattice-based access control enhances the security of e-health records.</t>
+  </si>
+  <si>
+    <t>Blockchains;Security;Medical services;Access control;Data privacy;Cloud computing;Smart contracts;Electronic medical records;Blockchain;e-health records;multi-level security;lattice-based access control;smart contracts</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2023.3324740</t>
+  </si>
+  <si>
+    <t>8906978</t>
+  </si>
+  <si>
+    <t>Kusmenko, Evgeny and Nickels, Sebastian and Pavlitskaya, Svetlana and Rumpe, Bernhard and Timmermanns, Thomas</t>
+  </si>
+  <si>
+    <t>Modeling and Training of Neural Processing Systems</t>
+  </si>
+  <si>
+    <t>283-293</t>
+  </si>
+  <si>
+    <t>The field of deep learning has become more and more pervasive in the last years as we have seen varieties of problems being solved using neural processing techniques. Image analysis and detection, control, speech recognition, translation are only a few prominent examples tackled successfully by neural networks. Thereby, the discipline imposes a completely new problem solving paradigm requiring a rethinking of classical software development methods. The high demand for deep learning technology has led to a large amount of competing frameworks mostly having a Python interface - a quasi standard in the community. Although, existing tools often provide great flexibility and high performance, they still lack to deliver a completely domain oriented problem view. Furthermore, using neural networks as reusable building blocks with clear interfaces in productive systems is still a challenge. In this work we propose a domain specific modeling methodology tackling design, training, and integration of deep neural networks. Thereby, we distinguish between three main modeling concerns: architecture, training, and data. We integrate our methodology in a component-based modeling toolchain allowing one to employ and reuse neural networks in large software architectures.</t>
+  </si>
+  <si>
+    <t>deep learning, neural networks, model-driven software engineering</t>
+  </si>
+  <si>
+    <t>10.1109/MODELS.2019.00012</t>
+  </si>
+  <si>
+    <t>2019 ACM/IEEE 22nd International Conference on Model Driven Engineering Languages and Systems (MODELS)</t>
+  </si>
+  <si>
+    <t>10494607</t>
+  </si>
+  <si>
+    <t>Stutz, Dalmo and Assis, Joaquim T. and Laghari, Asif A. and Khan, Abdullah A. and Andreopoulos, Nikolaos and Terziev, Andrey and Deshpande, Anand and Kulkarni, Dhanashree and Grata, Edwiges G.H.</t>
+  </si>
+  <si>
+    <t>Enhancing Security in Cloud Computing Using Artificial Intelligence (AI)</t>
+  </si>
+  <si>
+    <t>179-220</t>
+  </si>
+  <si>
+    <t>Cloud computing (CC) technologies (viz artificial intelligence (AI), data science, blockchain, &amp;#x201c;big data&amp;#x201d; (BD), etc.) are progressively widespread and practically applied. Researchers face the biggest challenges regarding efficient data access and acquisition. The CPS's efficiency will help researchers advance in CC, cyber&amp;#x2010;attacks (CAs), &amp;#x201c;cyber threats&amp;#x201d; (CTs), and &amp;#x201c;CT intelligence&amp;#x201d; (CTI). Alongside optimally storing the data, one major caveat is security. The best possible protection can enhance data storage/handling to protect end systems from illegal attacks and thefts. Smart environments (SEs) are collections of sensors, actuators, and numerous computing pieces that ease human life. With the booming SEs, data have notably increased, thus demanding smart, optimal management. Sometimes, data processing is inadequate due to risks and resource costs. Some characteristic security difficulties are &amp;#x201c;advanced persistent threats&amp;#x201d; (APTs), denial&amp;#x2010;of&amp;#x2010;service (DoS), eclipse, double&amp;#x2010;spending attacks, and other malware. Thus, advanced AI&amp;#x2010;reliant anomaly discovery and mitigation tactics can address and disentangle the issues above. Cybersecurity (CS) in SEs, sub&amp;#x2010;CPss, and CPSs relates to working well with AI&amp;#x2010;based anomaly detection techniques. This chapter investigates challenges, trends, and prospective design pathways for securely taming networks and CPSs via AI&amp;#x2010;centered, robust, real&amp;#x2010;time, and CC&amp;#x2010;reliant data storage to inhibit unauthorized access and innumerable CAs (e.g., ransomware, spyware, and phishing. This taxonomy bestows readers with an ample AI potential overview to improve CS in different contexts. The chapter inspects future opportunities in emerging CS applications, advanced AI tactics, data representation, and new infrastructures' development for successfully adopting AI&amp;#x2010;based CS (AICS) in today's digital transformation era and syndemic circumstances.</t>
+  </si>
+  <si>
+    <t>Cloud computing;Artificial intelligence;Software as a service;Virtual machining;Artificial neural networks;Natural language processing;Web services</t>
+  </si>
+  <si>
+    <t>10.1002/9781394196470.ch11</t>
+  </si>
+  <si>
+    <t>Applying Artificial Intelligence in Cybersecurity Analytics and Cyber Threat Detection</t>
+  </si>
+  <si>
+    <t>9781394196456</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10494607</t>
+  </si>
+  <si>
+    <t>10496903</t>
+  </si>
+  <si>
+    <t>Michael, Katina and Abbas, Roba and Papagiannidis, Savvas</t>
+  </si>
+  <si>
+    <t>IEEE Technology and Society Magazine</t>
+  </si>
+  <si>
+    <t>The Social Implications of XR: Promises, Perils, and Potential</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>91-108</t>
+  </si>
+  <si>
+    <t>In 1992, Stephenson [1] described a type of metaverse in his science fiction novel Snow Crash. Through his imagination, Stephenson is said to have directly influenced the makers of Google Earth, and, more recently, Silicon Valley’s “Metaverse” [2]. In addition, there was a spate of literature published 15–20 years ago, related to metaverse concepts with the introduction of Second Life in June 2003 by Linden Labs. Many users experienced virtual spaces, shopped with virtual currency (Linden dollar, L ${\$}$ ), and even frequented virtual storefronts [3].</t>
+  </si>
+  <si>
+    <t>Metaverse;Online banking;Second Life;Computer crashes;Social implications of technology;X reality;Stakeholders;Ethics;Data privacy;Internet;Middleware;Data processing</t>
+  </si>
+  <si>
+    <t>10.1109/MTS.2024.3370023</t>
+  </si>
+  <si>
+    <t>1937-416X</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>10905032</t>
+  </si>
+  <si>
+    <t>Cheng, Pengzhou and Wu, Zongru and Du, Wei and Zhao, Haodong and Lu, Wei and Liu, Gongshen</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Neural Networks and Learning Systems</t>
+  </si>
+  <si>
+    <t>Backdoor Attacks and Countermeasures in Natural Language Processing Models: A Comprehensive Security Review</t>
+  </si>
+  <si>
+    <t>1-21</t>
+  </si>
+  <si>
+    <t>Language models (LMs) are becoming increasingly popular in real-world applications. Outsourcing model training and data hosting to third-party platforms has become a standard method for reducing costs. In such a situation, the attacker can manipulate the training process or data to inject a backdoor into models. Backdoor attacks are a serious threat where malicious behavior is activated when triggers are present; otherwise, the model operates normally. However, there is still no systematic and comprehensive review of LMs from the attacker’s capabilities and purposes on different backdoor attack surfaces. Moreover, there is a shortage of analysis and comparison of the diverse emerging backdoor countermeasures. Therefore, this work aims to provide the natural language processing (NLP) community with a timely review of backdoor attacks and countermeasures. According to the attackers’ capability and affected stage of the LMs, the attack surfaces are formalized into four categorizations: attacking the pretrained model with fine-tuning (APMF) or parameter-efficient fine-tuning (PEFT), attacking the final model with training (AFMT), and attacking large language model (ALLM). Thus, attacks under each categorization are combed. The countermeasures are categorized into two general classes: sample inspection and model inspection. Thus, we review countermeasures and analyze their advantages and disadvantages. Also, we summarize the benchmark datasets and provide comparable evaluations for representative attacks and defenses. Drawing the insights from the review, we point out the crucial areas for future research on the backdoor, especially soliciting more efficient and practical countermeasures.</t>
+  </si>
+  <si>
+    <t>Training;Reviews;Inspection;Data models;Natural language processing;Benchmark testing;Security;Large language models;Text categorization;Outsourcing;Artificial intelligence (AI) security;backdoor attacks;backdoor countermeasures;natural language processing (NLP)</t>
+  </si>
+  <si>
+    <t>10.1109/TNNLS.2025.3540303</t>
+  </si>
+  <si>
+    <t>2162-2388</t>
+  </si>
+  <si>
+    <t>10011233</t>
+  </si>
+  <si>
+    <t>Osmëni, Tea and Ali, Maaruf</t>
+  </si>
+  <si>
+    <t>Contemporary Generation: Artificial Intelligence Contribution to Manufacturing</t>
+  </si>
+  <si>
+    <t>31-35</t>
+  </si>
+  <si>
+    <t>The manufacturing industries’ main purpose is transforming raw materials into finished goods, usually on a large industrial scale. The creation and trading of quality manufacturing items could expose challenges that could put a great deal of strain on companies. Delivering a product that needs to meet global high-quality standards, requires: navigating through often a confusing logistical supply chain; customer driven time-to-market deadlines and maybe, if it is a new product, companies will have to cope effectively in terms of cost, design and time required to fulfil this unfamiliar project. This paper highlights the positive influence AI (Artificial Intelligence) has on the manufacturing processes. Contemporary manufacturing industries are characterized by a comparatively low level of IT spending and tend to be at the forefront in the use of IoT (Internet of Things). Predicting and reducing failures can yield significant cost savings in contemporary generation of goods. This paper presents the research on predictive maintenance in AI with the use of Unsupervised Learning (UL) algorithm, related to manufacturing industries. This is done to show how the implementation of innovative technologies is beneficial in terms of reduction in human error and the need for human availability andassistance. All of which leads to the lowering of costs by automating specific parts of the industrial processes and tasks, in this case, predictive maintenance. Innovative technology is common in the present generation, but what is still lacking is the right use when it comes to businesses and specific needs.</t>
+  </si>
+  <si>
+    <t>Manufacturing industries;Training;Solid modeling;Costs;Companies;Manufacturing;Unsupervised learning;Artificial Intelligence;balancing maintenance;manufacturing;predictive maintenance;product;time-to-market;transforming;supply chain;Unsupervised Learning</t>
+  </si>
+  <si>
+    <t>10.1109/CoNTESA57046.2022.10011233</t>
+  </si>
+  <si>
+    <t>2022 International Conference on Computing, Networking, Telecommunications &amp; Engineering Sciences Applications (CoNTESA)</t>
+  </si>
+  <si>
+    <t>9655986</t>
+  </si>
+  <si>
+    <t>Chew, Daniel and Adams, Andrew L. and Uher, Jason</t>
+  </si>
+  <si>
+    <t>Intelligent Radio Concepts</t>
+  </si>
+  <si>
+    <t>155-203</t>
+  </si>
+  <si>
+    <t>This chapter introduces intelligent radio concepts, and aims to establish a set of basic definitions describing the various radio technologies associated with DSA. It presents the desired capabilities of an intelligent communications system in the context of wireless coexistence. The chapter discusses the cognitive cycle at length, but this generally involves the process of observe‐orient‐decide‐act, and focuses on intelligent‐radio rather than cognitive‐radio. The implementation of cognitive capability is very much an active area of research. The cognitive resource manager (CRM) framework is capable of supporting both centralized and decentralized network configurations. The CRM toolbox is a library of algorithms used by the CRM core for data pre‐processing, modeling, learning, and decision‐making. The chapter discusses several learning algorithms and their recent application to intelligent radio. Advances in automation, machine learning, and artificial intelligence should only increase our expectations regarding intelligent radio capabilities.</t>
+  </si>
+  <si>
+    <t>Telephone sets;Software;Wireless sensor networks;Machine learning;Long Term Evolution;Standards;Cognitive radio</t>
+  </si>
+  <si>
+    <t>10.1002/9781119584230.ch6</t>
+  </si>
+  <si>
+    <t>Wireless Coexistence: Standards, Challenges, and Intelligent Solutions</t>
+  </si>
+  <si>
+    <t>IEEE</t>
+  </si>
+  <si>
+    <t>9781119584223</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9655986</t>
+  </si>
+  <si>
+    <t>10924683</t>
+  </si>
+  <si>
+    <t>Urgo, Kelsey and Arguello, Jaime</t>
+  </si>
+  <si>
+    <t>Search systems are often designed to support simple look-up tasks, such as fact-finding and navigation tasks. However, people increasingly use search engines to complete tasks that require deeper learning. In recent years, the search as learning (SAL) research community has argued that search systems should also be designed to support information seeking tasks that involve complex learning as an important outcome. This monograph provides a comprehensive review of prior research in search as learning and related areas. Searching to learn can be characterized by specific learning objectives, strategies, and context. Therefore, the monograph begins with a review of research in education that has aimed at characterizing learning objectives, strategies, and context. Then, review methods used in prior studies to measure learning during a search session are covered. Two important recommendations for future work are studied: (1) measuring learning retention and (2) measuring a learner’s ability to transfer their new knowledge to a novel scenario. Following this, studies that have focused on understanding factors that influence learning during search and search behaviors that are predictive of earning are discussed. Also, tools that have been developed to support learning during search are surveyed. Searching for the purpose of learning is often a solitary activity. Research in self-regulated learning (SRL) aims to understand how people monitor and control their own learning. Therefore, existing models of SRL are researched, as well as methods to measure engagement with specific SRL processes, and tools to support effective SRL. The monograph concludes with suggesting potential areas for future research.</t>
+  </si>
+  <si>
+    <t>Search as Learning</t>
+  </si>
+  <si>
+    <t>9781638285373</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10924683</t>
+  </si>
+  <si>
+    <t>10834496</t>
+  </si>
+  <si>
+    <t>Soomro, Imtiaz Ali and ur Rehman Khan, Hamood and Hussain, Syed Jawad and Ashraf, Zeeshan and Alnfiai, Mrim M. and Alotaibi, Nouf Nawar</t>
+  </si>
+  <si>
+    <t>Journal of Communications and Networks</t>
+  </si>
+  <si>
+    <t>Lightweight privacy-preserving federated deep intrusion detection for industrial cyber-physical system</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>632-649</t>
+  </si>
+  <si>
+    <t>The emergence of Industry 4.0 entails extensive reliance on industrial cyber-physical systems (ICPS). ICPS promises to revolutionize industries by fusing physical systems with computational functionality. However, this potential increase in ICPS makes them prone to cyber threats, necessitating effective intrusion detection systems (IDS) systems. Privacy provision, system complexity, and system scalability are major challenges in IDS research. We present FedSecureIDS, a novel lightweight federated deep intrusion detection system that combines CNNs, LSTMs, MLPs, and federated learning (FL) to overcome these challenges. FedSecureIDS solves major security issues, namely eavesdropping and man-in-the-middle attacks, by employing a simple protocol for symmetric session key exchange and mutual authentication. Our Experimental results demonstrate that the proposed method is effective with an accuracy of 98.68%, precision of 98.78%, recall of 98.64%, and an F1-score of 99.05% with different edge devices. The model is similarly performed in conventional centralized IDS models. We also carry out formal security evaluations to confirm the resistance of the proposed framework to known attacks and provisioning of high data privacy and security.</t>
+  </si>
+  <si>
+    <t>Security;Data models;Training;Intrusion detection;Cyber-physical systems;Sensors;Control systems;Real-time systems;Machinery;Denial-of-service attack;Federated learning;industrial cyber-physical systems;Internet of things;intrusion detection system;symmetric key</t>
+  </si>
+  <si>
+    <t>10.23919/JCN.2024.000054</t>
+  </si>
+  <si>
+    <t>1976-5541</t>
+  </si>
+  <si>
+    <t>9855629</t>
+  </si>
+  <si>
+    <t>Lehdonvirta, Vili</t>
+  </si>
+  <si>
+    <t>12 CONCLUSIONS</t>
+  </si>
+  <si>
+    <t>205-236</t>
+  </si>
+  <si>
+    <t>The Internet was supposed to change the structure of society. It was supposed to get rid of gatekeepers and middlemen.&lt;superscript&gt;1&lt;/superscript&gt; It was supposed to empower individuals and communities, create a &amp;#x0022;level playing field,&amp;#x0022; and give &amp;#x0022;everyone access to the same information.&amp;#x0022;&lt;superscript&gt;2&lt;/superscript&gt; It was supposed to obsolete centralized authorities that set up artificial boundaries and compile dossiers on us.&lt;superscript&gt;3&lt;/superscript&gt; It was supposed to be governed by &amp;#x0022;ethics&amp;#x0022; instead of &amp;#x0022;systems erected to impose order.&amp;#x0022;&lt;superscript&gt;4&lt;/superscript&gt; It was supposed to topple autocrats and promote individual liberty over top-down control.&lt;superscript&gt;5&lt;/superscript&gt; This is what Internet visionaries and technologists promised us. But they delivered something very different. They created some of the most powerful gatekeepers in history. They carved up the Internet into walled domains and registered us into their databases. Instead of making state authority obsolete, they rivaled it. Why did they do this? What does it mean for our societies and economies? And what is to be done about it?</t>
+  </si>
+  <si>
+    <t>Cloud Empires: How Digital Platforms Are Overtaking the State and How We Can Regain Control</t>
+  </si>
+  <si>
+    <t>9780262371094</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9855629</t>
+  </si>
+  <si>
+    <t>9933792</t>
+  </si>
+  <si>
+    <t>Duan, Sijing and Wang, Dan and Ren, Ju and Lyu, Feng and Zhang, Ye and Wu, Huaqing and Shen, Xuemin</t>
+  </si>
+  <si>
+    <t>IEEE Communications Surveys &amp; Tutorials</t>
+  </si>
+  <si>
+    <t>Distributed Artificial Intelligence Empowered by End-Edge-Cloud Computing: A Survey</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>591-624</t>
+  </si>
+  <si>
+    <t>As the computing paradigm shifts from cloud computing to end-edge-cloud computing, it also supports artificial intelligence evolving from a centralized manner to a distributed one. In this paper, we provide a comprehensive survey on the distributed artificial intelligence (DAI) empowered by end-edge-cloud computing (EECC), where the heterogeneous capabilities of on-device computing, edge computing, and cloud computing are orchestrated to satisfy the diverse requirements raised by resource-intensive and distributed AI computation. Particularly, we first introduce several mainstream computing paradigms and the benefits of the EECC paradigm in supporting distributed AI, as well as the fundamental technologies for distributed AI. We then derive a holistic taxonomy for the state-of-the-art optimization technologies that are empowered by EECC to boost distributed training and inference, respectively. After that, we point out security and privacy threats in DAI-EECC architecture and review the benefits and shortcomings of each enabling defense technology in accordance with the threats. Finally, we present some promising applications enabled by DAI-EECC and highlight several research challenges and open issues toward immersive performance acquisition.</t>
+  </si>
+  <si>
+    <t>Artificial intelligence;Cloud computing;Privacy;Security;Training;Edge computing;Servers;Distributed artificial intelligence;end-edge-cloud computing;network computing;federated learning</t>
+  </si>
+  <si>
+    <t>10.1109/COMST.2022.3218527</t>
+  </si>
+  <si>
+    <t>1553-877X</t>
+  </si>
+  <si>
+    <t>Firstquarter</t>
+  </si>
+  <si>
+    <t>9985008</t>
+  </si>
+  <si>
+    <t>Shuvo, Md. Maruf Hossain and Islam, Syed Kamrul and Cheng, Jianlin and Morshed, Bashir I.</t>
+  </si>
+  <si>
+    <t>Efficient Acceleration of Deep Learning Inference on Resource-Constrained Edge Devices: A Review</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>42-91</t>
+  </si>
+  <si>
+    <t>Successful integration of deep neural networks (DNNs) or deep learning (DL) has resulted in breakthroughs in many areas. However, deploying these highly accurate models for data-driven, learned, automatic, and practical machine learning (ML) solutions to end-user applications remains challenging. DL algorithms are often computationally expensive, power-hungry, and require large memory to process complex and iterative operations of millions of parameters. Hence, training and inference of DL models are typically performed on high-performance computing (HPC) clusters in the cloud. Data transmission to the cloud results in high latency, round-trip delay, security and privacy concerns, and the inability of real-time decisions. Thus, processing on edge devices can significantly reduce cloud transmission cost. Edge devices are end devices closest to the user, such as mobile phones, cyber–physical systems (CPSs), wearables, the Internet of Things (IoT), embedded and autonomous systems, and intelligent sensors. These devices have limited memory, computing resources, and power-handling capability. Therefore, optimization techniques at both the hardware and software levels have been developed to handle the DL deployment efficiently on the edge. Understanding the existing research, challenges, and opportunities is fundamental to leveraging the next generation of edge devices with artificial intelligence (AI) capability. Mainly, four research directions have been pursued for efficient DL inference on edge devices: 1) novel DL architecture and algorithm design; 2) optimization of existing DL methods; 3) development of algorithm–hardware codesign; and 4) efficient accelerator design for DL deployment. This article focuses on surveying each of the four research directions, providing a comprehensive review of the state-of-the-art tools and techniques for efficient edge inference.</t>
+  </si>
+  <si>
+    <t>Edge computing;Image edge detection;Real-time systems;Cloud computing;Artificial intelligence;Optimization;Computer architecture;Neural networks;Deep learning;Algorithm–hardware codesign;artificial intelligence (AI);artificial intelligence on edge (edge-AI);deep learning (DL);model compression;neural accelerator</t>
+  </si>
+  <si>
+    <t>10.1109/JPROC.2022.3226481</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>9055386</t>
+  </si>
+  <si>
+    <t>Islam, Rumana and Tarique, Mohammed and Abdel-Raheem, Esam</t>
+  </si>
+  <si>
+    <t>A Survey on Signal Processing Based Pathological Voice Detection Techniques</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>66749-66776</t>
+  </si>
+  <si>
+    <t>Voice disability is a barrier to effective communication. Around 1.2% of the World's population is facing some form of voice disability. Surgical procedures namely laryngoscopy, laryngeal electromyography, and stroboscopy are used for voice disability diagnosis. Researchers and practitioners have been working to find alternatives to these surgical procedures. Voice sample based diagnosis is one of them. The major steps followed by these works are (a) to extract voice features from voice samples and (b) to discriminate pathological voices from normal voices by using a classifier algorithm. However, there is no consensus about the voice feature and the classifier algorithm that can provide the best accuracy in screening voice disability. Moreover, some of the works use multiple voice features and multiple classifiers to ensure high reliability. In this paper, we address these issues. The motivation of the work is to address the need for non-invasive signal processing techniques to detect voice disability in the general population. This paper conducts a survey related to voice disability detection methods. The paper contains two main parts. In the first part, we present background information including causes of voice disability, current procedures and practices, voice features, and classifiers. In the second part, we present a comprehensive survey work on voice disability detection algorithms. The issues and challenges related to the selection of voice feature and classifier algorithms have been addressed at the end of this paper.</t>
+  </si>
+  <si>
+    <t>Cancer;Alzheimer's disease;Signal processing;Pathology;Signal processing algorithms;Lung;Algorithms;issues and challenges;signal processing;surgical methods;survey;voice disability;voice features</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2020.2985280</t>
+  </si>
+  <si>
+    <t>9928324</t>
+  </si>
+  <si>
+    <t>Abdalzaher, Mohamed S. and Elsayed, Hussein A. and Fouda, Mostafa M.</t>
+  </si>
+  <si>
+    <t>IEEE Journal of Selected Topics in Applied Earth Observations and Remote Sensing</t>
+  </si>
+  <si>
+    <t>Employing Remote Sensing, Data Communication Networks, AI, and Optimization Methodologies in Seismology</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>9417-9438</t>
+  </si>
+  <si>
+    <t>Seismology is among the intrinsic sciences that strictly affect human lives. Many research efforts are presented in the literature aiming at achieving risk mitigation and disaster management. More particularly, modern technologies have been employed in such a pivot. However, the day-to-day challenges and complexities of such natural science that face the stack holders still need more reliable and intelligent solutions. The solution can depend on a partial or integrated system of modern technologies. In this article, we extensively survey the corelated modern technologies aiming to gather the major efforts exerted in this regard. It also outlines the desirability of seismology to modern technologies. Then, we present a detailed analysis of remote sensing and data communication networks (DCNs), which are considered the backend of seismic networks. Furthermore, for seismology, we depict both classical and nonclassical approaches based on DCN principles, such as optical fiber-based acoustic sensors, social media, and the Internet of things (IoT). Following that, a comprehensive description of the various optimization techniques utilized for seismic wave analysis and for prolonging network lifetime is offered. A description of the important functions that artificial intelligence (AI) can play in different fields of seismology is also included. Finally, we present some recommendations for stack holders to prevent natural calamities and preserve human lives.</t>
+  </si>
+  <si>
+    <t>Seismology;Artificial intelligence;Seismic waves;Optimization;Remote sensing;Earth;Internet of Things;Data communication networks (DCNs);deep learning;Internet-of-things (IoT);machine learning;optimization techniques;seismology;social media</t>
+  </si>
+  <si>
+    <t>10.1109/JSTARS.2022.3216998</t>
+  </si>
+  <si>
+    <t>2151-1535</t>
+  </si>
+  <si>
+    <t>10017444</t>
+  </si>
+  <si>
+    <t>Liu, Yunmei and Chen, Min</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Engineering Management</t>
+  </si>
+  <si>
+    <t>The Knowledge Structure and Development Trend in Artificial Intelligence Based on Latent Feature Topic Model</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>12593-12604</t>
+  </si>
+  <si>
+    <t>Currently, with the rapid development of science and technology, the field of artificial intelligence presents characteristics such as a wide crossover of disciplines and fast update, and the field of artificial intelligence has become a new focus of international competition. As an interdisciplinary field, the field of artificial intelligence has rich knowledge and strategic management significance. This article conducts an in-depth study on the knowledge structure and evolution trends in the field of AI, and the main work is as follows. First, a new potential feature topic model New-LDA is proposed for the study of topic recognition, which enhances the feature learning ability of the traditional LDA model, and makes up for the deficiency of the traditional LDA model in the ability of recognizing topics in complex environments. Second, the knowledge structure in the field of AI is analyzed from two aspects: topic recognition and coword analysis. The time series model is introduced to establish the topic evolution network, and the high-frequency words in three periods are compared and analyzed to find the evolution regular of knowledge structure in the AI domain. Finally, taking the cross-discipline of AI as an example, the thematic evolution of the field and its cross-discipline is analyzed to determine the future development direction and evolutionary trend of the field of AI.</t>
+  </si>
+  <si>
+    <t>Artificial intelligence;Market research;Analytical models;Patents;Semantics;Collaboration;Computational modeling;Artificial intelligence;development trend;knowledge structures;LDA models</t>
+  </si>
+  <si>
+    <t>10.1109/TEM.2022.3232178</t>
+  </si>
+  <si>
+    <t>1558-0040</t>
+  </si>
+  <si>
+    <t>9162189</t>
+  </si>
+  <si>
+    <t>Kim, Joon-Seok and Jin, Hyunjee and Kavak, Hamdi and Rouly, Ovi Chris and Crooks, Andrew and Pfoser, Dieter and Wenk, Carola and Züfle, Andreas</t>
+  </si>
+  <si>
+    <t>Location-Based Social Network Data Generation Based on Patterns of Life</t>
+  </si>
+  <si>
+    <t>158-167</t>
+  </si>
+  <si>
+    <t>Location-based social networks (LBSNs) have been studied extensively in recent years. However, utilizing real-world LBSN data sets yields several weaknesses: sparse and small data sets, privacy concerns, and a lack of authoritative ground-truth. To overcome these weaknesses, we leverage a large-scale LBSN simulation to create a framework to simulate human behavior and to create synthetic but realistic LBSN data based on human patterns of life. Such data not only captures the location of users over time but also their interactions via social networks. Patterns of life are simulated by giving agents (i.e., people) an array of “needs” that they aim to satisfy, e.g., agents go home when they are tired, to restaurants when they are hungry, to work to cover their financial needs, and to recreational sites to meet friends and satisfy their social needs. While existing real-world LBSN data sets are trivially small, the proposed framework provides a source for massive LBSN benchmark data that closely mimics the real-world. As such, it allows us to capture 100% of the (simulated) population without any data uncertainty, privacy-related concerns, or incompleteness. It allows researchers to see the (simulated) world through the lens of an omniscient entity having perfect data. Our framework is made available to the community. In addition, we provide a series of simulated benchmark LBSN data sets using different synthetic towns and real-world urban environments obtained from OpenStreetMap. The simulation software and data sets, which comprise gigabytes of spatio-temporal and temporal social network data, are made available to the research community.</t>
+  </si>
+  <si>
+    <t>Social network services;Data models;Data privacy;Query processing;Urban areas;Data science;Benchmark testing;Data Generation;Location-Based Social Networks;Temporal Social Network Data;Social Simulation;Patterns of Life;Trajectory Data Generation;Social Network Data Generation</t>
+  </si>
+  <si>
+    <t>10.1109/MDM48529.2020.00038</t>
+  </si>
+  <si>
+    <t>2375-0324</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>2020 21st IEEE International Conference on Mobile Data Management (MDM)</t>
+  </si>
+  <si>
+    <t>9972526</t>
+  </si>
+  <si>
+    <t>C, Chethana and Pareek, Piyush Kumar and Costa de Albuquerque, Victor Hugo and Khanna, Ashish and Gupta, Deepak</t>
+  </si>
+  <si>
+    <t>Improved Domain Generation Algorithm To Detect Cyber-Attack With Deep Learning Techniques</t>
+  </si>
+  <si>
+    <t>Deep learning is a subfield of machine learning (ML) that focuses on the development of artificial intelligence. It is also often referred to by its acronym, DL (AI). This technique lays an emphasis on the use of big capacity, scalable models that are able to construct distributed representations depending on the input data set. This proposed illustrates the generalizability of these methods and the usage of them in a broad range of cyber security investigations that are peculiar to their environment. The neural network models have been continuously refined and extended during the whole of this research in order to achieve greater adaptability. The following is a list of the important contributions that this proposed makes, in order from most significant to least significant: Work is currently being done to create a comprehensive database for the identification of domain names that have been generated by a domain generation algorithm (DGA), as well as a one-of-a-kind architecture that will increase the overall effectiveness of DGA domain name detection. Both of these will help increase overall efficiency. The creation of a hybrid intrusion detection warning system that is founded on a deep neural network (DNN) and that has the capability to monitor network and host-level activities inside an Ethernet local area network (LAN) (LAN). The examination of information gathered from social media platforms, electronic mail (email), and uniform resource locators in order to design a unified, DL-based framework for the detection of spam and phishing (URL). The creation of a technique based on DL for the study of secure shell (SSH) traffic, the categorization of application network traffic, the classification of malicious traffic, and the detection of harmful traffic is being worked on. The name of the new framework that has been suggested, which is called ScaleMalNet, reflects how hybrid and scalable it is. In the first stage, the executables file is classified as malware or genuine by using static and dynamic analysis. In the second stage, the malicious executables _le are grouped into corresponding malware families. This is a two-step process. For the aim of conducting investigations into Android ransomware and malware, an analogous hybrid DL framework is now in the process of being developed. This framework is better in its capacity to detect dangerous software and ransomware on Android when compared to the typical ML-based techniques that are presently in use. These approaches are already in widespread usage. The development of a framework for DNS-based botnet detection and DL-based network intrusion detection is now being worked on in the context of the Internet of things (IoT) and smart cities</t>
+  </si>
+  <si>
+    <t>Deep learning;Uniform resource locators;Training;Neural networks;Feature extraction;Data models;Ransomware;Local Area Network;Secure Shell;Deep Learning;Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>10.1109/MysuruCon55714.2022.9972526</t>
+  </si>
+  <si>
+    <t>2022 IEEE 2nd Mysore Sub Section International Conference (MysuruCon)</t>
+  </si>
+  <si>
+    <t>10207712</t>
+  </si>
+  <si>
+    <t>Kimovski, Dragi and Saurabh, Nishant and Jansen, Matthijs and Aral, Atakan and Al-Dulaimy, Auday and Bondi, André B. and Galletta, Antonino and Papadopoulos, Alessandro V. and Iosup, Alexandru and Prodan, Radu</t>
+  </si>
+  <si>
+    <t>IEEE Internet Computing</t>
+  </si>
+  <si>
+    <t>Beyond Von Neumann in the Computing Continuum: Architectures, Applications, and Future Directions</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>6-16</t>
+  </si>
+  <si>
+    <t>The article discusses emerging non-von Neumann computer architectures and their integration in the computing continuum for supporting modern distributed applications, including artificial intelligence, big data, and scientific computing. It provides a detailed summary of available and emerging non-von Neumann architectures, which range from power-efficient single-board accelerators to quantum and neuromorphic computers. Furthermore, it explores their potential benefits for revolutionizing data processing and analysis in various societal, science, and industry fields. The article provides a detailed analysis of the most widely used class of distributed applications and discusses the difficulties in their execution over the computing continuum, including communication, interoperability, orchestration, and sustainability issues.</t>
+  </si>
+  <si>
+    <t>Computer architecture;Quantum computing;Computational modeling;Internet;Artificial intelligence;Neurons;Distributed databases</t>
+  </si>
+  <si>
+    <t>10.1109/MIC.2023.3301010</t>
+  </si>
+  <si>
+    <t>1941-0131</t>
+  </si>
+  <si>
+    <t>9999284</t>
+  </si>
+  <si>
+    <t>Liu, Yaru and Li, Hongcheng and Huang, Gang and Hua, Wei</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Dependable and Secure Computing</t>
+  </si>
+  <si>
+    <t>OPUPO: Defending Against Membership Inference Attacks With Order-Preserving and Utility-Preserving Obfuscation</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>4690-4701</t>
+  </si>
+  <si>
+    <t>In this work, we present OPUPO to protect machine learning classifiers against black-box membership inference attacks by alleviating the prediction difference between training and non-training samples. Specifically, we apply order-preserving and utility-preserving obfuscation to prediction vectors. The order-preserving constraint strictly maintains the order of confidence scores in the prediction vectors, guaranteeing that the model's classification accuracy is not affected. The utility-preserving constraint, on the other hand, enables adaptive distortions to the prediction vectors in order to protect their utility. Moreover, OPUPO is proved to be adversary resistant that even well-informed defense-aware adversaries cannot restore the original prediction vectors to bypass the defense. We evaluate OPUPO on machine learning and deep learning classifiers trained with four popular datasets. Experiments verify that OPUPO can effectively defend against state-of-the-art attack techniques with negligible computation overhead. In specific, the inference accuracy could be reduced from as high as 87.66% to around 50%, i.e., random guess, and the prediction time will increase by only 0.44% on average. The experiments also show that OPUPO could achieve better privacy-utility trade-off than existing defenses.</t>
+  </si>
+  <si>
+    <t>Privacy;Predictive models;Closed box;Training;Analytical models;Distortion;Micromechanical devices;Membership inference attack;machine learning;privacy;defense;obfuscation</t>
+  </si>
+  <si>
+    <t>10.1109/TDSC.2022.3232111</t>
+  </si>
+  <si>
+    <t>1941-0018</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>10629007</t>
+  </si>
+  <si>
+    <t>Costa, Miguel and Pinto, Sandro</t>
+  </si>
+  <si>
+    <t>David and Goliath: An Empirical Evaluation of Attacks and Defenses for QNNs at the Deep Edge</t>
+  </si>
+  <si>
+    <t>524-541</t>
+  </si>
+  <si>
+    <t>Machine learning (ML) is shifting from the cloud to the edge. Edge computing reduces the surface exposing private data and enables reliable throughput guarantees in real-time applications. Of the panoply of devices deployed at the edge, resource-constrained microcontrollers (MCUs), e.g., Arm Cortex-M, are more prevalent, orders of magnitude cheaper, and less power-hungry than application processors (APUs) or graphical processing units (GPUs). Thus, enabling intelligence at the so-called deep/extreme edge is the zeitgeist, with researchers focusing on unveiling novel approaches to deploy artificial neural networks (ANN) on these constrained devices. Quantization is a well-established technique that has proved effective, i.e., negligible impact on accuracy, in enabling the deployment of neural networks on MCUs; however, it is still an open question to understand the robustness of quantized neural networks (QNNs) in the face of well-known adversarial examples. To fill this gap, we empirically evaluate the effectiveness of attacks and defenses from (full-precision) ANNs on (constrained) QNNs. Our evaluation suite includes three QNNs targeting TinyML applications, ten attacks, and six defenses. With this study, we draw a set of interesting findings. First, quantization increases the point distance to the decision boundary and leads the gradient estimated by some attacks to explode or vanish. Second, quantization can act as a noise attenuator or amplifier, depending on the noise magnitude, and causes gradient misalignment. Regarding adversarial defenses, we conclude that input pre-processing defenses show impressive results on small perturbations; however, they fall short as the perturbation increases. At the same time, train-based defenses increase adversarial robustness by increasing the average point distance to the decision boundary, which holds even after quantization. However, we argue that train-based defenses still need to smooth the quantization-shift and gradient misalignment phenomenons to counteract adversarial example transferability to QNNs. All artifacts are open-sourced to enable independent validation of results and encourage further exploration of the robustness of QNNs.</t>
+  </si>
+  <si>
+    <t>Quantization (signal);Tiny machine learning;Perturbation methods;Noise;Artificial neural networks;Throughput;Robustness</t>
+  </si>
+  <si>
+    <t>10.1109/EuroSP60621.2024.00035</t>
+  </si>
+  <si>
+    <t>2995-1356</t>
+  </si>
+  <si>
+    <t>2024 IEEE 9th European Symposium on Security and Privacy (EuroS&amp;P)</t>
+  </si>
+  <si>
+    <t>10803966</t>
+  </si>
+  <si>
+    <t>Wen, Robert and Ortiz, Alex and Gaile, Edward and Nissen, Rodney</t>
+  </si>
+  <si>
+    <t>Seamlessly integrate Atlassian Open DevOps tools such as Jira, Bitbucket Pipelines, Compass, Confluence, and Opsgenie with other automated testing, monitoring, and security tools such as SonarQube and Snyk for a powerful and agile DevSecOps deployment processKey FeaturesStreamline development progress visibility by connecting Jira with other DevOps tools through Open DevOpsEnhance observability by integrating development tools like Bitbucket Pipelines with CompassLearn best practices for DevSecOps integrations and processes using real-world examplesPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionImplementing DevOps practices and toolchains for automated testing and deployment can accelerate product development with minimal errors in the production environment. However, creating DevOps toolchains by integrating tools from various vendors presents challenges for both administrators and developers. Written by four well-known experts from the Atlassian community, this book addresses the complexities of DevOps toolchain creation and integration by leveraging Atlassian’s Open DevOps solution. Starting with a holistic overview of the DevOps and Atlassian Open DevOps solution, you’ll learn to integrate Jira with other tools. You’ll then find out how to create and integrate a CI/CD pipeline in Bitbucket for automated testing and deployment to Docker containers. With step-by-step guidance, you’ll connect Jira and Bitbucket with other tools, such as Snyk for security and SonarQube for testing, to form an extensive toolchain. You’ll also learn how Compass uses CheckOps for observability and how to use Confluence for documentation and reporting. Finally, you’ll leverage Opsgenie’s ChatOps functionality to enhance collaboration between developers and operations teams. By the end of this book, you’ll be able to establish your DevOps toolchain by integrating Atlassian tools to automate and optimize the software development lifecycle and beyond.What you will learnExtend reporting capabilities in Jira using Open DevOpsIntegrate Jira with popular tools for tracking the build and deployment statusTrack the progress of product ideas with Jira Product DiscoveryDocument and report projects using ConfluenceCreate and deploy CI/CD pipelines in Bitbucket and perform testing in SonarQubeIntegrate security scanning into your CI/CD pipeline using SnykCreate an observability portal in CompassUse Opsgenie to collaborate with other teams when incidents occurWho this book is forThis book is a valuable resource for DevOps engineers, platform engineers, SREs, software developers, and Atlassian tool administrators who want to automate testing, integration, and deployment processes using the Atlassian DevOps toolchain. A basic understanding of DevOps processes will be beneficial. While prior knowledge of administering Atlassian tools may be helpful, it is not necessary, as the recipes cover the administrative tasks needed to implement the DevOps toolchain and practices.</t>
+  </si>
+  <si>
+    <t>Atlassian DevOps Toolchain Cookbook: Recipes for building, automating, and managing applications with Jira, Bitbucket Pipelines, and more</t>
+  </si>
+  <si>
+    <t>9781835469644</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10803966</t>
+  </si>
+  <si>
+    <t>10497717</t>
+  </si>
+  <si>
+    <t>Mullaney, Thomas S.</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>247-311</t>
+  </si>
+  <si>
+    <t>The Chinese Computer: A Global History of the Information Age</t>
+  </si>
+  <si>
+    <t>9780262372428</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10497717</t>
+  </si>
+  <si>
+    <t>9110532</t>
+  </si>
+  <si>
+    <t>Beni, Majid Davoody</t>
+  </si>
+  <si>
+    <t>Philosophia Mathematica</t>
+  </si>
+  <si>
+    <t>The Benacerraf Problem as a Challenge for Ontic Structural Realism</t>
+  </si>
+  <si>
+    <t>35-59</t>
+  </si>
+  <si>
+    <t>Benacerraf has presented two problems for the philosophy of mathematics. These are the problem of identification and the problem of representation. This paper aims to reconstruct the latter problem and to unpack its undermining bearing on the version of Ontic Structural Realism that frames scientific representations in terms of abstract structures. I argue that the dichotomy between mathematical structures and physical ones cannot be used to address the Benacerraf problem but strengthens it. I conclude by arguing that versions of OSR that do not rely on mathematical frameworks for representational purposes need not be vulnerable to Benacerraf's second problem.</t>
+  </si>
+  <si>
+    <t>10.1093/philmat/nkz022</t>
+  </si>
+  <si>
+    <t>1744-6406</t>
+  </si>
+  <si>
+    <t>10628523</t>
+  </si>
+  <si>
+    <t>Hu, Zhaojie and Ye, Jingzhou and Zhang, Yifan and Wang, Xueqiang</t>
+  </si>
+  <si>
+    <t>Seeing is Not Always Believing: An Empirical Analysis of Fake Evidence Generators</t>
+  </si>
+  <si>
+    <t>560-579</t>
+  </si>
+  <si>
+    <t>Online scams pose a growing threat to the cyberspace, with cybercriminals frequently using fake evidence, such as identification and financial documents, to illicitly elevate their credibility in online activities. This deceptive trend is fueled by an emerging set of fake evidence generators (FEGens). These FeGensreplicate the output of authoritative sources, such as official bank applications, to automatically generate large quantities of authentic-looking fake evidence. To the best of our knowledge, FeGens,as effective tools for cybercriminals, have not been systematically analyzed in terms of their supply chain, including development, promotion, and delivery, as well as the risks and impacts they pose to end users. In this paper, we present the first systematic empirical analysis of FegEnsand related fake evidence. Our findings shed light on the FegEn ecosystem, particularly the tactics employed by FegEndevelopers and retailers to mimic authoritative sources and promote the use of FeGens. We also evaluate the effectiveness of FeGensand associated risks in cybercrime.</t>
+  </si>
+  <si>
+    <t>Systematics;Supply chains;Ecosystems;Cyberspace;Market research;Generators;Computer crime</t>
+  </si>
+  <si>
+    <t>10.1109/EuroSP60621.2024.00037</t>
+  </si>
+  <si>
+    <t>10781407</t>
+  </si>
+  <si>
+    <t>Njor, Emil and Hasanpour, Mohammad Amin and Madsen, Jan and Fafoutis, Xenofon</t>
+  </si>
+  <si>
+    <t>A Holistic Review of the TinyML Stack for Predictive Maintenance</t>
+  </si>
+  <si>
+    <t>184861-184882</t>
+  </si>
+  <si>
+    <t>Downtime caused by failing equipment can be extremely costly for organizations. Predictive Maintenance (PdM), which uses data to predict when maintenance should be conducted, is an essential tool for increasing safety, maximizing uptime and minimizing costs. Contempoary PdM systems primarily have sensors collect information about the equipment under observation. This information is afterwards transmitted off the device for processing at a high-performance computer system. While this can allow high-quality predictions, it also imposes barriers that keep some organisations from adopting PdM. For example, some applications prevent data transmission off sensor devices due to regulatory or infrastructure limitations. Being able to process the collected information right at the sensor device is, therefore, desirable in many sectors - something that recent progress in the field of TinyML promises to deliver. This paper investigates the intersection between PdM and TinyML and explores how TinyML can enable many new PdM applications. We consider a holistic view of TinyML-based PdM, focusing on the full stack of Machine Learning (ML) models, hardware, toolchains, data and PdM applications. Our main findings are that each part of the TinyML stack has received varying degrees of attention. In particular, ML models and their optimisations have seen a lot of attention, while data optimisations and TinyML datasets lack contributions. Furthermore, most TinyML research focuses on image and audio classification, with little attention paid to other application areas such as PdM. Based on our observations, we suggest promising avenues of future research to scale and improve the application of TinyML to PdM.</t>
+  </si>
+  <si>
+    <t>Tiny machine learning;Surveys;Program processors;Costs;Organizations;Maintenance;Reviews;Microcontrollers;Energy efficiency;Optimization;Embedded AI;embedded machine learning;optimization;predictive maintenance;resource-constrained systems;TinyML</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2024.3512860</t>
+  </si>
+  <si>
+    <t>10410241</t>
+  </si>
+  <si>
+    <t>Scriven, Alexander and Kedziora, David Jacob and Musial, Katarzyna and Gabrys, Bogdan</t>
+  </si>
+  <si>
+    <t>The Technological Emergence of AutoML presents a comprehensive snapshot of how AutoML has permeated into mainstream use within the early 2020s. This work surveys both their implementation and application in the context of industry. It also defines what a ‘performant’ AutoML system is – HCI support is valued highly here – and assesses how the current crop of available packages and services lives up to expectations. To do so in a systematic manner, this survey is structured as follows. Section 2 begins by elaborating on the notion of an ML workflow, conceptually framing AutoML in terms of the high-level operations required to develop, deploy and maintain an ML model. Section 3 uses this workflow to support the introduction of industry-related stakeholders and their interests/obligations. These requirements are unified into a comprehensive set of criteria, supported by methods of assessment, that determine whether an AutoML system can be considered performant. Section 4 launches the survey in earnest, assessing the nature and capabilities of existing AutoML technology beginning with an examination of open-source AutoML packages. The section additionally investigates AutoML systems that are designed for specific domains, as well as commercial products. Subsequently, Section 5 assesses where AutoML technology has been used and how it has fared. Academic work focusing on real-world applications is surveyed, as are vendor-based case studies. All key findings and assessments are then synthesized in Section 6, with commentary around how mature AutoML technology is, as well as whether there are obstacles and opportunities for future uptake. Finally, Section 7 provides a concluding overview on the technological emergence of AutoML.</t>
+  </si>
+  <si>
+    <t>The Technological Emergence of AutoML: A Survey of Performant Software and Applications in the Context of Industry</t>
+  </si>
+  <si>
+    <t>9781638283232</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10410241</t>
+  </si>
+  <si>
+    <t>10162585</t>
+  </si>
+  <si>
+    <t>Zafar, Adil and Alturi, Dharma and Taur, Sanket and Gor, Mihir R.</t>
+  </si>
+  <si>
+    <t>Get insights and guidance on various challenges within the industry and what business levers you can consider to effortlessly lead your business transformation through RISE with SAP Purchase of the print or Kindle book includes a free PDF eBookKey FeaturesGain actionable insights into end-to-end process performance with process analyticsScale performance and reliability to accelerate your journey to the cloud and beyondGet a clear overview of the enabling tools and services you can leverage for the transformationBook DescriptionIf you’re unsure whether adopting SAP S/4HANA is the right move for your enterprise, then this book is for you. This practical and comprehensive guide will help you determine your next steps toward building a business case, while preparing you for all the possible scenarios and enabling you to make informed decisions during implementation. RISEwith SAP toward a Sustainable Enterprise is packed with clear and detailed advice, including a run-through of what it takes to design the landscape using RISE with SAP. As you go through the chapters, you’ll get a solid understanding of precisely what services are available (such as Process Discovery, data migration, the fit-to-standard approach), and which scope items on RISE with SAP should be considered, allowing you to make the most of RISE with the SAP-based model. Finally, you’ll get an overview of different industry-based use cases and how they can be brought to reality with the platform that’s set up on the RISE with SAP offering. By the end of this book, you’ll be able to build a detailed business case to determine if RISE with SAP is the right transformation engine for you, along with a clear idea of optimized landscape design on RISE with SAP that addresses the pain points for your implementation and support activities. What you will learnUnderstand the challenges faced by organizations and CXOs with the emerging market trendsKnow what to consider when creating a business case for RISE with SAPExplore deployment options within RISE with SAP and other functional and non-functional servicesUnderstand optimized landscape design on RISE with SAP along with effective implementation and supportTake the optimum approach in adopting S/4HANA with levers like Process Discovery, testing, and automationDiscover possibilities when dealing with SAP, the vendor ecosystem, and cloud products driven by industriesWho this book is forThis book is for CXOs and solutions and enterprise architects who’ve been working in the SAP ecosystem and want practical and concise advice on how to get up and running with the adoption of S/4HANA by leveraging RISE with SAP as the enabling engine. This book is also for professionals working toward creating a business case and trying to identify all possible best practices around the adoption of RISE with SAP and associated industry use cases. Prior experience with either SAP or a different ERP will help you get the most out of this book.</t>
+  </si>
+  <si>
+    <t>RISE with SAP towards a Sustainable Enterprise: Become a value-driven, sustainable, and resilient enterprise using RISE with SAP</t>
+  </si>
+  <si>
+    <t>9781801819817</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162585</t>
+  </si>
+  <si>
+    <t>9700986</t>
+  </si>
+  <si>
+    <t>IEEE P2801/D3.0, November 2021</t>
+  </si>
+  <si>
+    <t>IEEE Draft Recommended Practice for the Quality Management of Datasets for Medical Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>1-36</t>
+  </si>
+  <si>
+    <t>Promoted in this recommended practice are quality management activities for datasets used for artificial intelligence medical devices (AIMD). The document highlights quality objectives for organizations responsible for datasets. The document describes control of records during the lifecycle of datasets, including but not limited to data collection, annotation, transfer, utilization, storage, maintenance, updates, retirement, and other activities. The document emphasizes special consideration for the dataset quality management system, including but not limited to responsibility management, resource management, dataset realization, and quality control.</t>
+  </si>
+  <si>
+    <t>IEEE Standards;Medical devices;Artificial intelligence;Quality of service;Data models;AIMD;artificial intelligence medical device;datasets;IEEE 2801;quality management</t>
+  </si>
+  <si>
+    <t>10616208</t>
+  </si>
+  <si>
+    <t>Iqbal, Asif and Zia, Usman and Aman, Muhammad Naveed and Sikdar, Biplab</t>
+  </si>
+  <si>
+    <t>IEEE Internet of Things Journal</t>
+  </si>
+  <si>
+    <t>RAM-Based Firmware Attestation for IoT Security: A Representation Learning Framework</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>35124-35140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With the proliferation of 4G and 5G mobile networks in smart cities, the adoption of Internet of Things (IoT) devices has surged, emphasizing the critical need for robust security measures. Existing firmware attestation techniques often require high computational budget or access to the device’s authentic firmware, posing challenges due to resource and proprietary constraints. To counter these two fundamental challenges, this article introduces a novel software-based attestation framework utilizing RAM traces from IoT devices for remote verification. In the proposed framework, the need for an authentic firmware copy is eliminated, and the most computationally intensive task is assigned to the gateway node of the IoT ecosystem. This approach yields a robust and highly accurate device attestation strategy, while imposing minimal computational demands on the verification device itself. Employing deep learning models trained in a representation learning paradigm, our framework enables the remote verifier to authenticate the internal state of IoT devices. Leveraging data collected from real-world prototype devices, under eight different applications, our approach achieves a remarkable 100% accuracy in detecting critical attacks on IoT devices with a false positive rate of  $10^{-3}$ . Notably, our framework preserves device availability and maintains low authentication latency, underscoring its efficacy and practicality for securing IoT ecosystems.</t>
+  </si>
+  <si>
+    <t>Internet of Things;Microprogramming;Random access memory;Security;Task analysis;Hardware;Logic gates;Device attestation;firmware;Internet of Things (IoT);RAM trace;variational autoencoder (VAE)</t>
+  </si>
+  <si>
+    <t>10.1109/JIOT.2024.3436057</t>
+  </si>
+  <si>
+    <t>2327-4662</t>
+  </si>
+  <si>
+    <t>10334182</t>
+  </si>
+  <si>
+    <t>Computation System and Information Technology for Sustainable Solutions</t>
+  </si>
+  <si>
+    <t>1-184</t>
+  </si>
+  <si>
+    <t>Computation System and Information Technology for Sustainable Solutions.</t>
+  </si>
+  <si>
+    <t>Information technology;Transportation;Task analysis;Service robots;Renewable energy sources;Medical services;Manufacturing</t>
+  </si>
+  <si>
+    <t>10.1109/CSITSS60515.2023.10334182</t>
+  </si>
+  <si>
+    <t>2023 7th International Conference on Computation System and Information Technology for Sustainable Solutions (CSITSS)</t>
+  </si>
+  <si>
+    <t>8751708</t>
+  </si>
+  <si>
+    <t>Boden, Margaret A. and Edmonds, Ernest A.</t>
+  </si>
+  <si>
+    <t>14 Conversations with Computer Artists</t>
+  </si>
+  <si>
+    <t>265-364</t>
+  </si>
+  <si>
+    <t>This chapter presents a set of conversations with artists who use computer-based systems in various ways, primarily via writing of computer programs. Following short introductions, the conversations are presented in full for readers to develop their own understandings from the point of view of the artists' voices.</t>
+  </si>
+  <si>
+    <t>From Fingers to Digits: An Artificial Aesthetic</t>
+  </si>
+  <si>
+    <t>9780262352093</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8751708</t>
+  </si>
+  <si>
+    <t>9519400</t>
+  </si>
+  <si>
+    <t>Abdelnabi, Sahar and Fritz, Mario</t>
+  </si>
+  <si>
+    <t>Adversarial Watermarking Transformer: Towards Tracing Text Provenance with Data Hiding</t>
+  </si>
+  <si>
+    <t>121-140</t>
+  </si>
+  <si>
+    <t>Recent advances in natural language generation have introduced powerful language models with high-quality output text. However, this raises concerns about the potential misuse of such models for malicious purposes. In this paper, we study natural language watermarking as a defense to help better mark and trace the provenance of text. We introduce the Adversarial Watermarking Transformer (AWT) with a jointly trained encoder-decoder and adversarial training that, given an input text and a binary message, generates an output text that is unobtrusively encoded with the given message. We further study different training and inference strategies to achieve minimal changes to the semantics and correctness of the input text.AWT is the first end-to-end model to hide data in text by automatically learning -without ground truth- word substitutions along with their locations in order to encode the message. We empirically show that our model is effective in largely preserving text utility and decoding the watermark while hiding its presence against adversaries. Additionally, we demonstrate that our method is robust against a range of attacks.</t>
+  </si>
+  <si>
+    <t>Training;Data privacy;Smoothing methods;Natural languages;Semantics;Watermarking;Robustness</t>
+  </si>
+  <si>
+    <t>10.1109/SP40001.2021.00083</t>
+  </si>
+  <si>
+    <t>2375-1207</t>
+  </si>
+  <si>
+    <t>2021 IEEE Symposium on Security and Privacy (SP)</t>
+  </si>
+  <si>
+    <t>10343095</t>
+  </si>
+  <si>
+    <t>Hassija, Vikas and Chakrabarti, Arjab and Singh, Anushka and Chamola, Vinay and Sikdar, Biplab</t>
+  </si>
+  <si>
+    <t>Unleashing the Potential of Conversational AI: Amplifying Chat-GPT’s Capabilities and Tackling Technical Hurdles</t>
+  </si>
+  <si>
+    <t>143657-143682</t>
+  </si>
+  <si>
+    <t>Conversational AI has seen a growing interest among government, researchers, and industrialists. This comprehensive survey paper provides an in-depth analysis of large language models, specifically focusing on ChatGPT. This paper discusses the architecture, training process, and challenges associated with large language models, including bias, interpretability, and ethics. It explores various applications of ChatGPT and examines future research trends, such as improving model generalization, addressing data scarcity, and integrating multimodal capabilities. This survey also serves as a roadmap for researchers, practitioners, and policymakers, offering valuable insights into the current state and future potential of large language models and ChatGPT.</t>
+  </si>
+  <si>
+    <t>Chatbots;Transformers;Artificial intelligence;Context modeling;Usability;Surveys;Analytical models;Natural language processing;Deep learning;Neural networks;Sentiment analysis;Large language models;ChatGPT;natural language processing;deep learning;neural networks;transformer models;pre-training and fine-tuning;language generation;text completion;model interpretability;bias in language models;ethics in AI;data scarcity;multimodal models;generalization;conversational AI;language understanding;text classification;sentiment analysis;dialogue systems</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2023.3339553</t>
+  </si>
+  <si>
+    <t>8470120</t>
+  </si>
+  <si>
+    <t>Chen, Jing and Wang, Chiheng and He, Kun and Zhao, Ziming and Chen, Min and Du, Ruiying and Ahn, Gail-Joon</t>
+  </si>
+  <si>
+    <t>Semantics-Aware Privacy Risk Assessment Using Self-Learning Weight Assignment for Mobile Apps</t>
+  </si>
+  <si>
+    <t>15-29</t>
+  </si>
+  <si>
+    <t>Most of the existing mobile application (app) vetting mechanisms only estimate risks at a coarse-grained level by analyzing app syntax but not semantics. We propose a semantics-aware privacy risk assessment framework (SPRisk), which considers the sensitivity discrepancy of privacy-related factors at semantic level. Our framework can provide qualitative (i.e., risk level) and quantitative (i.e., risk score) assessment results, both of which help users make decisions to install an app or not. Furthermore, to find the reasonable weight distribution of each factor automatically, we exploit a self-learning weight assignment method, which is based on fuzzy clustering and knowledge dependency theory. We implement a prototype system and evaluate the effectiveness of SPRisk with 192,445 normal apps and 7,111 malicious apps. A measurement study further reveals some interesting findings, such as the privacy risk distribution of Google Play Store, the diversity of official and unofficial marketplaces, which provide insights into understanding the seriousness of privacy threat in the Android ecosystem.</t>
+  </si>
+  <si>
+    <t>Privacy;Risk management;Sensitivity;Androids;Humanoid robots;Data privacy;Semantics;Android;semantics-aware;self-learning weight assignment;privacy risk assessment</t>
+  </si>
+  <si>
+    <t>10.1109/TDSC.2018.2871682</t>
+  </si>
+  <si>
+    <t>10125072</t>
+  </si>
+  <si>
+    <t>Melhart, David and Togelius, Julian and Mikkelsen, Benedikte and Holmgård, Christoffer and Yannakakis, Georgios N.</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Affective Computing</t>
+  </si>
+  <si>
+    <t>The Ethics of AI in Games</t>
+  </si>
+  <si>
+    <t>79-92</t>
+  </si>
+  <si>
+    <t>Video games are one of the richest and most popular forms of human-computer interaction and, hence, their role is critical for our understanding of human behaviour and affect at a large scale. As artificial intelligence (AI) tools are gradually adopted by the game industry a series of ethical concerns arise. Such concerns, however, have so far not been extensively discussed in a video game context. Motivated by the lack of a comprehensive review on the ethics of AI as applied to games, we survey the current state of the art in this area and discuss ethical considerations of these systems from the holistic perspective of the affective loop. Through the components of this loop, we study the ethical challenges that AI faces in video game development. Elicitation highlights the ethical boundaries of artificially induced emotions; sensing showcases the trade-off between privacy and safe gaming spaces; and detection, as utilised during in-game adaptation, poses challenges to transparency and ownership. This paper calls for an open dialogue and action for the games of today and the virtual spaces of the future. By setting an appropriate framework we aim to protect users and to guide developers towards safer and better experiences for their customers.</t>
+  </si>
+  <si>
+    <t>Artificial intelligence;Games;Ethics;Computational modeling;Industries;Data models;Video games;Artificial intelligence;ethics;video games;affective computing</t>
+  </si>
+  <si>
+    <t>10.1109/TAFFC.2023.3276425</t>
+  </si>
+  <si>
+    <t>1949-3045</t>
+  </si>
+  <si>
+    <t>9744509</t>
+  </si>
+  <si>
+    <t>Lu, Zhaowu and Wang, Jun and Mao, Rui and Lu, Minhua and Shi, Jun</t>
+  </si>
+  <si>
+    <t>IEEE/ACM Transactions on Computational Biology and Bioinformatics</t>
+  </si>
+  <si>
+    <t>Jointly Composite Feature Learning and Autism Spectrum Disorder Classification Using Deep Multi-Output Takagi-Sugeno-Kang Fuzzy Inference Systems</t>
+  </si>
+  <si>
+    <t>476-488</t>
+  </si>
+  <si>
+    <t>Autism spectrum disorder (ASD) is characterized by poor social communication abilities and repetitive behaviors or restrictive interests, which has brought a heavy burden to families and society. In many attempts to understand ASD neurobiology, resting-state functional magnetic resonance imaging (rs-fMRI) has been an effective tool. However, current ASD diagnosis methods based on rs-fMRI have two major defects. First, the instability of rs-fMRI leads to functional connectivity (FC) uncertainty, affecting the performance of ASD diagnosis. Second, many FCs are involved in brain activity, making it difficult to determine effective features in ASD classification. In this study, we propose an interpretable ASD classifier DeepTSK, which combines a multi-output Takagi-Sugeno-Kang (MO-TSK) fuzzy inference system (FIS) for composite feature learning and a deep belief network (DBN) for ASD classification in a unified network. To avoid the suboptimal solution of DeepTSK, a joint optimization procedure is employed to simultaneously learn the parameters of MO-TSK and DBN. The proposed DeepTSK was evaluated on datasets collected from three sites of the Autism Brain Imaging Data Exchange (ABIDE) database. The experimental results showed the effectiveness of the proposed method, and the discriminant FCs are presented by analyzing the consequent parameters of Deep MO-TSK.</t>
+  </si>
+  <si>
+    <t>Feature extraction;Functional magnetic resonance imaging;Uncertainty;Representation learning;Correlation;Takagi-Sugeno model;Optimization;Autism spectrum disorder;Resting-state functional magnetic resonance imaging;multi-output TSK fuzzy inference system;deep belief network</t>
+  </si>
+  <si>
+    <t>10.1109/TCBB.2022.3163140</t>
+  </si>
+  <si>
+    <t>1557-9964</t>
+  </si>
+  <si>
+    <t>9851498</t>
+  </si>
+  <si>
+    <t>Lee, Suyoung and Song, Wonho and Jana, Suman and Cha, Meeyoung and Son, Sooel</t>
+  </si>
+  <si>
+    <t>Evaluating the Robustness of Trigger Set-Based Watermarks Embedded in Deep Neural Networks</t>
+  </si>
+  <si>
+    <t>3434-3448</t>
+  </si>
+  <si>
+    <t>Trigger set-based watermarking schemes have gained emerging attention as they provide a means to prove ownership for deep neural network model owners. In this paper, we argue that state-of-the-art trigger set-based watermarking algorithms do not achieve their designed goal of proving ownership. We posit that this impaired capability stems from two common experimental flaws that the existing research practice has committed when evaluating the robustness of watermarking algorithms: (1) incomplete adversarial evaluation and (2) overlooked adaptive attacks. We conduct a comprehensive adversarial evaluation of 11 representative watermarking schemes against six of the existing attacks and demonstrate that each of these watermarking schemes lacks robustness against at least two non-adaptive attacks. We also propose novel adaptive attacks that harness the adversary's knowledge of the underlying watermarking algorithm of a target model. We demonstrate that the proposed attacks effectively break all of the 11 watermarking schemes, consequently allowing adversaries to obscure the ownership of any watermarked model. We encourage follow-up studies to consider our guidelines when evaluating the robustness of their watermarking schemes via conducting comprehensive adversarial evaluation that includes our adaptive attacks to demonstrate a meaningful upper bound of watermark robustness.</t>
+  </si>
+  <si>
+    <t>Watermarking;Robustness;Adaptation models;Training;Computational modeling;Neural networks;Upper bound;Deep neural networks;watermark removal attacks;backdoor attacks;watermark robustness;trigger set-based watermarks</t>
+  </si>
+  <si>
+    <t>10.1109/TDSC.2022.3196790</t>
+  </si>
+  <si>
+    <t>8592634</t>
+  </si>
+  <si>
+    <t>Wang, Ping and Lin, Wen-Hui and Wu, Bao-Hua and Chao, Kuo-Ming and Lo, Chi-Chun</t>
+  </si>
+  <si>
+    <t>A Cross-Age Face Recognition Approach Using Fog Computing Architecture for User Authentication on Mobile Devices</t>
+  </si>
+  <si>
+    <t>86-93</t>
+  </si>
+  <si>
+    <t>Mobile commerce security needs quality services where mobile devices respond in real-time and traditional cloud computing approach uses a centralized architecture does not support these systems with such time dependency well. Thus, this study proposes a cross-age face-recognition model with MobileNets to determine the identity of a user in the situation of aging appearance change on a fog computing architecture. Especially, this study uses a face-recognition technique based on a distributed concept. In this concept, MobileNet-based face recognition system effectively performs cross-age face recognition for identity authentication with the enhanced facial features of the users locally. Overall, the MobileNet model reaches acceptable prediction accuracy with lower latency in face recognition process compared with that of the existing CNNs schemes.</t>
+  </si>
+  <si>
+    <t>Face recognition;Mobile handsets;Edge computing;Authentication;Computational modeling;Cloud computing;Facial features;cross-age face recognition, user authentication, fog computing architecture, MobileNets, convolutional neuron networks</t>
+  </si>
+  <si>
+    <t>10.1109/ICEBE.2018.00023</t>
+  </si>
+  <si>
+    <t>2018 IEEE 15th International Conference on e-Business Engineering (ICEBE)</t>
+  </si>
+  <si>
+    <t>10208211</t>
+  </si>
+  <si>
+    <t>Xu, Chaohui and Liu, Wenye and Zheng, Yue and Wang, Si and Chang, Chip-Hong</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Circuits and Systems I: Regular Papers</t>
+  </si>
+  <si>
+    <t>An Imperceptible Data Augmentation Based Blackbox Clean-Label Backdoor Attack on Deep Neural Networks</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>5011-5024</t>
+  </si>
+  <si>
+    <t>Deep neural networks (DNNs) have permeated into many diverse application domains, making them attractive targets of malicious attacks. DNNs are particularly susceptible to data poisoning attacks. Such attacks can be made more venomous and harder to detect by poisoning the training samples without changing their ground-truth labels. Despite its pragmatism, the clean-label requirement imposes a stiff restriction and strong conflict in simultaneous optimization of attack stealth, success rate, and utility of the poisoned model. Attempts to circumvent the pitfalls often lead to a high injection rate, ineffective embedded backdoors, unnatural triggers, low transferability, and/or poor robustness. In this paper, we overcome these constraints by amalgamating different data augmentation techniques for the backdoor trigger. The spatial intensities of the augmentation methods are iteratively adjusted by interpolating the clean sample and its augmented version according to their tolerance to perceptual loss and augmented feature saliency to target class activation. Our proposed attack is comprehensively evaluated on different network models and datasets. Compared with state-of-the-art clean-label backdoor attacks, it has lower injection rate, stealthier poisoned samples, higher attack success rate, and greater backdoor mitigation resistance while preserving high benign accuracy. Similar attack success rates are also demonstrated on the Intel Neural Compute Stick 2 edge AI device implementation of the poisoned model after weight-pruning and quantization.</t>
+  </si>
+  <si>
+    <t>Training;Neurons;Closed box;Artificial neural networks;Perturbation methods;Edge computing;Data augmentation;Data augmentation;Artificial neural networks;Clean-label backdoor attack;data augmentation;data poisoning;deep neural networks;edge AI</t>
+  </si>
+  <si>
+    <t>10.1109/TCSI.2023.3298802</t>
+  </si>
+  <si>
+    <t>1558-0806</t>
+  </si>
+  <si>
+    <t>10458406</t>
+  </si>
+  <si>
+    <t>Nair, Vivek and Guo, Wenbo and Wang, Rui and O'Brien, James F. and Rosenberg, Louis and Song, Dawn</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Visualization and Computer Graphics</t>
+  </si>
+  <si>
+    <t>Berkeley Open Extended Reality Recordings 2023 (BOXRR-23): 4.7 Million Motion Capture Recordings from 105,000 XR Users</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2239-2246</t>
+  </si>
+  <si>
+    <t>Extended reality (XR) devices such as the Meta Quest and Apple Vision Pro have seen a recent surge in attention, with motion tracking “telemetry” data lying at the core of nearly all XR and metaverse experiences. Researchers are just beginning to understand the implications of this data for security, privacy, usability, and more, but currently lack large-scale human motion datasets to study. The BOXRR-23 dataset contains 4,717,215 motion capture recordings, voluntarily submitted by 105,852 XR device users from over 50 countries. BOXRR-23 is over 200 times larger than the largest existing motion capture research dataset and uses a new, highly efficient and purpose-built XR Open Recording (XROR) file format.</t>
+  </si>
+  <si>
+    <t>Recording;Motion capture;X reality;Brushes;Tracking;Games;Internet;Dataset;virtual reality;extended reality;motion capture;big data</t>
+  </si>
+  <si>
+    <t>10.1109/TVCG.2024.3372087</t>
+  </si>
+  <si>
+    <t>1941-0506</t>
+  </si>
+  <si>
+    <t>10309457</t>
+  </si>
+  <si>
+    <t>Idrees, Ifrah and Singh, Siddharth and Xu, Kerui and Glas, Dylan F.</t>
+  </si>
+  <si>
+    <t>A Framework for Realistic Simulation of Daily Human Activity</t>
+  </si>
+  <si>
+    <t>30-37</t>
+  </si>
+  <si>
+    <t>For social robots like Astro which interact with and adapt to the daily movements of users within the home, realistic simulation of human activity is needed for feature development and testing. This paper presents a framework for simulating daily human activity patterns in home environments at scale, supporting manual configurability of different personas or activity patterns, variation of activity timings, and testing on multiple home layouts. We introduce a method for specifying day-to-day variation in schedules and present a bidirectional constraint propagation algorithm for generating schedules from templates. We validate the expressive power of our framework through a use case scenario analysis and demonstrate that our method can be used to generate data closely resembling human behavior from three public datasets and a self-collected dataset. Our contribution supports systematic testing of social robot behaviors at scale, enables procedural generation of synthetic datasets of human movement in different households, and can help minimize bias in training data, leading to more robust and effective robots for home environments.</t>
+  </si>
+  <si>
+    <t>Schedules;Systematics;Social robots;Training data;Manuals;Behavioral sciences;Timing</t>
+  </si>
+  <si>
+    <t>10.1109/RO-MAN57019.2023.10309457</t>
+  </si>
+  <si>
+    <t>1944-9437</t>
+  </si>
+  <si>
+    <t>2023 32nd IEEE International Conference on Robot and Human Interactive Communication (RO-MAN)</t>
+  </si>
+  <si>
+    <t>10275085</t>
+  </si>
+  <si>
+    <t>Zhu, Yadongyang and Zhao, Shuguang and Zhang, Fudong and Wei, Wei and Zhao, Fa</t>
+  </si>
+  <si>
+    <t>Edge-Intelligence-Based Seismic Event Detection Using a Hardware-Efficient Neural Network With Field-Programmable Gate Array</t>
+  </si>
+  <si>
+    <t>9432-9443</t>
+  </si>
+  <si>
+    <t>This article presents a neural network model based on edge intelligence for seismic event detection. We implemented the model in hardware using a field-programmable gate array (FPGA) to achieve in-situ detection of seismic events at acquisition nodes or edge nodes. We designed and implemented the model, focusing on its suitability for hardware implementation on FPGA, employing an encoder—decoder structure. The encoder incorporates reparameterization and depthwise separable convolutions. During training, a multibranch structure was employed, which was then converted to an equivalent single-branch structure during inference to reduce model complexity and parameters. The features extracted by the encoder were further learned by the bi-directional long short-term memory (Bi-LSTM) network and then fed into the decoder for classification. We evaluated the model using the stanford earthquake data set (STEAD) and observed a 70% reduction in parameters while achieving comparable detection performance to EQTransformer. Furthermore, the model structure is well-suited for hardware implementation on FPGA. Applying this model to edge devices for seismic event detection can effectively minimize redundant data transmission and enable in-situ quality control.</t>
+  </si>
+  <si>
+    <t>Computational modeling;Image edge detection;Feature extraction;Data models;Training;Hardware;Field programmable gate arrays;Edge intelligence;field-programmable gate array (FPGA);hardware efficient;neural network;seismic event detection</t>
+  </si>
+  <si>
+    <t>10.1109/JIOT.2023.3323331</t>
+  </si>
+  <si>
+    <t>9951649</t>
+  </si>
+  <si>
+    <t>Lei, Jie and Xie, Weiying and Li, Jiaojiao and Wang, Keyan and Liu, Kai and Li, Yunsong</t>
+  </si>
+  <si>
+    <t>Efficient Hardware Implementation for Hyperspectral Anomaly and Target Detection</t>
+  </si>
+  <si>
+    <t>67-105</t>
+  </si>
+  <si>
+    <t>Hyperspectral anomaly and target detection are two key solutions for detecting objects of interest in hyperspectral imagery with abundant spectral information, according to whether or not a priori knowledge of the object is provided, respectively. The detection has important applications in rare mineral exploration, military target reconnaissance, unknown detection in deep space or deep sea, and so on. The importance of real&amp;#x2010;time detection has recently been realized and recognized in many fields, especially for military. Because moving targets such as tanks, missiles, and unmanned aerial vehicles pose a real threat to ground troops. In this chapter, we retrospect some traditional methods and designed novel detections for real&amp;#x2010;time processing, such as deep pipelined background statistics (DPBS)&amp;#x2010;constrained energy minimization (CEM), deep brief network (DBN)&amp;#x2010;Reed&amp;#x2010;Xiaoli anomaly detector (RXD), Fast&amp;#x2010;automatic target&amp;#x2010;generation process (ATGP), and Fast&amp;#x2010;morphological reconstruction and the simplified guided filtering detector (MGD). In experiments, our proposed methods are conducted on six data sets including TE1, HyMap, ABU, Cuprite, San Diego, and HYDICE. And these detection algorithms are deployed on the FPGA, and more importantly, model&amp;#x2010;based design is considered for hardware implementation. With the validation by the different metrics (AUC scores, LUTs, FFs, time, and so on), our proposed methods accomplish a trade&amp;#x2010;off between detection accuracy and inference speed.</t>
+  </si>
+  <si>
+    <t>Object detection;Hyperspectral imaging;Anomaly detection;Field programmable gate arrays;Real-time systems;Principal component analysis;Logistics</t>
+  </si>
+  <si>
+    <t>10.1002/9781119687788.ch3</t>
+  </si>
+  <si>
+    <t>Advances in Hyperspectral Image Processing Techniques</t>
+  </si>
+  <si>
+    <t>9781119687757</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9951649</t>
+  </si>
+  <si>
+    <t>10433003</t>
+  </si>
+  <si>
+    <t>Halgamuge, Malka N.</t>
+  </si>
+  <si>
+    <t>Leveraging Deep Learning to Strengthen the Cyber-Resilience of Renewable Energy Supply Chains: A Survey</t>
+  </si>
+  <si>
+    <t>2146-2175</t>
+  </si>
+  <si>
+    <t>Deep learning shows immense potential for strengthening the cyber-resilience of renewable energy supply chains. However, research gaps in comprehensive benchmarks, real-world model evaluations, and data generation tailored to the renewable domain persist. This study explores applying state-of-the-art deep learning techniques to secure renewable supply chains, drawing insights from over 300 publications. We aim to provide an updated, rigorous analysis of deep learning applications in this field to guide future research. We systematically review literature spanning 2020–2023, retrieving relevant articles from major databases. We examine deep learning’s role in intrusion/anomaly detection, supply chain cyberattack detection frameworks, security standards, historical attack analysis, data management strategies, model architectures, and supply chain cyber datasets. Our analysis demonstrates deep learning enables renewable supply chain anomaly detection by processing massively distributed data. We highlight crucial model design factors, including accuracy, adaptation capability, communication security, and resilience to adversarial threats. Comparing 18 major historical attacks informs risk analysis. We also showcase potential deep learning architectures, evaluating their relative strengths and limitations in security applications. Moreover, our review emphasizes best practices for renewable data curation, considering quality, labeling, access efficiency, and governance. Effective deep learning integration necessitates tailored benchmarks, model tuning guidance, and renewable energy data generation. Our multi-dimensional analysis motivates focused efforts on enhancing detection explanations, securing communications, continually retraining models, and establishing standardized assessment protocols. Overall, we provide a comprehensive roadmap to progress renewable supply chain cyber-resilience leveraging deep learning’s immense potential.</t>
+  </si>
+  <si>
+    <t>Renewable energy sources;Supply chains;Deep learning;Security;Surveys;Computer security;Internet of Things;Renewable energy system;supply chain;cyber security;deep learning;wind energy;solar energy;hydropower</t>
+  </si>
+  <si>
+    <t>10.1109/COMST.2024.3365076</t>
+  </si>
+  <si>
+    <t>thirdquarter</t>
+  </si>
+  <si>
+    <t>8555411</t>
+  </si>
+  <si>
+    <t>Davenport, Thomas H. and Michelman, Paul</t>
+  </si>
+  <si>
+    <t>4 What's Your Cognitive Strategy?</t>
+  </si>
+  <si>
+    <t>61-98</t>
+  </si>
+  <si>
+    <t>Artificial intelligence or cognitive technologies are burgeoning in the business world, but many companies are not yet getting strategic value from their projects and investments.1 Their initiatives are not targeted at important business problems or opportunities. They may lack critical resources needed to achieve substantial projects. As one AI startup CEO put it, “AI has enormous promise but also a 1% problem. Less than 10 companies in the world are achieving the full potential of AI and the rest are really struggling.”2 This may be slightly exaggerated, but there is definitely truth to it.</t>
+  </si>
+  <si>
+    <t>Artificial intelligence;Companies;IEEE Sections;Automation;Investment</t>
+  </si>
+  <si>
+    <t>The AI Advantage: How to Put the Artificial Intelligence Revolution to Work</t>
+  </si>
+  <si>
+    <t>9780262350631</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8555411</t>
+  </si>
+  <si>
+    <t>10771666</t>
+  </si>
+  <si>
+    <t>Wani, Taiba Majid and Qadri, Syed Asif Ahmad and Wani, Farooq Ahmad and Amerini, Irene</t>
+  </si>
+  <si>
+    <t>The rise of audio deepfakes presents a significant security threat that undermines trust in digital communications and media. These synthetic audio technologies can convincingly mimic a person’s voice, enabling malicious activities like impersonation, fraud, and misinformation. Addressing this growing threat requires robust detection systems to ensure the authenticity of digital content. In this monograph, a comprehensive analysis of the state-of-the-art techniques in audio deepfake generation and detection is provided. Various methods used to generate audio deepfakes are examined, including Text-to-Speech (TTS) and Voice Conversion (VC) technologies, and their capabilities in producing highly realistic synthetic audio are discussed. On the detection front, a wide range of approaches are explored, encompassing traditional machine learning and deep learning models for feature extraction and classification. The importance of publicly available datasets for training and evaluating these models is emphasized, showcasing their role in advancing detection capabilities. Additionally, the integration of audio and video deepfake detection systems is discussed, providing a comprehensive defense against sophisticated attacks. This monograph critically assesses existing methods and datasets, highlighting challenges like the high realism of deepfakes, limited data diversity, and the need for models that generalize well. It aims to guide future research in enhancing detection and safeguarding digital media integrity.</t>
+  </si>
+  <si>
+    <t>Privacy and Security</t>
+  </si>
+  <si>
+    <t>Navigating the Soundscape of Deception: A Comprehensive Survey on Audio Deepfake Generation, Detection, and Future Horizons</t>
+  </si>
+  <si>
+    <t>9781638284932</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10771666</t>
+  </si>
+  <si>
+    <t>8849172</t>
+  </si>
+  <si>
+    <t>Therrien, Carl</t>
+  </si>
+  <si>
+    <t>5 Intromission</t>
+  </si>
+  <si>
+    <t>117-145</t>
+  </si>
+  <si>
+    <t>Since those who feel moe toward a character tend to buy its related goods excessively, the success of a project for the producers of such goods is directly determined not by the quality of the work itself but by its ability to evoke the moe desire through character design and illustrations. This tendency goes back to the 1970s, but its significance decisively increased in the context of the 1990s multimedia trend.</t>
+  </si>
+  <si>
+    <t>The Media Snatcher: PC/CORE/TURBO/ENGINE/GRAFX/16/CDROM2/SUPER/DUO/ARCADE/RX</t>
+  </si>
+  <si>
+    <t>9780262354868</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8849172</t>
+  </si>
+  <si>
+    <t>10946177</t>
+  </si>
+  <si>
+    <t>Farsa, Edris Zaman and Ahmadi, Arash and Keszocze, Oliver</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Emerging Topics in Computational Intelligence</t>
+  </si>
+  <si>
+    <t>Reconfigurable Digital FPGA Implementations for Neuromorphic Computing: A Survey on Recent Advances and Future Directions</t>
+  </si>
+  <si>
+    <t>1-23</t>
+  </si>
+  <si>
+    <t>Neuromorphic computing represents hardware and software paradigms that emulate neural brain functionalities. Spiking neural networks (SNNs) are a promising brain-inspired computing approach to achieve power efficiency through event-driven processing using discrete asynchronous spikes, making them particularly effective for spatiotemporal data processing. The complex computational nature of SNNs requires intensive calculations and specialized algorithms to ensure accurate performance across different tasks. Hardware accelerators for neuromorphic computing, particularly for SNN implementations, have emerged primarily through field programmable gate arrays (FPGAs) and application-specific integrated circuits (ASICs). FPGAs are especially attractive for neuromorphic computing due to their flexibility, stability, programmability, reconfigurability, and rapid time to market. This research explores top-tier and well-known journal articles from the IEEE Xplore digital library and the Google Scholar databases including IEEE, ACM, Frontiers, Elsevier, Springer, MDPI, Wiley, arXiv, and Nature publishers. In this survey, various energy-efficient and high-performance FPGA implementations of spiking neurons and SNNs are reviewed. The accuracy rates of the implemented SNNs on different applications are investigated. Also, digital hardware optimization techniques for reconfigurable implementations are discussed. The synthesis results from the presented implementations are reported and compared in terms of cost (referring to utilized resources such as Registers/FFs, LUTs, Multipliers, DSP blocks, and Block RAMs), speed, and power/energy consumption. The survey concludes with recommendations for future research directions in FPGA-based neuromorphic computing.</t>
+  </si>
+  <si>
+    <t>Field programmable gate arrays;Neurons;Hardware;Neuromorphic engineering;Adaptation models;Surveys;Spiking neural networks;Artificial intelligence;Table lookup;Registers;Field programmable gate array (FPGA);hardware implementation;digital design;accelerator;power/energy consumption;neuromorphic computing;spiking neural networks (SNNs);spiking neurons</t>
+  </si>
+  <si>
+    <t>10.1109/TETCI.2025.3551934</t>
+  </si>
+  <si>
+    <t>2471-285X</t>
+  </si>
+  <si>
+    <t>8674406</t>
+  </si>
+  <si>
+    <t>Harbison, Isobel</t>
+  </si>
+  <si>
+    <t>1 A "Kind of" Prosumer</t>
+  </si>
+  <si>
+    <t>11-33</t>
+  </si>
+  <si>
+    <t>Standing at the rostrum of a museum auditorium in 2007, British artist Mark Leckey announces: This presentation is an attempt, by me, to try and grasp a particular experience that I have with certain things in the world, things that I mistake for images or pictures but that somehow impose on me their actual weight, density and volume—their being in the world […] How does an image find that presence? And—in turn—channel its effects through my body?1</t>
+  </si>
+  <si>
+    <t>Performing Image</t>
+  </si>
+  <si>
+    <t>9780262350792</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8674406</t>
+  </si>
+  <si>
+    <t>9969962</t>
+  </si>
+  <si>
+    <t>Chudler, Eric H. and Chudler, Kelly</t>
+  </si>
+  <si>
+    <t>A fun and fact-filled A–Z treasury for anyone with a head on their shouldersNeuropedia journeys into the mysteries and marvels of the three pounds of tissue between your ears—the brain. Eric Chudler takes you on a breathtaking tour of the nervous system with dozens of entries that explore the structure and function of the brain and cover topics such as the spinal cord and nerve cells, the methods of neuroscientific research, and the visionary scientists who have dedicated their lives to understanding what makes each of us who we are.The brain has fascinated and puzzled researchers, physicians, and philosophers for thousands of years and captivated us with each new discovery. This compendium of neuroscientific wonders is brimming with facts and insights, helping us to make sense of our current understanding of the nervous system while identifying the frontiers in our knowledge that remain unexplored. Chudler guides readers through a variety of rare and common neurological disorders such as alien hand disorder, Capgras syndrome, Alzheimer’s disease, Parkinson’s disease, and stroke, and discusses the latest brain-imaging methods used to diagnose them. He discusses neurochemicals, neurotoxins, and lifesaving drugs, and offers bold perspectives on human consciousness that enable us to better appreciate our place in nature.With marvelous illustrations by Kelly Chudler, Neuropedia is an informative and entertaining trip into the inner world of the brain.</t>
+  </si>
+  <si>
+    <t>Neuron;Neurotransmitter;Action potential;Spinal cord;Symptom;Serotonin;Cerebral cortex;Dopamine;Neurological disorder;Cerebellum;Electroencephalography;Syndrome;Schizophrenia;Acetylcholine;Headache;Catalepsy;Temporal lobe;Axon;Muscle;Rapid eye movement sleep;Dementia with Lewy bodies;Blood vessel;Addiction;Attention deficit hyperactivity disorder;Princeton University;Cerebrospinal fluid;Nicotinic acetylcholine receptor;Human brain;Amnesia;Brain injury;Dendrite;Rosemary Kennedy;Parietal lobe;Nerve agent;Tourette syndrome;Chemical synapse;Alzheimer's disease;Wernicke's encephalopathy;Blood–brain barrier;Peripheral nervous system;Cocaine;CT scan;Psychology;Sodium;Spina bifida;Scientist;Parkinson's disease;Dura mater;Epilepsy;Local anesthetic;Acetylcholine receptor;Brain damage;Stimulant;Axon terminal;Visual Objects;Narcolepsy;Neuroscientist;Amphibian;Sleep disorder;Lewy body;Riluzole;Panaeolus;Anxiolytic;MDMA;Ion channel;Arachnoid mater;Gamma-Aminobutyric acid;Astrocyte;Cranial nerves;On Intelligence;Eye movement;Covid-19;Pathology;L-DOPA;Agenesis of the corpus callosum;Oval window;James W. Watts;Posterior cerebral artery;Spatial memory;Ventricular system;Receptor (biochemistry);Node of Ranvier;The Canon of Medicine;Dextroamphetamine;Neural development;Short-term memory;Anterior cerebral artery;Electrode;Prosopagnosia;Meningitis;Alien hand syndrome;Radio frequency;Coronavirus;Hormone;Insecticide;Delicacy;Toothpaste;Vomiting;Hypothalamus;Anger</t>
+  </si>
+  <si>
+    <t>Neuropedia: A Brief Compendium of Brain Phenomena</t>
+  </si>
+  <si>
+    <t>Princeton University Press</t>
+  </si>
+  <si>
+    <t>9780691242187</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9969962</t>
+  </si>
+  <si>
+    <t>10827739</t>
+  </si>
+  <si>
+    <t>Lalwani, Nikita and Ur Rahim, Muhammad Abdul Basit and Anand, Aravind and Shaik, Sumair Pasha and Moghe, Gauri Shashank and Datta, Debarati</t>
+  </si>
+  <si>
+    <t>Survey on Ethical Challenges of Implementing AI in Healthcare</t>
+  </si>
+  <si>
+    <t>824-834</t>
+  </si>
+  <si>
+    <t>In today's world, Artificial Intelligence (AI) and its usage concerning human tasks have become an integral part of our daily lives. Humans depend upon AI to provide faster and more efficient solutions. In the world of medicine, where every decision made by a doctor, physician, or consultant directly impacts the lives of those being treated or diagnosed, AI is making its way to help efficiently provide such results as the intelligence of a human being. Healthcare systems around the world are now making use of AI to help provide humane solutions using algorithms and Machine Learning (ML). Fallacies or inaccuracies in the arena of healthcare can have horrendous outcomes for the patient on whom the procedure is being carried out. Sometimes, certain ethics could be traded off by the system, such as confidentiality, autonomy, justice, and biased decisions leading to false results and victim blaming, which directs the masses into not trusting AI-related healthcare solutions. This situation can lead to mishaps like “AI winter,” where the public could start disbelieving the results of AI solutions. This survey review makes an effort to analyze and address these pertinent ethical issues underlying the requirement for algorithmic translucency, concealment, and safeguarding the interests of all those involved.</t>
+  </si>
+  <si>
+    <t>Training;Surveys;Ethics;Collaboration;Medical services;Regulation;Stakeholders;Artificial intelligence;Medical diagnostic imaging;Standards;Artificial intelligence;Ethics;Healthcare;Health policies;Machine Learning;Medical ethics</t>
+  </si>
+  <si>
+    <t>10.1109/PRAI62207.2024.10827739</t>
+  </si>
+  <si>
+    <t>2024 7th International Conference on Pattern Recognition and Artificial Intelligence (PRAI)</t>
+  </si>
+  <si>
+    <t>10535527</t>
+  </si>
+  <si>
+    <t>Zhang, He and Li, Xinyang and Fu, Xinyi and Qiu, Christine and Zhang, Jiyuan and Carroll, John M.</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Games</t>
+  </si>
+  <si>
+    <t>Understanding Fear Responses and Coping Mechanisms in VR Horror Gaming: Insights From Semistructured Interviews</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>868-881</t>
+  </si>
+  <si>
+    <t>Virtual reality (VR) has the capacity to offer unparalleled immersive experiences, particularly in the domain of horror gaming. However, creating both practical and enjoyable VR applications necessitates a nuanced understanding of user emotions and behaviors. To fill this gap, we conducted semistructured interviews with 25 participants who engaged in VR horror games, specifically exploring their emotional responses to fear-inducing stimuli and their coping strategies. The results revealed the motivations behind users' behaviors in response to different types of fear, highlighting the need to understand and manage negative emotions in VR environments, and provides insights into user needs and design methodologies in VR horror games.</t>
+  </si>
+  <si>
+    <t>Games;Interviews;Virtual environments;Anxiety disorders;Three-dimensional displays;Physiology;Media;Coping strategy;fear;qualitative analysis;virtual reality (VR) game</t>
+  </si>
+  <si>
+    <t>10.1109/TG.2024.3403768</t>
+  </si>
+  <si>
+    <t>2475-1510</t>
+  </si>
+  <si>
+    <t>10521022</t>
+  </si>
+  <si>
+    <t>Peer, Jordan and Mordecai, Yaniv and Reich, Yoram</t>
+  </si>
+  <si>
+    <t>NLP4ReF: Requirements Classification and Forecasting: From Model-Based Design to Large Language Models</t>
+  </si>
+  <si>
+    <t>1-16</t>
+  </si>
+  <si>
+    <t>We introduce Natural Language Processing for Requirement Forecasting (NLP4ReF), a model-based machine learning and natural language processing solution for enhancing the Requirements Engineering (RE) process. RE continues to face significant challenges and demands innovative approaches for process efficiency. Traditional RE methods relying on natural language struggle with incomplete, hidden, forgotten, and evolving requirements during and after the critical design review, risking project failures and setbacks. NLP4ReF tackles several key challenges: a) distinguishing between functional and non-functional requirements, b) classification of requirements by their respective system classes, and c) generation of unanticipated requirements to enhance project success. NLP4ReF employs a common natural language toolkit (NLTK) package and the recently-trending Chat-GPT. We tested NLP4ReF on PROMISE_exp, a pre-existing dataset with 1000 software requirements, and PROMISE_IoT, an enhanced dataset with 2000 software and IoT requirements. We validated NLP4ReF on a genuine IoT project. NLP4ReF swiftly generated dozens of new requirements, verified by a team of systems engineers, of which over 70% were crucial for project success. We found that GPT is superior in authentic requirement generation, while NLTK excels at requirement classification. NLP4ReF offers significant time saving, effort reduction, and improved future-proofing. Our model-based design approach provides a foundation for enhanced RE practices and future research in this domain.</t>
+  </si>
+  <si>
+    <t>Software algorithms;Training data;Software;Natural language processing;Data models;Classification algorithms;Requirements engineering;Natural Language Processing;Requirements Engineering Requirement Forecasting;Internet of Things;Machine Learning;Model-Based Systems Engineering</t>
+  </si>
+  <si>
+    <t>10.1109/AERO58975.2024.10521022</t>
+  </si>
+  <si>
+    <t>1095-323X</t>
+  </si>
+  <si>
+    <t>2024 IEEE Aerospace Conference</t>
+  </si>
+  <si>
+    <t>10460888</t>
+  </si>
+  <si>
+    <t>Lee, Pui Shing and Charm, Dr. Toa</t>
+  </si>
+  <si>
+    <t>Take your organization's data maturity to the next level by operationalizing data governanceKey FeaturesDevelop the mindset and skills essential for successful data stewardshipApply practical advice and industry best practices, spanning data governance, quality management, and compliance, to enhance data stewardshipFollow a step-by-step program to develop a data operating model and implement data stewardship effectivelyPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionIn the competitive data-centric world, mastering data stewardship is not just a requirement—it's the key to organizational success. Unlock strategic excellence with Data Stewardship in Action, your guide to exploring the intricacies of data stewardship and its implementation for maximum efficiency. From business strategy to data strategy, and then to data stewardship, this book shows you how to strategically deploy your workforce, processes, and technology for efficient data processing. You’ll gain mastery over the fundamentals of data stewardship, from understanding the different roles and responsibilities to implementing best practices for data governance. You’ll elevate your data management skills by exploring the technologies and tools for effective data handling. As you progress through the chapters, you’ll realize that this book not only helps you develop the foundational skills to become a successful data steward but also introduces innovative approaches, including leveraging AI and GPT, for enhanced data stewardship. By the end of this book, you’ll be able to build a robust data governance framework by developing policies and procedures, establishing a dedicated data governance team, and creating a data governance roadmap that ensures your organization thrives in the dynamic landscape of data management.What you will learnEnhance your job prospects by understanding the data stewardship field, roles, and responsibilitiesDiscover how to develop a data strategy and translate it into a functional data operating modelDevelop an effective and efficient data stewardship programGain practical experience of establishing a data stewardship initiativeImplement purposeful governance with measurable ROIPrioritize data use cases with the value and effort matrixWho this book is forThis book is for professionals working in the field of data management, including business analysts, data scientists, and data engineers looking to gain a deeper understanding of the data steward role. Senior executives who want to (re)establish the data governance body in their organizations will find this resource invaluable. While accessible to both beginners and professionals, basic knowledge of data management concepts, such as data modeling, data warehousing, and data quality, is a must to get started.</t>
+  </si>
+  <si>
+    <t>Data Stewardship in Action: A roadmap to data value realization and measurable business outcomes</t>
+  </si>
+  <si>
+    <t>9781837638123</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10460888</t>
+  </si>
+  <si>
+    <t>10446397</t>
+  </si>
+  <si>
+    <t>Baldassini, Folco Bertini and Nguyen, Huy H. and Chang, Ching-Chung and Echizen, Isao</t>
+  </si>
+  <si>
+    <t>Cross-Attention watermarking of Large Language Models</t>
+  </si>
+  <si>
+    <t>4625-4629</t>
+  </si>
+  <si>
+    <t>A new approach to linguistic watermarking of language models is presented in which information is imperceptibly inserted into the output text while preserving its readability and original meaning. A cross-attention mechanism is used to embed watermarks in the text during inference. Two methods using cross-attention are presented that minimize the effect of watermarking on the performance of a pretrained model. Exploration of different training strategies for optimizing the watermarking and of the challenges and implications of applying this approach in real-world scenarios clarified the tradeoff between watermark robustness and text quality. Watermark selection substantially affects the generated output for high entropy sentences. This proactive watermarking approach has potential application in future model development.</t>
+  </si>
+  <si>
+    <t>Training;Shape;Watermarking;Linguistics;Signal processing;Robustness;Vectors;Large Language Models;Linguistic Watermarking;Cross Attention;Steganography</t>
+  </si>
+  <si>
+    <t>10.1109/ICASSP48485.2024.10446397</t>
+  </si>
+  <si>
+    <t>ICASSP 2024 - 2024 IEEE International Conference on Acoustics, Speech and Signal Processing (ICASSP)</t>
+  </si>
+  <si>
+    <t>9369420</t>
+  </si>
+  <si>
+    <t>Samek, Wojciech and Montavon, Grégoire and Lapuschkin, Sebastian and Anders, Christopher J. and Müller, Klaus-Robert</t>
+  </si>
+  <si>
+    <t>Explaining Deep Neural Networks and Beyond: A Review of Methods and Applications</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>247-278</t>
+  </si>
+  <si>
+    <t>With the broader and highly successful usage of machine learning (ML) in industry and the sciences, there has been a growing demand for explainable artificial intelligence (XAI). Interpretability and explanation methods for gaining a better understanding of the problem-solving abilities and strategies of nonlinear ML, in particular, deep neural networks, are, therefore, receiving increased attention. In this work, we aim to: 1) provide a timely overview of this active emerging field, with a focus on “post hoc” explanations, and explain its theoretical foundations; 2) put interpretability algorithms to a test both from a theory and comparative evaluation perspective using extensive simulations; 3) outline best practice aspects, i.e., how to best include interpretation methods into the standard usage of ML; and 4) demonstrate successful usage of XAI in a representative selection of application scenarios. Finally, we discuss challenges and possible future directions of this exciting foundational field of ML.</t>
+  </si>
+  <si>
+    <t>Deep learning;Systematics;Neural networks;Artificial intelligence;Machine learning;Unsupervised learning;Problem-solving;Best practices;Black-box models;deep learning;explainable artificial intelligence (XAI);Interpretability;model transparency;neural networks</t>
+  </si>
+  <si>
+    <t>10.1109/JPROC.2021.3060483</t>
+  </si>
+  <si>
+    <t>9336290</t>
+  </si>
+  <si>
+    <t>Niu, Shuteng and Liu, Yongxin and Wang, Jian and Song, Houbing</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>A Decade Survey of Transfer Learning (2010–2020)</t>
+  </si>
+  <si>
+    <t>151-166</t>
+  </si>
+  <si>
+    <t>Transfer learning (TL) has been successfully applied to many real-world problems that traditional machine learning (ML) cannot handle, such as image processing, speech recognition, and natural language processing (NLP). Commonly, TL tends to address three main problems of traditional machine learning: (1) insufficient labeled data, (2) incompatible computation power, and (3) distribution mismatch. In general, TL can be organized into four categories: transductive learning, inductive learning, unsupervised learning, and negative learning. Furthermore, each category can be organized into four learning types: learning on instances, learning on features, learning on parameters, and learning on relations. This article presents a comprehensive survey on TL. In addition, this article presents the state of the art, current trends, applications, and open challenges.</t>
+  </si>
+  <si>
+    <t>Task analysis;Training;Artificial intelligence;Market research;Deep learning;Adaptation models;Training data;Transfer learning;machine learning;domain adaptation;distant domain transfer;cross-modality transfer learning</t>
+  </si>
+  <si>
+    <t>10.1109/TAI.2021.3054609</t>
+  </si>
+  <si>
+    <t>2691-4581</t>
+  </si>
+  <si>
+    <t>9336674</t>
+  </si>
+  <si>
+    <t>Masone, Carlo and Caputo, Barbara</t>
+  </si>
+  <si>
+    <t>A Survey on Deep Visual Place Recognition</t>
+  </si>
+  <si>
+    <t>19516-19547</t>
+  </si>
+  <si>
+    <t>In recent years visual place recognition (VPR), i.e., the problem of recognizing the location of images, has received considerable attention from multiple research communities, spanning from computer vision to robotics and even machine learning. This interest is fueled on one hand by the relevance that visual place recognition holds for many applications and on the other hand by the unsolved challenge of making these methods perform reliably in different conditions and environments. This paper presents a survey of the state-of-the-art of research on visual place recognition, focusing on how it has been shaped by the recent advances in deep learning. We start discussing the image representations used in this task and how they have evolved from using hand-crafted to deep-learned features. We further review how metric learning techniques are used to get more discriminative representations, as well as techniques for dealing with occlusions, distractors, and shifts in the visual domain of the images. The survey also provides an overview of the specific solutions that have been proposed for applications in robotics and with aerial imagery. Finally the survey provides a summary of datasets that are used in visual place recognition, highlighting their different characteristics.</t>
+  </si>
+  <si>
+    <t>Visualization;Task analysis;Robots;Image recognition;Databases;Deep learning;Image retrieval;Visual place recognition;image representation learning;deep learning</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2021.3054937</t>
+  </si>
+  <si>
+    <t>9468875</t>
+  </si>
+  <si>
+    <t>Feng, Ruitao and Shen, Huanfeng and Bai, Jianjun and Li, Xinghua</t>
+  </si>
+  <si>
+    <t>IEEE Geoscience and Remote Sensing Magazine</t>
+  </si>
+  <si>
+    <t>Advances and Opportunities in Remote Sensing Image Geometric Registration: A systematic review of state-of-the-art approaches and future research directions</t>
+  </si>
+  <si>
+    <t>120-142</t>
+  </si>
+  <si>
+    <t>Geometric registration is often an accuracy assurance for most remote sensing image processing and analysis, such as image mosaicking, image fusion, and time-series analysis. In recent decades, geometric registration has attracted considerable attention in the remote sensing community, leading to a large amount of research on the subject. However, few studies have systematically reviewed its current status and deeply investigated its development trends. Moreover, new approaches are constantly emerging, and some issues still need to be solved. Thus, this article presents a survey of state-of-the-art approaches for remote sensing image registration in terms of intensity-based, feature-based, and combination techniques. Optical flow estimation and deep learning-based methods are summarized, and software-operated registration and registration evaluation are introduced. Building on recent advances, promising opportunities are explored.</t>
+  </si>
+  <si>
+    <t>Remote sensing;Image registration;Feature extraction;Optical flow;Measurement;Learning systems;Time series analysis;Market research;Image fusion</t>
+  </si>
+  <si>
+    <t>10.1109/MGRS.2021.3081763</t>
+  </si>
+  <si>
+    <t>2168-6831</t>
+  </si>
+  <si>
+    <t>9112322</t>
+  </si>
+  <si>
+    <t>Wang, Shuo and Nepal, Surya and Rudolph, Carsten and Grobler, Marthie and Chen, Shangyu and Chen, Tianle</t>
+  </si>
+  <si>
+    <t>Backdoor Attacks Against Transfer Learning With Pre-Trained Deep Learning Models</t>
+  </si>
+  <si>
+    <t>1526-1539</t>
+  </si>
+  <si>
+    <t>Transfer learning provides an effective solution for feasibly and fast customize accurate Student models, by transferring the learned knowledge of pre-trained Teacher models over large datasets via fine-tuning. Many pre-trained Teacher models used in transfer learning are publicly available and maintained by public platforms, increasing their vulnerability to backdoor attacks. In this article, we demonstrate a backdoor threat to transfer learning tasks on both image and time-series data leveraging the knowledge of publicly accessible Teacher models, aimed at defeating three commonly adopted defenses: pruning-based, retraining-based and input pre-processing-based defenses. Specifically, ($\mathcal A$A) ranking-based selection mechanism to speed up the backdoor trigger generation and perturbation process while defeating pruning-based and/or retraining-based defenses. ($\mathcal B$B) autoencoder-powered trigger generation is proposed to produce a robust trigger that can defeat the input pre-processing-based defense, while guaranteeing that selected neuron(s) can be significantly activated. ($\mathcal C$C) defense-aware retraining to generate the manipulated model using reverse-engineered model inputs. We launch effective misclassification attacks on Student models over real-world images, brain Magnetic Resonance Imaging (MRI) data and Electrocardiography (ECG) learning systems. The experiments reveal that our enhanced attack can maintain the 98.4 and 97.2 percent classification accuracy as the genuine model on clean image and time series inputs while improving $27.9\%-100\%$27.9%-100% and $27.1\%-56.1\%$27.1%-56.1% attack success rate on trojaned image and time series inputs respectively in the presence of pruning-based and/or retraining-based defenses.</t>
+  </si>
+  <si>
+    <t>Biological system modeling;Task analysis;Learning systems;Training;Data models;Electrocardiography;Web service;deep neural network;backdoor attack;transfer learning;pre-trained model</t>
+  </si>
+  <si>
+    <t>10.1109/TSC.2020.3000900</t>
+  </si>
+  <si>
+    <t>9585532</t>
+  </si>
+  <si>
+    <t>Li, Rui and Yuan, Xin and Radfar, Mohsen and Marendy, Peter and Ni, Wei and O’Brien, Terrence J. and Casillas-Espinosa, Pablo M.</t>
+  </si>
+  <si>
+    <t>IEEE Reviews in Biomedical Engineering</t>
+  </si>
+  <si>
+    <t>Graph Signal Processing, Graph Neural Network and Graph Learning on Biological Data: A Systematic Review</t>
+  </si>
+  <si>
+    <t>109-135</t>
+  </si>
+  <si>
+    <t>Graph networks can model data observed across different levels of biological systems that span from population graphs (with patients as network nodes) to molecular graphs that involve omics data. Graph-based approaches have shed light on decoding biological processes modulated by complex interactions. This paper systematically reviews graph-based analysis methods of Graph Signal Processing (GSP), Graph Neural Networks (GNNs) and graph topology inference, and their applications to biological data. This work focuses on the algorithms of graph-based approaches and the constructions of graph-based frameworks that are adapted to a broad range of biological data. We cover the Graph Fourier Transform and the graph filter developed in GSP, which provides tools to investigate biological signals in the graph domain that can potentially benefit from the underlying graph structures. We also review the node, graph, and interaction oriented applications of GNNs with inductive and transductive learning manners for various biological targets. As a key component of graph analysis, we provide a review of graph topology inference methods that incorporate assumptions for specific biological objectives. Finally, we discuss the biological application of graph analysis methods within this exhaustive literature collection, potentially providing insights for future research in biological sciences.</t>
+  </si>
+  <si>
+    <t>Biology;Laplace equations;Signal processing;Matrix decomposition;Topology;Network topology;Fourier transforms;Graph signal processing;graph neural network;graph convolutional network;graph learning;biological data</t>
+  </si>
+  <si>
+    <t>10.1109/RBME.2021.3122522</t>
+  </si>
+  <si>
+    <t>1941-1189</t>
+  </si>
+  <si>
+    <t>9703336</t>
+  </si>
+  <si>
+    <t>Kang, Junhyung and Tariq, Shahroz and Oh, Han and Woo, Simon S.</t>
+  </si>
+  <si>
+    <t>A Survey of Deep Learning-Based Object Detection Methods and Datasets for Overhead Imagery</t>
+  </si>
+  <si>
+    <t>20118-20134</t>
+  </si>
+  <si>
+    <t>Significant advancements and progress made in recent computer vision research enable more effective processing of various objects in high-resolution overhead imagery obtained by various sources from drones, airplanes, and satellites. In particular, overhead images combined with computer vision allow many real-world uses for economic, commercial, and humanitarian purposes, including assessing economic impact from access crop yields, financial supply chain prediction for company’s revenue management, and rapid disaster surveillance system (wildfire alarms, rising sea levels, weather forecast). Likewise, object detection in overhead images provides insight for use in many real-world applications yet is still challenging because of substantial image volumes, inconsistent image resolution, small-sized objects, highly complex backgrounds, and nonuniform object classes. Although extensive studies in deep learning-based object detection have achieved remarkable performance and success, they are still ineffective yielding a low detection performance, due to the underlying difficulties in overhead images. Thus, high-performing object detection in overhead images is an active research field to overcome such difficulties. This survey paper provides a comprehensive overview and comparative reviews on the most up-to-date deep learning-based object detection in overhead images. Especially, our work can shed light on capturing the most recent advancements of object detection methods in overhead images and the introduction of overhead datasets that have not been comprehensively surveyed before.</t>
+  </si>
+  <si>
+    <t>Object detection;Head;Detectors;Transformers;Satellites;Feature extraction;Remote sensing;Object detection;satellites;synthetic aperture radar;unmanned aerial vehicles</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2022.3149052</t>
+  </si>
+  <si>
+    <t>10400910</t>
+  </si>
+  <si>
+    <t>Tossell, Chad C. and Tenhundfeld, Nathan L. and Momen, Ali and Cooley, Katrina and de Visser, Ewart J.</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Learning Technologies</t>
+  </si>
+  <si>
+    <t>Student Perceptions of ChatGPT Use in a College Essay Assignment: Implications for Learning, Grading, and Trust in Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>1069-1081</t>
+  </si>
+  <si>
+    <t>This article examined student experiences before and after an essay writing assignment that required the use of ChatGPT within an undergraduate engineering course. Utilizing a pre–post study design, we gathered data from 24 participants to evaluate ChatGPT's support for both completing and grading an essay assignment, exploring its educational value and impact on the learning process. Our quantitative and thematic analyses uncovered that ChatGPT did not simplify the writing process. Instead, the tool transformed the student learning experience yielding mixed responses. Participants reported finding ChatGPT valuable for learning, and their comfort with its ethical and benevolent aspects increased postuse. Concerns with ChatGPT included poor accuracy and limited feedback on the confidence of its output. Students preferred instructors to use ChatGPT to help grade their assignments, with appropriate oversight. They did not trust ChatGPT to grade by itself. Student views of ChatGPT evolved from a perceived “cheating tool” to a collaborative resource that requires human oversight and calibrated trust. Implications for writing, education, and trust in artificial intelligence are discussed.</t>
+  </si>
+  <si>
+    <t>Chatbots;Writing;Education;Artificial intelligence;Human factors;Ethics;Task analysis;Artificial intelligence (AI);ChatGPT;education;student perceptions;writing</t>
+  </si>
+  <si>
+    <t>10.1109/TLT.2024.3355015</t>
+  </si>
+  <si>
+    <t>1939-1382</t>
+  </si>
+  <si>
+    <t>8523662</t>
+  </si>
+  <si>
+    <t>Wu, Yiming and Li, Wei</t>
+  </si>
+  <si>
+    <t>IEEE/ACM Transactions on Audio, Speech, and Language Processing</t>
+  </si>
+  <si>
+    <t>Automatic Audio Chord Recognition With MIDI-Trained Deep Feature and BLSTM-CRF Sequence Decoding Model</t>
+  </si>
+  <si>
+    <t>355-366</t>
+  </si>
+  <si>
+    <t>With the advances of machine learning technologies, data-driven feature extraction and sequence modeling approaches are being widely explored for automatic chord recognition tasks. Currently, there is a bottleneck in the amount of enough annotated data for training robust acoustic models, as hand-annotating time-synchronized chord labels requires professional musical skills and considerable labor. To cope with this limitation, in this paper, we propose a convolutional neural network (CNN) based deep feature extractor, which is trained on a large set of time, synchronized musical instrument digital interface audio data pairs and can robustly estimate pitch class activations of real-world music audio recordings. The CNN feature extractor plus a bidirectional long short-term memory conditional random field decoding model forms the proposed hybrid system for automatic chord recognition. Experiments show that the proposed model is compatible for both regular major/minor triad chord classification and larger vocabulary chord recognition, and outperforms other state-of-the-art chord recognition systems.</t>
+  </si>
+  <si>
+    <t>Feature extraction;Hidden Markov models;Music;Decoding;Training;Harmonic analysis;Automatic chord recognition;bidirectional long short-term memory (BLSTM);conditional random fields (CRF)</t>
+  </si>
+  <si>
+    <t>10.1109/TASLP.2018.2879399</t>
+  </si>
+  <si>
+    <t>2329-9304</t>
+  </si>
+  <si>
+    <t>8999075</t>
+  </si>
+  <si>
+    <t>Lakshminarayana, Deepthi Hassan and Philips, James and Tabrizi, Nasseh</t>
+  </si>
+  <si>
+    <t>A Survey of Intrusion Detection Techniques</t>
+  </si>
+  <si>
+    <t>1122-1129</t>
+  </si>
+  <si>
+    <t>With the growing rate of cyber attacks, there is a significant need for intrusion detection systems (IDS) in networked environments. As intrusion tactics become more sophisticated and more challenging to detect, this necessitates improved intrusion detection technology to retain user trust and preserve network security. Over the last decade, several detection methodologies have been designed to provide users with reliability, privacy, and information security. This paper reviews three intrusion detection techniques: blockchain technologies, machine learning, and deep learning. This survey overviews various machine learning and deep learning algorithms, summarizes blockchain technology, and discusses different blockchain methods used for intrusion detection and cybersecurity. We provide insight into their applications, drawbacks, and challenges.</t>
+  </si>
+  <si>
+    <t>Intrusion detection;Machine learning;Machine learning algorithms;Contracts;Intrusion detection, cyber security, collaborative system, blockchain, machine learning, deep learning, decentralized network, algorithm, smart contracts, security</t>
+  </si>
+  <si>
+    <t>10.1109/ICMLA.2019.00187</t>
+  </si>
+  <si>
+    <t>2019 18th IEEE International Conference On Machine Learning And Applications (ICMLA)</t>
+  </si>
+  <si>
+    <t>10377228</t>
+  </si>
+  <si>
+    <t>Ranasinghe, Kanchana and McKinzie, Brandon and Ravi, Sachin and Yang, Yinfei and Toshev, Alexander and Shlens, Jonathon</t>
+  </si>
+  <si>
+    <t>Perceptual Grouping in Contrastive Vision-Language Models</t>
+  </si>
+  <si>
+    <t>5548-5561</t>
+  </si>
+  <si>
+    <t>Recent advances in zero-shot image recognition suggest that vision-language models learn generic visual representations with a high degree of semantic information that may be arbitrarily probed with natural language phrases. Understanding an image, however, is not just about understanding what content resides within an image, but importantly, where that content resides. In this work we examine how well vision-language models are able to understand where objects reside within an image and group together visually related parts of the imagery. We demonstrate how contemporary vision and language representation learning models based on contrastive losses and large web-based data capture limited object localization information. We propose a minimal set of modifications that results in models that uniquely learn both semantic and spatial information. We measure this performance in terms of zero-shot image recognition, unsupervised bottom-up and top-down semantic segmentations, as well as robustness analyses. We find that the resulting model achieves state-of-the-art results in terms of unsupervised segmentation, and demonstrate that the learned representations are uniquely robust to spurious correlations in datasets designed to probe the causal behavior of vision models.</t>
+  </si>
+  <si>
+    <t>Representation learning;Location awareness;Visualization;Image recognition;Computational modeling;Semantic segmentation;Semantics</t>
+  </si>
+  <si>
+    <t>10.1109/ICCV51070.2023.00513</t>
+  </si>
+  <si>
+    <t>2380-7504</t>
+  </si>
+  <si>
+    <t>2023 IEEE/CVF International Conference on Computer Vision (ICCV)</t>
+  </si>
+  <si>
+    <t>9022573</t>
+  </si>
+  <si>
+    <t>Ghosal, Koustav and Rana, Aakanksha and Smolic, Aljosa</t>
+  </si>
+  <si>
+    <t>Aesthetic Image Captioning From Weakly-Labelled Photographs</t>
+  </si>
+  <si>
+    <t>4550-4560</t>
+  </si>
+  <si>
+    <t>Aesthetic image captioning (AIC) refers to the multi-modal task of generating critical textual feedbacks for photographs. While in natural image captioning (NIC), deep models are trained in an end-to-end manner using large curated datasets such as MS-COCO, no such large-scale, clean dataset exists for AIC. Towards this goal, we propose an automatic cleaning strategy to create a benchmarking AIC dataset, by exploiting the images and noisy comments easily available from photography websites. We propose a probabilistic caption-filtering method for cleaning the noisy web-data, and compile a large-scale, clean dataset 'AVA-Captions', (~ 230, 000 images with ~ 5 captions per image). Additionally, by exploiting the latent associations between aesthetic attributes, we propose a strategy for training the convolutional neural network (CNN) based visual feature extractor, the first component of the AIC framework. The strategy is weakly supervised and can be effectively used to learn rich aesthetic representations, without requiring expensive ground-truth annotations. We finally show-case a thorough analysis of the proposed contributions using automatic metrics and subjective evaluations.</t>
+  </si>
+  <si>
+    <t>Task analysis;Noise measurement;Image color analysis;Visualization;Feature extraction;Standards;Training;Image Aesthetics;Captioning;Weakly Supervised Learning;Noisy Data</t>
+  </si>
+  <si>
+    <t>10.1109/ICCVW.2019.00556</t>
+  </si>
+  <si>
+    <t>2473-9944</t>
+  </si>
+  <si>
+    <t>2019 IEEE/CVF International Conference on Computer Vision Workshop (ICCVW)</t>
+  </si>
+  <si>
+    <t>8953189</t>
+  </si>
+  <si>
+    <t>Hertz, Amir and Fogel, Sharon and Hanocka, Rana and Giryes, Raja and Cohen-Or, Daniel</t>
+  </si>
+  <si>
+    <t>Blind Visual Motif Removal From a Single Image</t>
+  </si>
+  <si>
+    <t>6851-6860</t>
+  </si>
+  <si>
+    <t>Many images shared over the web include overlaid objects, or visual motifs, such as text, symbols or drawings, which add a description or decoration to the image. For example, decorative text that specifies where the image was taken, repeatedly appears across a variety of different images. Often, the reoccurring visual motif, is semantically similar, yet, differs in location, style and content (e.g. text placement, font and letters). This work proposes a deep learning based technique for blind removal of such objects. In the blind setting, the location and exact geometry of the motif are unknown. Our approach simultaneously estimates which pixels contain the visual motif, and synthesizes the underlying latent image. It is applied to a single input image, without any user assistance in specifying the location of the motif, achieving state-of-the-art results for blind removal of both opaque and semi-transparent visual motifs.</t>
+  </si>
+  <si>
+    <t>Vision + Graphics;Deep Learning</t>
+  </si>
+  <si>
+    <t>10.1109/CVPR.2019.00702</t>
+  </si>
+  <si>
+    <t>2575-7075</t>
+  </si>
+  <si>
+    <t>2019 IEEE/CVF Conference on Computer Vision and Pattern Recognition (CVPR)</t>
   </si>
 </sst>
 </file>
@@ -448,7 +3112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +3126,3836 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>114</v>
+      </c>
+      <c r="R10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>132</v>
+      </c>
+      <c r="P12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>134</v>
+      </c>
+      <c r="R12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16" t="s">
+        <v>166</v>
+      </c>
+      <c r="P16" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>167</v>
+      </c>
+      <c r="R16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17" t="s">
+        <v>172</v>
+      </c>
+      <c r="P17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>174</v>
+      </c>
+      <c r="R17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+      <c r="O18" t="s">
+        <v>180</v>
+      </c>
+      <c r="P18" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>182</v>
+      </c>
+      <c r="R18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
+      <c r="O19" t="s">
+        <v>187</v>
+      </c>
+      <c r="P19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>188</v>
+      </c>
+      <c r="R19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" t="s">
+        <v>200</v>
+      </c>
+      <c r="N20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="s">
+        <v>207</v>
+      </c>
+      <c r="N21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>214</v>
+      </c>
+      <c r="H22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" t="s">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s">
+        <v>218</v>
+      </c>
+      <c r="M22" t="s">
+        <v>219</v>
+      </c>
+      <c r="N22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>231</v>
+      </c>
+      <c r="H24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" t="s">
+        <v>232</v>
+      </c>
+      <c r="J24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K24" t="s">
+        <v>234</v>
+      </c>
+      <c r="L24" t="s">
+        <v>235</v>
+      </c>
+      <c r="M24" t="s">
+        <v>236</v>
+      </c>
+      <c r="N24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" t="s">
+        <v>240</v>
+      </c>
+      <c r="E25" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s">
+        <v>242</v>
+      </c>
+      <c r="I25" t="s">
+        <v>243</v>
+      </c>
+      <c r="J25" t="s">
+        <v>244</v>
+      </c>
+      <c r="K25" t="s">
+        <v>245</v>
+      </c>
+      <c r="L25" t="s">
+        <v>246</v>
+      </c>
+      <c r="M25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D26" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" t="s">
+        <v>252</v>
+      </c>
+      <c r="H26" t="s">
+        <v>253</v>
+      </c>
+      <c r="I26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" t="s">
+        <v>256</v>
+      </c>
+      <c r="L26" t="s">
+        <v>257</v>
+      </c>
+      <c r="M26" t="s">
+        <v>258</v>
+      </c>
+      <c r="N26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>260</v>
+      </c>
+      <c r="E27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" t="s">
+        <v>262</v>
+      </c>
+      <c r="J27" t="s">
+        <v>263</v>
+      </c>
+      <c r="K27" t="s">
+        <v>264</v>
+      </c>
+      <c r="L27" t="s">
+        <v>265</v>
+      </c>
+      <c r="M27" t="s">
+        <v>266</v>
+      </c>
+      <c r="N27" t="s">
+        <v>267</v>
+      </c>
+      <c r="O27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>270</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" t="s">
+        <v>271</v>
+      </c>
+      <c r="O28" t="s">
+        <v>272</v>
+      </c>
+      <c r="P28" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>273</v>
+      </c>
+      <c r="R28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>275</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>276</v>
+      </c>
+      <c r="E29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" t="s">
+        <v>278</v>
+      </c>
+      <c r="J29" t="s">
+        <v>279</v>
+      </c>
+      <c r="K29" t="s">
+        <v>280</v>
+      </c>
+      <c r="L29" t="s">
+        <v>281</v>
+      </c>
+      <c r="M29" t="s">
+        <v>282</v>
+      </c>
+      <c r="N29" t="s">
+        <v>237</v>
+      </c>
+      <c r="O29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>284</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>285</v>
+      </c>
+      <c r="E30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" t="s">
+        <v>287</v>
+      </c>
+      <c r="J30" t="s">
+        <v>288</v>
+      </c>
+      <c r="K30" t="s">
+        <v>289</v>
+      </c>
+      <c r="L30" t="s">
+        <v>290</v>
+      </c>
+      <c r="M30" t="s">
+        <v>291</v>
+      </c>
+      <c r="N30" t="s">
+        <v>237</v>
+      </c>
+      <c r="O30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>293</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>294</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" t="s">
+        <v>295</v>
+      </c>
+      <c r="O31" t="s">
+        <v>296</v>
+      </c>
+      <c r="P31" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>297</v>
+      </c>
+      <c r="R31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>299</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>301</v>
+      </c>
+      <c r="F32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" t="s">
+        <v>302</v>
+      </c>
+      <c r="I32" t="s">
+        <v>303</v>
+      </c>
+      <c r="J32" t="s">
+        <v>304</v>
+      </c>
+      <c r="K32" t="s">
+        <v>305</v>
+      </c>
+      <c r="L32" t="s">
+        <v>306</v>
+      </c>
+      <c r="M32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>307</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>308</v>
+      </c>
+      <c r="E33" t="s">
+        <v>309</v>
+      </c>
+      <c r="F33" t="s">
+        <v>213</v>
+      </c>
+      <c r="I33" t="s">
+        <v>310</v>
+      </c>
+      <c r="J33" t="s">
+        <v>311</v>
+      </c>
+      <c r="K33" t="s">
+        <v>312</v>
+      </c>
+      <c r="L33" t="s">
+        <v>313</v>
+      </c>
+      <c r="M33" t="s">
+        <v>314</v>
+      </c>
+      <c r="N33" t="s">
+        <v>315</v>
+      </c>
+      <c r="O33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>317</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>318</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>319</v>
+      </c>
+      <c r="F34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" t="s">
+        <v>320</v>
+      </c>
+      <c r="I34" t="s">
+        <v>321</v>
+      </c>
+      <c r="J34" t="s">
+        <v>322</v>
+      </c>
+      <c r="K34" t="s">
+        <v>323</v>
+      </c>
+      <c r="L34" t="s">
+        <v>324</v>
+      </c>
+      <c r="M34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>325</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>326</v>
+      </c>
+      <c r="E35" t="s">
+        <v>327</v>
+      </c>
+      <c r="F35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" t="s">
+        <v>328</v>
+      </c>
+      <c r="J35" t="s">
+        <v>329</v>
+      </c>
+      <c r="K35" t="s">
+        <v>330</v>
+      </c>
+      <c r="L35" t="s">
+        <v>331</v>
+      </c>
+      <c r="N35" t="s">
+        <v>237</v>
+      </c>
+      <c r="O35" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>333</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>334</v>
+      </c>
+      <c r="E36" t="s">
+        <v>335</v>
+      </c>
+      <c r="F36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" t="s">
+        <v>336</v>
+      </c>
+      <c r="J36" t="s">
+        <v>337</v>
+      </c>
+      <c r="K36" t="s">
+        <v>338</v>
+      </c>
+      <c r="L36" t="s">
+        <v>339</v>
+      </c>
+      <c r="O36" t="s">
+        <v>340</v>
+      </c>
+      <c r="P36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>341</v>
+      </c>
+      <c r="R36" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>343</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>344</v>
+      </c>
+      <c r="D37" t="s">
+        <v>345</v>
+      </c>
+      <c r="E37" t="s">
+        <v>346</v>
+      </c>
+      <c r="F37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" t="s">
+        <v>347</v>
+      </c>
+      <c r="H37" t="s">
+        <v>348</v>
+      </c>
+      <c r="I37" t="s">
+        <v>349</v>
+      </c>
+      <c r="J37" t="s">
+        <v>350</v>
+      </c>
+      <c r="K37" t="s">
+        <v>351</v>
+      </c>
+      <c r="L37" t="s">
+        <v>352</v>
+      </c>
+      <c r="M37" t="s">
+        <v>353</v>
+      </c>
+      <c r="N37" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>355</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>356</v>
+      </c>
+      <c r="D38" t="s">
+        <v>357</v>
+      </c>
+      <c r="E38" t="s">
+        <v>358</v>
+      </c>
+      <c r="F38" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" t="s">
+        <v>359</v>
+      </c>
+      <c r="J38" t="s">
+        <v>360</v>
+      </c>
+      <c r="K38" t="s">
+        <v>361</v>
+      </c>
+      <c r="L38" t="s">
+        <v>362</v>
+      </c>
+      <c r="M38" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>364</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>365</v>
+      </c>
+      <c r="E39" t="s">
+        <v>366</v>
+      </c>
+      <c r="F39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" t="s">
+        <v>367</v>
+      </c>
+      <c r="J39" t="s">
+        <v>368</v>
+      </c>
+      <c r="K39" t="s">
+        <v>369</v>
+      </c>
+      <c r="L39" t="s">
+        <v>370</v>
+      </c>
+      <c r="N39" t="s">
+        <v>93</v>
+      </c>
+      <c r="O39" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>372</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>373</v>
+      </c>
+      <c r="E40" t="s">
+        <v>374</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>375</v>
+      </c>
+      <c r="J40" t="s">
+        <v>376</v>
+      </c>
+      <c r="K40" t="s">
+        <v>377</v>
+      </c>
+      <c r="L40" t="s">
+        <v>378</v>
+      </c>
+      <c r="O40" t="s">
+        <v>379</v>
+      </c>
+      <c r="P40" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>381</v>
+      </c>
+      <c r="R40" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>383</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
+        <v>384</v>
+      </c>
+      <c r="F41" t="s">
+        <v>97</v>
+      </c>
+      <c r="J41" t="s">
+        <v>385</v>
+      </c>
+      <c r="O41" t="s">
+        <v>386</v>
+      </c>
+      <c r="P41" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>387</v>
+      </c>
+      <c r="R41" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>389</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>390</v>
+      </c>
+      <c r="D42" t="s">
+        <v>391</v>
+      </c>
+      <c r="E42" t="s">
+        <v>392</v>
+      </c>
+      <c r="F42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" t="s">
+        <v>393</v>
+      </c>
+      <c r="H42" t="s">
+        <v>394</v>
+      </c>
+      <c r="I42" t="s">
+        <v>395</v>
+      </c>
+      <c r="J42" t="s">
+        <v>396</v>
+      </c>
+      <c r="K42" t="s">
+        <v>397</v>
+      </c>
+      <c r="L42" t="s">
+        <v>398</v>
+      </c>
+      <c r="M42" t="s">
+        <v>399</v>
+      </c>
+      <c r="N42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>400</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
+        <v>401</v>
+      </c>
+      <c r="E43" t="s">
+        <v>402</v>
+      </c>
+      <c r="F43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" t="s">
+        <v>403</v>
+      </c>
+      <c r="J43" t="s">
+        <v>404</v>
+      </c>
+      <c r="O43" t="s">
+        <v>405</v>
+      </c>
+      <c r="P43" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>406</v>
+      </c>
+      <c r="R43" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>408</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>409</v>
+      </c>
+      <c r="D44" t="s">
+        <v>410</v>
+      </c>
+      <c r="E44" t="s">
+        <v>411</v>
+      </c>
+      <c r="F44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" t="s">
+        <v>412</v>
+      </c>
+      <c r="H44" t="s">
+        <v>348</v>
+      </c>
+      <c r="I44" t="s">
+        <v>413</v>
+      </c>
+      <c r="J44" t="s">
+        <v>414</v>
+      </c>
+      <c r="K44" t="s">
+        <v>415</v>
+      </c>
+      <c r="L44" t="s">
+        <v>416</v>
+      </c>
+      <c r="M44" t="s">
+        <v>417</v>
+      </c>
+      <c r="N44" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>419</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>420</v>
+      </c>
+      <c r="D45" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" t="s">
+        <v>421</v>
+      </c>
+      <c r="F45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" t="s">
+        <v>422</v>
+      </c>
+      <c r="H45" t="s">
+        <v>348</v>
+      </c>
+      <c r="I45" t="s">
+        <v>423</v>
+      </c>
+      <c r="J45" t="s">
+        <v>424</v>
+      </c>
+      <c r="K45" t="s">
+        <v>425</v>
+      </c>
+      <c r="L45" t="s">
+        <v>426</v>
+      </c>
+      <c r="M45" t="s">
+        <v>151</v>
+      </c>
+      <c r="N45" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>428</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>429</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>430</v>
+      </c>
+      <c r="F46" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" t="s">
+        <v>431</v>
+      </c>
+      <c r="I46" t="s">
+        <v>432</v>
+      </c>
+      <c r="J46" t="s">
+        <v>433</v>
+      </c>
+      <c r="K46" t="s">
+        <v>434</v>
+      </c>
+      <c r="L46" t="s">
+        <v>435</v>
+      </c>
+      <c r="M46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>436</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>437</v>
+      </c>
+      <c r="D47" t="s">
+        <v>438</v>
+      </c>
+      <c r="E47" t="s">
+        <v>439</v>
+      </c>
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" t="s">
+        <v>440</v>
+      </c>
+      <c r="I47" t="s">
+        <v>441</v>
+      </c>
+      <c r="J47" t="s">
+        <v>442</v>
+      </c>
+      <c r="K47" t="s">
+        <v>443</v>
+      </c>
+      <c r="L47" t="s">
+        <v>444</v>
+      </c>
+      <c r="M47" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>446</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>447</v>
+      </c>
+      <c r="D48" t="s">
+        <v>448</v>
+      </c>
+      <c r="E48" t="s">
+        <v>449</v>
+      </c>
+      <c r="F48" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" t="s">
+        <v>450</v>
+      </c>
+      <c r="I48" t="s">
+        <v>451</v>
+      </c>
+      <c r="J48" t="s">
+        <v>452</v>
+      </c>
+      <c r="K48" t="s">
+        <v>453</v>
+      </c>
+      <c r="L48" t="s">
+        <v>454</v>
+      </c>
+      <c r="M48" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>456</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
+        <v>457</v>
+      </c>
+      <c r="E49" t="s">
+        <v>458</v>
+      </c>
+      <c r="F49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" t="s">
+        <v>459</v>
+      </c>
+      <c r="J49" t="s">
+        <v>460</v>
+      </c>
+      <c r="K49" t="s">
+        <v>461</v>
+      </c>
+      <c r="L49" t="s">
+        <v>462</v>
+      </c>
+      <c r="M49" t="s">
+        <v>463</v>
+      </c>
+      <c r="N49" t="s">
+        <v>464</v>
+      </c>
+      <c r="O49" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>466</v>
+      </c>
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" t="s">
+        <v>467</v>
+      </c>
+      <c r="E50" t="s">
+        <v>468</v>
+      </c>
+      <c r="F50" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" t="s">
+        <v>278</v>
+      </c>
+      <c r="J50" t="s">
+        <v>469</v>
+      </c>
+      <c r="K50" t="s">
+        <v>470</v>
+      </c>
+      <c r="L50" t="s">
+        <v>471</v>
+      </c>
+      <c r="N50" t="s">
+        <v>267</v>
+      </c>
+      <c r="O50" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>473</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>474</v>
+      </c>
+      <c r="D51" t="s">
+        <v>475</v>
+      </c>
+      <c r="E51" t="s">
+        <v>476</v>
+      </c>
+      <c r="F51" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" t="s">
+        <v>477</v>
+      </c>
+      <c r="H51" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" t="s">
+        <v>478</v>
+      </c>
+      <c r="J51" t="s">
+        <v>479</v>
+      </c>
+      <c r="K51" t="s">
+        <v>480</v>
+      </c>
+      <c r="L51" t="s">
+        <v>481</v>
+      </c>
+      <c r="M51" t="s">
+        <v>482</v>
+      </c>
+      <c r="N51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>483</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>484</v>
+      </c>
+      <c r="D52" t="s">
+        <v>485</v>
+      </c>
+      <c r="E52" t="s">
+        <v>486</v>
+      </c>
+      <c r="F52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" t="s">
+        <v>487</v>
+      </c>
+      <c r="H52" t="s">
+        <v>394</v>
+      </c>
+      <c r="I52" t="s">
+        <v>488</v>
+      </c>
+      <c r="J52" t="s">
+        <v>489</v>
+      </c>
+      <c r="K52" t="s">
+        <v>490</v>
+      </c>
+      <c r="L52" t="s">
+        <v>491</v>
+      </c>
+      <c r="M52" t="s">
+        <v>492</v>
+      </c>
+      <c r="N52" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>494</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>495</v>
+      </c>
+      <c r="E53" t="s">
+        <v>496</v>
+      </c>
+      <c r="F53" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" t="s">
+        <v>497</v>
+      </c>
+      <c r="J53" t="s">
+        <v>498</v>
+      </c>
+      <c r="K53" t="s">
+        <v>499</v>
+      </c>
+      <c r="L53" t="s">
+        <v>500</v>
+      </c>
+      <c r="M53" t="s">
+        <v>501</v>
+      </c>
+      <c r="N53" t="s">
+        <v>315</v>
+      </c>
+      <c r="O53" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>503</v>
+      </c>
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" t="s">
+        <v>504</v>
+      </c>
+      <c r="F54" t="s">
+        <v>54</v>
+      </c>
+      <c r="J54" t="s">
+        <v>505</v>
+      </c>
+      <c r="O54" t="s">
+        <v>506</v>
+      </c>
+      <c r="P54" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>507</v>
+      </c>
+      <c r="R54" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>509</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
+        <v>510</v>
+      </c>
+      <c r="E55" t="s">
+        <v>511</v>
+      </c>
+      <c r="F55" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" t="s">
+        <v>512</v>
+      </c>
+      <c r="O55" t="s">
+        <v>513</v>
+      </c>
+      <c r="P55" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>514</v>
+      </c>
+      <c r="R55" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>516</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>517</v>
+      </c>
+      <c r="D56" t="s">
+        <v>518</v>
+      </c>
+      <c r="E56" t="s">
+        <v>519</v>
+      </c>
+      <c r="F56" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" t="s">
+        <v>477</v>
+      </c>
+      <c r="H56" t="s">
+        <v>348</v>
+      </c>
+      <c r="I56" t="s">
+        <v>520</v>
+      </c>
+      <c r="J56" t="s">
+        <v>521</v>
+      </c>
+      <c r="L56" t="s">
+        <v>522</v>
+      </c>
+      <c r="M56" t="s">
+        <v>523</v>
+      </c>
+      <c r="N56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>524</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>525</v>
+      </c>
+      <c r="E57" t="s">
+        <v>526</v>
+      </c>
+      <c r="F57" t="s">
+        <v>54</v>
+      </c>
+      <c r="I57" t="s">
+        <v>527</v>
+      </c>
+      <c r="J57" t="s">
+        <v>528</v>
+      </c>
+      <c r="K57" t="s">
+        <v>529</v>
+      </c>
+      <c r="L57" t="s">
+        <v>530</v>
+      </c>
+      <c r="M57" t="s">
+        <v>501</v>
+      </c>
+      <c r="N57" t="s">
+        <v>315</v>
+      </c>
+      <c r="O57" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>531</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>532</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" t="s">
+        <v>533</v>
+      </c>
+      <c r="F58" t="s">
+        <v>54</v>
+      </c>
+      <c r="G58" t="s">
+        <v>253</v>
+      </c>
+      <c r="I58" t="s">
+        <v>534</v>
+      </c>
+      <c r="J58" t="s">
+        <v>535</v>
+      </c>
+      <c r="K58" t="s">
+        <v>536</v>
+      </c>
+      <c r="L58" t="s">
+        <v>537</v>
+      </c>
+      <c r="M58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>538</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>539</v>
+      </c>
+      <c r="F59" t="s">
+        <v>54</v>
+      </c>
+      <c r="J59" t="s">
+        <v>540</v>
+      </c>
+      <c r="O59" t="s">
+        <v>541</v>
+      </c>
+      <c r="P59" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>542</v>
+      </c>
+      <c r="R59" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>544</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>545</v>
+      </c>
+      <c r="F60" t="s">
+        <v>76</v>
+      </c>
+      <c r="J60" t="s">
+        <v>546</v>
+      </c>
+      <c r="O60" t="s">
+        <v>547</v>
+      </c>
+      <c r="P60" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>548</v>
+      </c>
+      <c r="R60" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>550</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" t="s">
+        <v>551</v>
+      </c>
+      <c r="E61" t="s">
+        <v>552</v>
+      </c>
+      <c r="F61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" t="s">
+        <v>553</v>
+      </c>
+      <c r="J61" t="s">
+        <v>554</v>
+      </c>
+      <c r="K61" t="s">
+        <v>555</v>
+      </c>
+      <c r="N61" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>556</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>557</v>
+      </c>
+      <c r="D62" t="s">
+        <v>558</v>
+      </c>
+      <c r="E62" t="s">
+        <v>559</v>
+      </c>
+      <c r="F62" t="s">
+        <v>54</v>
+      </c>
+      <c r="G62" t="s">
+        <v>320</v>
+      </c>
+      <c r="H62" t="s">
+        <v>560</v>
+      </c>
+      <c r="I62" t="s">
+        <v>561</v>
+      </c>
+      <c r="J62" t="s">
+        <v>562</v>
+      </c>
+      <c r="K62" t="s">
+        <v>563</v>
+      </c>
+      <c r="L62" t="s">
+        <v>564</v>
+      </c>
+      <c r="M62" t="s">
+        <v>565</v>
+      </c>
+      <c r="N62" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>566</v>
+      </c>
+      <c r="B63" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" t="s">
+        <v>567</v>
+      </c>
+      <c r="F63" t="s">
+        <v>76</v>
+      </c>
+      <c r="I63" t="s">
+        <v>568</v>
+      </c>
+      <c r="J63" t="s">
+        <v>569</v>
+      </c>
+      <c r="K63" t="s">
+        <v>570</v>
+      </c>
+      <c r="L63" t="s">
+        <v>571</v>
+      </c>
+      <c r="N63" t="s">
+        <v>493</v>
+      </c>
+      <c r="O63" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>573</v>
+      </c>
+      <c r="B64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" t="s">
+        <v>574</v>
+      </c>
+      <c r="E64" t="s">
+        <v>575</v>
+      </c>
+      <c r="F64" t="s">
+        <v>109</v>
+      </c>
+      <c r="I64" t="s">
+        <v>576</v>
+      </c>
+      <c r="J64" t="s">
+        <v>577</v>
+      </c>
+      <c r="O64" t="s">
+        <v>578</v>
+      </c>
+      <c r="P64" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>579</v>
+      </c>
+      <c r="R64" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>581</v>
+      </c>
+      <c r="B65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" t="s">
+        <v>582</v>
+      </c>
+      <c r="E65" t="s">
+        <v>583</v>
+      </c>
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" t="s">
+        <v>584</v>
+      </c>
+      <c r="J65" t="s">
+        <v>585</v>
+      </c>
+      <c r="K65" t="s">
+        <v>586</v>
+      </c>
+      <c r="L65" t="s">
+        <v>587</v>
+      </c>
+      <c r="M65" t="s">
+        <v>588</v>
+      </c>
+      <c r="N65" t="s">
+        <v>62</v>
+      </c>
+      <c r="O65" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>590</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>591</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" t="s">
+        <v>592</v>
+      </c>
+      <c r="F66" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" t="s">
+        <v>320</v>
+      </c>
+      <c r="I66" t="s">
+        <v>593</v>
+      </c>
+      <c r="J66" t="s">
+        <v>594</v>
+      </c>
+      <c r="K66" t="s">
+        <v>595</v>
+      </c>
+      <c r="L66" t="s">
+        <v>596</v>
+      </c>
+      <c r="M66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>597</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>598</v>
+      </c>
+      <c r="D67" t="s">
+        <v>485</v>
+      </c>
+      <c r="E67" t="s">
+        <v>599</v>
+      </c>
+      <c r="F67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>242</v>
+      </c>
+      <c r="H67" t="s">
+        <v>348</v>
+      </c>
+      <c r="I67" t="s">
+        <v>600</v>
+      </c>
+      <c r="J67" t="s">
+        <v>601</v>
+      </c>
+      <c r="K67" t="s">
+        <v>602</v>
+      </c>
+      <c r="L67" t="s">
+        <v>603</v>
+      </c>
+      <c r="M67" t="s">
+        <v>492</v>
+      </c>
+      <c r="N67" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>604</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>605</v>
+      </c>
+      <c r="D68" t="s">
+        <v>606</v>
+      </c>
+      <c r="E68" t="s">
+        <v>607</v>
+      </c>
+      <c r="F68" t="s">
+        <v>54</v>
+      </c>
+      <c r="G68" t="s">
+        <v>440</v>
+      </c>
+      <c r="H68" t="s">
+        <v>348</v>
+      </c>
+      <c r="I68" t="s">
+        <v>608</v>
+      </c>
+      <c r="J68" t="s">
+        <v>609</v>
+      </c>
+      <c r="K68" t="s">
+        <v>610</v>
+      </c>
+      <c r="L68" t="s">
+        <v>611</v>
+      </c>
+      <c r="M68" t="s">
+        <v>612</v>
+      </c>
+      <c r="N68" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>613</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>614</v>
+      </c>
+      <c r="D69" t="s">
+        <v>615</v>
+      </c>
+      <c r="E69" t="s">
+        <v>616</v>
+      </c>
+      <c r="F69" t="s">
+        <v>76</v>
+      </c>
+      <c r="G69" t="s">
+        <v>487</v>
+      </c>
+      <c r="H69" t="s">
+        <v>348</v>
+      </c>
+      <c r="I69" t="s">
+        <v>617</v>
+      </c>
+      <c r="J69" t="s">
+        <v>618</v>
+      </c>
+      <c r="K69" t="s">
+        <v>619</v>
+      </c>
+      <c r="L69" t="s">
+        <v>620</v>
+      </c>
+      <c r="M69" t="s">
+        <v>621</v>
+      </c>
+      <c r="N69" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>622</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>623</v>
+      </c>
+      <c r="D70" t="s">
+        <v>485</v>
+      </c>
+      <c r="E70" t="s">
+        <v>624</v>
+      </c>
+      <c r="F70" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" t="s">
+        <v>487</v>
+      </c>
+      <c r="H70" t="s">
+        <v>87</v>
+      </c>
+      <c r="I70" t="s">
+        <v>625</v>
+      </c>
+      <c r="J70" t="s">
+        <v>626</v>
+      </c>
+      <c r="K70" t="s">
+        <v>627</v>
+      </c>
+      <c r="L70" t="s">
+        <v>628</v>
+      </c>
+      <c r="M70" t="s">
+        <v>492</v>
+      </c>
+      <c r="N70" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>629</v>
+      </c>
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" t="s">
+        <v>630</v>
+      </c>
+      <c r="E71" t="s">
+        <v>631</v>
+      </c>
+      <c r="F71" t="s">
+        <v>213</v>
+      </c>
+      <c r="I71" t="s">
+        <v>632</v>
+      </c>
+      <c r="J71" t="s">
+        <v>633</v>
+      </c>
+      <c r="K71" t="s">
+        <v>634</v>
+      </c>
+      <c r="L71" t="s">
+        <v>635</v>
+      </c>
+      <c r="N71" t="s">
+        <v>267</v>
+      </c>
+      <c r="O71" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>637</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>638</v>
+      </c>
+      <c r="D72" t="s">
+        <v>639</v>
+      </c>
+      <c r="E72" t="s">
+        <v>640</v>
+      </c>
+      <c r="F72" t="s">
+        <v>76</v>
+      </c>
+      <c r="G72" t="s">
+        <v>641</v>
+      </c>
+      <c r="H72" t="s">
+        <v>253</v>
+      </c>
+      <c r="I72" t="s">
+        <v>642</v>
+      </c>
+      <c r="J72" t="s">
+        <v>643</v>
+      </c>
+      <c r="K72" t="s">
+        <v>644</v>
+      </c>
+      <c r="L72" t="s">
+        <v>645</v>
+      </c>
+      <c r="M72" t="s">
+        <v>646</v>
+      </c>
+      <c r="N72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>647</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>648</v>
+      </c>
+      <c r="D73" t="s">
+        <v>649</v>
+      </c>
+      <c r="E73" t="s">
+        <v>650</v>
+      </c>
+      <c r="F73" t="s">
+        <v>54</v>
+      </c>
+      <c r="G73" t="s">
+        <v>651</v>
+      </c>
+      <c r="H73" t="s">
+        <v>67</v>
+      </c>
+      <c r="I73" t="s">
+        <v>652</v>
+      </c>
+      <c r="J73" t="s">
+        <v>653</v>
+      </c>
+      <c r="K73" t="s">
+        <v>654</v>
+      </c>
+      <c r="L73" t="s">
+        <v>655</v>
+      </c>
+      <c r="M73" t="s">
+        <v>656</v>
+      </c>
+      <c r="N73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>657</v>
+      </c>
+      <c r="B74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" t="s">
+        <v>658</v>
+      </c>
+      <c r="E74" t="s">
+        <v>659</v>
+      </c>
+      <c r="F74" t="s">
+        <v>76</v>
+      </c>
+      <c r="I74" t="s">
+        <v>660</v>
+      </c>
+      <c r="J74" t="s">
+        <v>661</v>
+      </c>
+      <c r="K74" t="s">
+        <v>662</v>
+      </c>
+      <c r="L74" t="s">
+        <v>663</v>
+      </c>
+      <c r="M74" t="s">
+        <v>664</v>
+      </c>
+      <c r="N74" t="s">
+        <v>48</v>
+      </c>
+      <c r="O74" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>666</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>667</v>
+      </c>
+      <c r="D75" t="s">
+        <v>558</v>
+      </c>
+      <c r="E75" t="s">
+        <v>668</v>
+      </c>
+      <c r="F75" t="s">
+        <v>54</v>
+      </c>
+      <c r="G75" t="s">
+        <v>320</v>
+      </c>
+      <c r="H75" t="s">
+        <v>394</v>
+      </c>
+      <c r="I75" t="s">
+        <v>669</v>
+      </c>
+      <c r="J75" t="s">
+        <v>670</v>
+      </c>
+      <c r="K75" t="s">
+        <v>671</v>
+      </c>
+      <c r="L75" t="s">
+        <v>672</v>
+      </c>
+      <c r="M75" t="s">
+        <v>565</v>
+      </c>
+      <c r="N75" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>673</v>
+      </c>
+      <c r="B76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" t="s">
+        <v>674</v>
+      </c>
+      <c r="E76" t="s">
+        <v>675</v>
+      </c>
+      <c r="F76" t="s">
+        <v>76</v>
+      </c>
+      <c r="I76" t="s">
+        <v>676</v>
+      </c>
+      <c r="J76" t="s">
+        <v>677</v>
+      </c>
+      <c r="K76" t="s">
+        <v>678</v>
+      </c>
+      <c r="L76" t="s">
+        <v>679</v>
+      </c>
+      <c r="O76" t="s">
+        <v>680</v>
+      </c>
+      <c r="P76" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>681</v>
+      </c>
+      <c r="R76" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>683</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>684</v>
+      </c>
+      <c r="D77" t="s">
+        <v>410</v>
+      </c>
+      <c r="E77" t="s">
+        <v>685</v>
+      </c>
+      <c r="F77" t="s">
+        <v>54</v>
+      </c>
+      <c r="G77" t="s">
+        <v>393</v>
+      </c>
+      <c r="H77" t="s">
+        <v>56</v>
+      </c>
+      <c r="I77" t="s">
+        <v>686</v>
+      </c>
+      <c r="J77" t="s">
+        <v>687</v>
+      </c>
+      <c r="K77" t="s">
+        <v>688</v>
+      </c>
+      <c r="L77" t="s">
+        <v>689</v>
+      </c>
+      <c r="M77" t="s">
+        <v>417</v>
+      </c>
+      <c r="N77" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>691</v>
+      </c>
+      <c r="B78" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" t="s">
+        <v>692</v>
+      </c>
+      <c r="E78" t="s">
+        <v>693</v>
+      </c>
+      <c r="F78" t="s">
+        <v>213</v>
+      </c>
+      <c r="I78" t="s">
+        <v>694</v>
+      </c>
+      <c r="J78" t="s">
+        <v>695</v>
+      </c>
+      <c r="K78" t="s">
+        <v>696</v>
+      </c>
+      <c r="O78" t="s">
+        <v>697</v>
+      </c>
+      <c r="P78" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>698</v>
+      </c>
+      <c r="R78" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>700</v>
+      </c>
+      <c r="B79" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" t="s">
+        <v>701</v>
+      </c>
+      <c r="F79" t="s">
+        <v>54</v>
+      </c>
+      <c r="J79" t="s">
+        <v>702</v>
+      </c>
+      <c r="K79" t="s">
+        <v>703</v>
+      </c>
+      <c r="O79" t="s">
+        <v>704</v>
+      </c>
+      <c r="P79" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>705</v>
+      </c>
+      <c r="R79" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>707</v>
+      </c>
+      <c r="B80" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" t="s">
+        <v>708</v>
+      </c>
+      <c r="E80" t="s">
+        <v>709</v>
+      </c>
+      <c r="F80" t="s">
+        <v>109</v>
+      </c>
+      <c r="I80" t="s">
+        <v>710</v>
+      </c>
+      <c r="J80" t="s">
+        <v>711</v>
+      </c>
+      <c r="O80" t="s">
+        <v>712</v>
+      </c>
+      <c r="P80" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>713</v>
+      </c>
+      <c r="R80" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>715</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>716</v>
+      </c>
+      <c r="D81" t="s">
+        <v>717</v>
+      </c>
+      <c r="E81" t="s">
+        <v>718</v>
+      </c>
+      <c r="F81" t="s">
+        <v>97</v>
+      </c>
+      <c r="I81" t="s">
+        <v>719</v>
+      </c>
+      <c r="J81" t="s">
+        <v>720</v>
+      </c>
+      <c r="K81" t="s">
+        <v>721</v>
+      </c>
+      <c r="L81" t="s">
+        <v>722</v>
+      </c>
+      <c r="M81" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>724</v>
+      </c>
+      <c r="B82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" t="s">
+        <v>725</v>
+      </c>
+      <c r="E82" t="s">
+        <v>726</v>
+      </c>
+      <c r="F82" t="s">
+        <v>109</v>
+      </c>
+      <c r="I82" t="s">
+        <v>727</v>
+      </c>
+      <c r="J82" t="s">
+        <v>728</v>
+      </c>
+      <c r="O82" t="s">
+        <v>729</v>
+      </c>
+      <c r="P82" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>730</v>
+      </c>
+      <c r="R82" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>732</v>
+      </c>
+      <c r="B83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" t="s">
+        <v>733</v>
+      </c>
+      <c r="F83" t="s">
+        <v>33</v>
+      </c>
+      <c r="J83" t="s">
+        <v>734</v>
+      </c>
+      <c r="K83" t="s">
+        <v>735</v>
+      </c>
+      <c r="O83" t="s">
+        <v>736</v>
+      </c>
+      <c r="P83" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>738</v>
+      </c>
+      <c r="R83" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>740</v>
+      </c>
+      <c r="B84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" t="s">
+        <v>741</v>
+      </c>
+      <c r="E84" t="s">
+        <v>742</v>
+      </c>
+      <c r="F84" t="s">
+        <v>54</v>
+      </c>
+      <c r="I84" t="s">
+        <v>743</v>
+      </c>
+      <c r="J84" t="s">
+        <v>744</v>
+      </c>
+      <c r="K84" t="s">
+        <v>745</v>
+      </c>
+      <c r="L84" t="s">
+        <v>746</v>
+      </c>
+      <c r="N84" t="s">
+        <v>48</v>
+      </c>
+      <c r="O84" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>748</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>749</v>
+      </c>
+      <c r="D85" t="s">
+        <v>750</v>
+      </c>
+      <c r="E85" t="s">
+        <v>751</v>
+      </c>
+      <c r="F85" t="s">
+        <v>54</v>
+      </c>
+      <c r="G85" t="s">
+        <v>752</v>
+      </c>
+      <c r="H85" t="s">
+        <v>87</v>
+      </c>
+      <c r="I85" t="s">
+        <v>753</v>
+      </c>
+      <c r="J85" t="s">
+        <v>754</v>
+      </c>
+      <c r="K85" t="s">
+        <v>755</v>
+      </c>
+      <c r="L85" t="s">
+        <v>756</v>
+      </c>
+      <c r="M85" t="s">
+        <v>757</v>
+      </c>
+      <c r="N85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>758</v>
+      </c>
+      <c r="B86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" t="s">
+        <v>759</v>
+      </c>
+      <c r="E86" t="s">
+        <v>760</v>
+      </c>
+      <c r="F86" t="s">
+        <v>54</v>
+      </c>
+      <c r="I86" t="s">
+        <v>761</v>
+      </c>
+      <c r="J86" t="s">
+        <v>762</v>
+      </c>
+      <c r="K86" t="s">
+        <v>763</v>
+      </c>
+      <c r="L86" t="s">
+        <v>764</v>
+      </c>
+      <c r="M86" t="s">
+        <v>765</v>
+      </c>
+      <c r="N86" t="s">
+        <v>354</v>
+      </c>
+      <c r="O86" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>767</v>
+      </c>
+      <c r="B87" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" t="s">
+        <v>768</v>
+      </c>
+      <c r="F87" t="s">
+        <v>54</v>
+      </c>
+      <c r="J87" t="s">
+        <v>769</v>
+      </c>
+      <c r="O87" t="s">
+        <v>770</v>
+      </c>
+      <c r="P87" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>771</v>
+      </c>
+      <c r="R87" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>773</v>
+      </c>
+      <c r="B88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" t="s">
+        <v>774</v>
+      </c>
+      <c r="E88" t="s">
+        <v>775</v>
+      </c>
+      <c r="F88" t="s">
+        <v>54</v>
+      </c>
+      <c r="I88" t="s">
+        <v>776</v>
+      </c>
+      <c r="J88" t="s">
+        <v>777</v>
+      </c>
+      <c r="K88" t="s">
+        <v>778</v>
+      </c>
+      <c r="L88" t="s">
+        <v>779</v>
+      </c>
+      <c r="M88" t="s">
+        <v>102</v>
+      </c>
+      <c r="N88" t="s">
+        <v>103</v>
+      </c>
+      <c r="O88" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>781</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" t="s">
+        <v>782</v>
+      </c>
+      <c r="D89" t="s">
+        <v>145</v>
+      </c>
+      <c r="E89" t="s">
+        <v>783</v>
+      </c>
+      <c r="F89" t="s">
+        <v>23</v>
+      </c>
+      <c r="G89" t="s">
+        <v>784</v>
+      </c>
+      <c r="H89" t="s">
+        <v>56</v>
+      </c>
+      <c r="I89" t="s">
+        <v>785</v>
+      </c>
+      <c r="J89" t="s">
+        <v>786</v>
+      </c>
+      <c r="K89" t="s">
+        <v>787</v>
+      </c>
+      <c r="L89" t="s">
+        <v>788</v>
+      </c>
+      <c r="M89" t="s">
+        <v>151</v>
+      </c>
+      <c r="N89" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>789</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" t="s">
+        <v>790</v>
+      </c>
+      <c r="D90" t="s">
+        <v>791</v>
+      </c>
+      <c r="E90" t="s">
+        <v>792</v>
+      </c>
+      <c r="F90" t="s">
+        <v>43</v>
+      </c>
+      <c r="G90" t="s">
+        <v>348</v>
+      </c>
+      <c r="H90" t="s">
+        <v>195</v>
+      </c>
+      <c r="I90" t="s">
+        <v>793</v>
+      </c>
+      <c r="J90" t="s">
+        <v>794</v>
+      </c>
+      <c r="K90" t="s">
+        <v>795</v>
+      </c>
+      <c r="L90" t="s">
+        <v>796</v>
+      </c>
+      <c r="M90" t="s">
+        <v>797</v>
+      </c>
+      <c r="N90" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>798</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" t="s">
+        <v>799</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" t="s">
+        <v>800</v>
+      </c>
+      <c r="F91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91" t="s">
+        <v>801</v>
+      </c>
+      <c r="J91" t="s">
+        <v>802</v>
+      </c>
+      <c r="K91" t="s">
+        <v>803</v>
+      </c>
+      <c r="L91" t="s">
+        <v>804</v>
+      </c>
+      <c r="M91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>805</v>
+      </c>
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" t="s">
+        <v>806</v>
+      </c>
+      <c r="D92" t="s">
+        <v>807</v>
+      </c>
+      <c r="E92" t="s">
+        <v>808</v>
+      </c>
+      <c r="F92" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" t="s">
+        <v>87</v>
+      </c>
+      <c r="I92" t="s">
+        <v>809</v>
+      </c>
+      <c r="J92" t="s">
+        <v>810</v>
+      </c>
+      <c r="K92" t="s">
+        <v>811</v>
+      </c>
+      <c r="L92" t="s">
+        <v>812</v>
+      </c>
+      <c r="M92" t="s">
+        <v>813</v>
+      </c>
+      <c r="N92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>814</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" t="s">
+        <v>815</v>
+      </c>
+      <c r="D93" t="s">
+        <v>52</v>
+      </c>
+      <c r="E93" t="s">
+        <v>816</v>
+      </c>
+      <c r="F93" t="s">
+        <v>33</v>
+      </c>
+      <c r="G93" t="s">
+        <v>440</v>
+      </c>
+      <c r="H93" t="s">
+        <v>56</v>
+      </c>
+      <c r="I93" t="s">
+        <v>817</v>
+      </c>
+      <c r="J93" t="s">
+        <v>818</v>
+      </c>
+      <c r="K93" t="s">
+        <v>819</v>
+      </c>
+      <c r="L93" t="s">
+        <v>820</v>
+      </c>
+      <c r="M93" t="s">
+        <v>61</v>
+      </c>
+      <c r="N93" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>821</v>
+      </c>
+      <c r="B94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" t="s">
+        <v>822</v>
+      </c>
+      <c r="D94" t="s">
+        <v>823</v>
+      </c>
+      <c r="E94" t="s">
+        <v>824</v>
+      </c>
+      <c r="F94" t="s">
+        <v>76</v>
+      </c>
+      <c r="G94" t="s">
+        <v>752</v>
+      </c>
+      <c r="I94" t="s">
+        <v>825</v>
+      </c>
+      <c r="J94" t="s">
+        <v>826</v>
+      </c>
+      <c r="K94" t="s">
+        <v>827</v>
+      </c>
+      <c r="L94" t="s">
+        <v>828</v>
+      </c>
+      <c r="M94" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>830</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" t="s">
+        <v>831</v>
+      </c>
+      <c r="D95" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" t="s">
+        <v>832</v>
+      </c>
+      <c r="F95" t="s">
+        <v>33</v>
+      </c>
+      <c r="G95" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95" t="s">
+        <v>833</v>
+      </c>
+      <c r="J95" t="s">
+        <v>834</v>
+      </c>
+      <c r="K95" t="s">
+        <v>835</v>
+      </c>
+      <c r="L95" t="s">
+        <v>836</v>
+      </c>
+      <c r="M95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>837</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>838</v>
+      </c>
+      <c r="D96" t="s">
+        <v>839</v>
+      </c>
+      <c r="E96" t="s">
+        <v>840</v>
+      </c>
+      <c r="F96" t="s">
+        <v>54</v>
+      </c>
+      <c r="G96" t="s">
+        <v>55</v>
+      </c>
+      <c r="I96" t="s">
+        <v>841</v>
+      </c>
+      <c r="J96" t="s">
+        <v>842</v>
+      </c>
+      <c r="K96" t="s">
+        <v>843</v>
+      </c>
+      <c r="L96" t="s">
+        <v>844</v>
+      </c>
+      <c r="M96" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>846</v>
+      </c>
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" t="s">
+        <v>847</v>
+      </c>
+      <c r="D97" t="s">
+        <v>848</v>
+      </c>
+      <c r="E97" t="s">
+        <v>849</v>
+      </c>
+      <c r="F97" t="s">
+        <v>109</v>
+      </c>
+      <c r="G97" t="s">
+        <v>214</v>
+      </c>
+      <c r="H97" t="s">
+        <v>195</v>
+      </c>
+      <c r="I97" t="s">
+        <v>850</v>
+      </c>
+      <c r="J97" t="s">
+        <v>851</v>
+      </c>
+      <c r="K97" t="s">
+        <v>852</v>
+      </c>
+      <c r="L97" t="s">
+        <v>853</v>
+      </c>
+      <c r="M97" t="s">
+        <v>854</v>
+      </c>
+      <c r="N97" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>855</v>
+      </c>
+      <c r="B98" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" t="s">
+        <v>856</v>
+      </c>
+      <c r="E98" t="s">
+        <v>857</v>
+      </c>
+      <c r="F98" t="s">
+        <v>109</v>
+      </c>
+      <c r="I98" t="s">
+        <v>858</v>
+      </c>
+      <c r="J98" t="s">
+        <v>859</v>
+      </c>
+      <c r="K98" t="s">
+        <v>860</v>
+      </c>
+      <c r="L98" t="s">
+        <v>861</v>
+      </c>
+      <c r="N98" t="s">
+        <v>93</v>
+      </c>
+      <c r="O98" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>863</v>
+      </c>
+      <c r="B99" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" t="s">
+        <v>864</v>
+      </c>
+      <c r="E99" t="s">
+        <v>865</v>
+      </c>
+      <c r="F99" t="s">
+        <v>76</v>
+      </c>
+      <c r="I99" t="s">
+        <v>866</v>
+      </c>
+      <c r="J99" t="s">
+        <v>867</v>
+      </c>
+      <c r="K99" t="s">
+        <v>868</v>
+      </c>
+      <c r="L99" t="s">
+        <v>869</v>
+      </c>
+      <c r="M99" t="s">
+        <v>870</v>
+      </c>
+      <c r="N99" t="s">
+        <v>267</v>
+      </c>
+      <c r="O99" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>872</v>
+      </c>
+      <c r="B100" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" t="s">
+        <v>873</v>
+      </c>
+      <c r="E100" t="s">
+        <v>874</v>
+      </c>
+      <c r="F100" t="s">
+        <v>109</v>
+      </c>
+      <c r="I100" t="s">
+        <v>875</v>
+      </c>
+      <c r="J100" t="s">
+        <v>876</v>
+      </c>
+      <c r="K100" t="s">
+        <v>877</v>
+      </c>
+      <c r="L100" t="s">
+        <v>878</v>
+      </c>
+      <c r="M100" t="s">
+        <v>879</v>
+      </c>
+      <c r="N100" t="s">
+        <v>267</v>
+      </c>
+      <c r="O100" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>881</v>
+      </c>
+      <c r="B101" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" t="s">
+        <v>882</v>
+      </c>
+      <c r="E101" t="s">
+        <v>883</v>
+      </c>
+      <c r="F101" t="s">
+        <v>109</v>
+      </c>
+      <c r="I101" t="s">
+        <v>884</v>
+      </c>
+      <c r="J101" t="s">
+        <v>885</v>
+      </c>
+      <c r="K101" t="s">
+        <v>886</v>
+      </c>
+      <c r="L101" t="s">
+        <v>887</v>
+      </c>
+      <c r="M101" t="s">
+        <v>888</v>
+      </c>
+      <c r="N101" t="s">
+        <v>464</v>
+      </c>
+      <c r="O101" t="s">
+        <v>889</v>
       </c>
     </row>
   </sheetData>
